--- a/sites/URS_Certifications 29.07.25.xlsx
+++ b/sites/URS_Certifications 29.07.25.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\sites\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF8548AD-02C4-4641-8DD1-670A8DD05958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA35F9FB-F3E6-4EE7-9CB2-CC0FF3540439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="URS_Certifications 29.07.25" sheetId="1" r:id="rId1"/>
@@ -943,9 +943,6 @@
     <t>Armtel-Engineering</t>
   </si>
   <si>
-    <t>LLC</t>
-  </si>
-  <si>
     <t>09AAWCA1561B1ZO</t>
   </si>
   <si>
@@ -2189,12 +2186,15 @@
   </si>
   <si>
     <t>Научно-производственная фирма "Моссар"</t>
+  </si>
+  <si>
+    <t>LTD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3048,16 +3048,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1360"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A606" workbookViewId="0">
+      <selection activeCell="I615" sqref="I615"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="1" max="7" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -17194,10 +17194,10 @@
         <v>306</v>
       </c>
       <c r="B620" t="s">
+        <v>722</v>
+      </c>
+      <c r="C620" t="s">
         <v>307</v>
-      </c>
-      <c r="C620" t="s">
-        <v>308</v>
       </c>
       <c r="D620" t="s">
         <v>9</v>
@@ -17214,7 +17214,7 @@
     </row>
     <row r="621" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B621" t="s">
         <v>24</v>
@@ -17237,7 +17237,7 @@
     </row>
     <row r="622" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B622" t="s">
         <v>24</v>
@@ -17260,7 +17260,7 @@
     </row>
     <row r="623" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B623" t="s">
         <v>24</v>
@@ -17283,7 +17283,7 @@
     </row>
     <row r="624" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B624" t="s">
         <v>24</v>
@@ -17306,7 +17306,7 @@
     </row>
     <row r="625" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B625" t="s">
         <v>24</v>
@@ -17329,7 +17329,7 @@
     </row>
     <row r="626" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B626" t="s">
         <v>24</v>
@@ -17352,7 +17352,7 @@
     </row>
     <row r="627" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B627" t="s">
         <v>24</v>
@@ -17375,7 +17375,7 @@
     </row>
     <row r="628" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B628" t="s">
         <v>24</v>
@@ -17398,7 +17398,7 @@
     </row>
     <row r="629" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B629" t="s">
         <v>24</v>
@@ -17421,7 +17421,7 @@
     </row>
     <row r="630" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B630" t="s">
         <v>8</v>
@@ -17444,7 +17444,7 @@
     </row>
     <row r="631" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B631" t="s">
         <v>24</v>
@@ -17467,7 +17467,7 @@
     </row>
     <row r="632" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B632" t="s">
         <v>8</v>
@@ -17490,7 +17490,7 @@
     </row>
     <row r="633" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B633" t="s">
         <v>8</v>
@@ -17513,7 +17513,7 @@
     </row>
     <row r="634" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B634" t="s">
         <v>8</v>
@@ -17536,7 +17536,7 @@
     </row>
     <row r="635" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B635" t="s">
         <v>8</v>
@@ -17559,7 +17559,7 @@
     </row>
     <row r="636" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B636" t="s">
         <v>28</v>
@@ -17582,7 +17582,7 @@
     </row>
     <row r="637" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B637" t="s">
         <v>24</v>
@@ -17605,7 +17605,7 @@
     </row>
     <row r="638" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B638" t="s">
         <v>24</v>
@@ -17628,7 +17628,7 @@
     </row>
     <row r="639" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B639" t="s">
         <v>24</v>
@@ -17651,7 +17651,7 @@
     </row>
     <row r="640" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B640" t="s">
         <v>24</v>
@@ -17674,7 +17674,7 @@
     </row>
     <row r="641" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B641" t="s">
         <v>24</v>
@@ -17697,7 +17697,7 @@
     </row>
     <row r="642" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B642" t="s">
         <v>24</v>
@@ -17720,7 +17720,7 @@
     </row>
     <row r="643" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B643" t="s">
         <v>24</v>
@@ -17743,7 +17743,7 @@
     </row>
     <row r="644" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B644" t="s">
         <v>24</v>
@@ -17755,7 +17755,7 @@
         <v>14</v>
       </c>
       <c r="E644" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F644" t="s">
         <v>11</v>
@@ -17763,7 +17763,7 @@
     </row>
     <row r="645" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B645" t="s">
         <v>8</v>
@@ -17786,7 +17786,7 @@
     </row>
     <row r="646" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B646" t="s">
         <v>8</v>
@@ -17809,7 +17809,7 @@
     </row>
     <row r="647" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B647" t="s">
         <v>8</v>
@@ -17832,7 +17832,7 @@
     </row>
     <row r="648" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B648" t="s">
         <v>8</v>
@@ -17855,7 +17855,7 @@
     </row>
     <row r="649" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B649" t="s">
         <v>8</v>
@@ -17875,7 +17875,7 @@
     </row>
     <row r="650" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B650" t="s">
         <v>8</v>
@@ -17895,7 +17895,7 @@
     </row>
     <row r="651" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B651" t="s">
         <v>24</v>
@@ -17918,13 +17918,13 @@
     </row>
     <row r="652" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
+        <v>325</v>
+      </c>
+      <c r="E652" t="s">
+        <v>10</v>
+      </c>
+      <c r="F652" t="s">
         <v>326</v>
-      </c>
-      <c r="E652" t="s">
-        <v>10</v>
-      </c>
-      <c r="F652" t="s">
-        <v>327</v>
       </c>
       <c r="G652" s="1">
         <v>45575</v>
@@ -17932,13 +17932,13 @@
     </row>
     <row r="653" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E653" t="s">
         <v>16</v>
       </c>
       <c r="F653" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G653" s="1">
         <v>45957</v>
@@ -17946,13 +17946,13 @@
     </row>
     <row r="654" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E654" t="s">
         <v>26</v>
       </c>
       <c r="F654" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G654" s="1">
         <v>45957</v>
@@ -17960,13 +17960,13 @@
     </row>
     <row r="655" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E655" t="s">
         <v>68</v>
       </c>
       <c r="F655" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G655" s="1">
         <v>45548</v>
@@ -17974,13 +17974,13 @@
     </row>
     <row r="656" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
+        <v>325</v>
+      </c>
+      <c r="E656" t="s">
+        <v>327</v>
+      </c>
+      <c r="F656" t="s">
         <v>326</v>
-      </c>
-      <c r="E656" t="s">
-        <v>328</v>
-      </c>
-      <c r="F656" t="s">
-        <v>327</v>
       </c>
       <c r="G656" s="1">
         <v>45565</v>
@@ -17988,7 +17988,7 @@
     </row>
     <row r="657" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B657" t="s">
         <v>8</v>
@@ -18011,7 +18011,7 @@
     </row>
     <row r="658" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B658" t="s">
         <v>8</v>
@@ -18034,7 +18034,7 @@
     </row>
     <row r="659" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B659" t="s">
         <v>8</v>
@@ -18057,7 +18057,7 @@
     </row>
     <row r="660" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B660" t="s">
         <v>24</v>
@@ -18080,7 +18080,7 @@
     </row>
     <row r="661" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B661" t="s">
         <v>24</v>
@@ -18103,7 +18103,7 @@
     </row>
     <row r="662" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B662" t="s">
         <v>24</v>
@@ -18126,7 +18126,7 @@
     </row>
     <row r="663" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B663" t="s">
         <v>8</v>
@@ -18149,7 +18149,7 @@
     </row>
     <row r="664" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B664" t="s">
         <v>8</v>
@@ -18172,7 +18172,7 @@
     </row>
     <row r="665" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B665" t="s">
         <v>24</v>
@@ -18195,7 +18195,7 @@
     </row>
     <row r="666" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B666" t="s">
         <v>24</v>
@@ -18218,7 +18218,7 @@
     </row>
     <row r="667" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B667" t="s">
         <v>24</v>
@@ -18241,7 +18241,7 @@
     </row>
     <row r="668" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B668" t="s">
         <v>24</v>
@@ -18264,7 +18264,7 @@
     </row>
     <row r="669" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B669" t="s">
         <v>24</v>
@@ -18287,7 +18287,7 @@
     </row>
     <row r="670" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B670" t="s">
         <v>24</v>
@@ -18310,7 +18310,7 @@
     </row>
     <row r="671" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B671" t="s">
         <v>24</v>
@@ -18333,7 +18333,7 @@
     </row>
     <row r="672" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B672" t="s">
         <v>8</v>
@@ -18356,7 +18356,7 @@
     </row>
     <row r="673" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B673" t="s">
         <v>8</v>
@@ -18379,7 +18379,7 @@
     </row>
     <row r="674" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B674" t="s">
         <v>8</v>
@@ -18402,7 +18402,7 @@
     </row>
     <row r="675" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B675" t="s">
         <v>8</v>
@@ -18425,7 +18425,7 @@
     </row>
     <row r="676" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B676" t="s">
         <v>24</v>
@@ -18448,7 +18448,7 @@
     </row>
     <row r="677" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B677" t="s">
         <v>24</v>
@@ -18471,7 +18471,7 @@
     </row>
     <row r="678" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B678" t="s">
         <v>24</v>
@@ -18494,13 +18494,13 @@
     </row>
     <row r="679" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E679" t="s">
         <v>10</v>
       </c>
       <c r="F679" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G679" s="1">
         <v>45926</v>
@@ -18508,13 +18508,13 @@
     </row>
     <row r="680" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E680" t="s">
         <v>10</v>
       </c>
       <c r="F680" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G680" s="1">
         <v>45996</v>
@@ -18522,13 +18522,13 @@
     </row>
     <row r="681" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E681" t="s">
         <v>16</v>
       </c>
       <c r="F681" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G681" s="1">
         <v>45995</v>
@@ -18536,13 +18536,13 @@
     </row>
     <row r="682" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E682" t="s">
         <v>26</v>
       </c>
       <c r="F682" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G682" s="1">
         <v>45995</v>
@@ -18550,7 +18550,7 @@
     </row>
     <row r="683" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B683" t="s">
         <v>24</v>
@@ -18573,13 +18573,13 @@
     </row>
     <row r="684" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E684" t="s">
         <v>10</v>
       </c>
       <c r="F684" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G684" s="1">
         <v>46013</v>
@@ -18587,13 +18587,13 @@
     </row>
     <row r="685" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E685" t="s">
         <v>16</v>
       </c>
       <c r="F685" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G685" s="1">
         <v>46013</v>
@@ -18601,13 +18601,13 @@
     </row>
     <row r="686" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E686" t="s">
         <v>26</v>
       </c>
       <c r="F686" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G686" s="1">
         <v>46013</v>
@@ -18615,13 +18615,13 @@
     </row>
     <row r="687" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E687" t="s">
         <v>10</v>
       </c>
       <c r="F687" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G687" s="1">
         <v>45998</v>
@@ -18629,13 +18629,13 @@
     </row>
     <row r="688" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E688" t="s">
         <v>16</v>
       </c>
       <c r="F688" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G688" s="1">
         <v>45997</v>
@@ -18643,13 +18643,13 @@
     </row>
     <row r="689" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E689" t="s">
         <v>26</v>
       </c>
       <c r="F689" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G689" s="1">
         <v>45997</v>
@@ -18657,7 +18657,7 @@
     </row>
     <row r="690" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B690" t="s">
         <v>83</v>
@@ -18680,7 +18680,7 @@
     </row>
     <row r="691" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B691" t="s">
         <v>24</v>
@@ -18703,7 +18703,7 @@
     </row>
     <row r="692" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B692" t="s">
         <v>24</v>
@@ -18726,7 +18726,7 @@
     </row>
     <row r="693" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B693" t="s">
         <v>24</v>
@@ -18749,7 +18749,7 @@
     </row>
     <row r="694" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B694" t="s">
         <v>24</v>
@@ -18772,7 +18772,7 @@
     </row>
     <row r="695" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B695" t="s">
         <v>24</v>
@@ -18795,7 +18795,7 @@
     </row>
     <row r="696" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B696" t="s">
         <v>24</v>
@@ -18818,7 +18818,7 @@
     </row>
     <row r="697" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B697" t="s">
         <v>24</v>
@@ -18841,7 +18841,7 @@
     </row>
     <row r="698" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B698" t="s">
         <v>24</v>
@@ -18864,7 +18864,7 @@
     </row>
     <row r="699" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B699" t="s">
         <v>24</v>
@@ -18887,7 +18887,7 @@
     </row>
     <row r="700" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B700" t="s">
         <v>24</v>
@@ -18910,7 +18910,7 @@
     </row>
     <row r="701" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B701" t="s">
         <v>24</v>
@@ -18933,13 +18933,13 @@
     </row>
     <row r="702" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
+        <v>348</v>
+      </c>
+      <c r="E702" t="s">
+        <v>10</v>
+      </c>
+      <c r="F702" t="s">
         <v>349</v>
-      </c>
-      <c r="E702" t="s">
-        <v>10</v>
-      </c>
-      <c r="F702" t="s">
-        <v>350</v>
       </c>
       <c r="G702" s="1">
         <v>45951</v>
@@ -18947,13 +18947,13 @@
     </row>
     <row r="703" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E703" t="s">
         <v>16</v>
       </c>
       <c r="F703" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G703" s="1">
         <v>45951</v>
@@ -18961,13 +18961,13 @@
     </row>
     <row r="704" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E704" t="s">
         <v>26</v>
       </c>
       <c r="F704" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G704" s="1">
         <v>45951</v>
@@ -18975,13 +18975,13 @@
     </row>
     <row r="705" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E705" t="s">
         <v>10</v>
       </c>
       <c r="F705" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G705" s="1">
         <v>45925</v>
@@ -18989,13 +18989,13 @@
     </row>
     <row r="706" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
+        <v>350</v>
+      </c>
+      <c r="E706" t="s">
         <v>351</v>
       </c>
-      <c r="E706" t="s">
-        <v>352</v>
-      </c>
       <c r="F706" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G706" s="1">
         <v>45928</v>
@@ -19003,7 +19003,7 @@
     </row>
     <row r="707" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B707" t="s">
         <v>8</v>
@@ -19026,7 +19026,7 @@
     </row>
     <row r="708" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B708" t="s">
         <v>8</v>
@@ -19049,7 +19049,7 @@
     </row>
     <row r="709" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B709" t="s">
         <v>8</v>
@@ -19072,13 +19072,13 @@
     </row>
     <row r="710" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E710" t="s">
         <v>10</v>
       </c>
       <c r="F710" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G710" s="1">
         <v>45927</v>
@@ -19086,13 +19086,13 @@
     </row>
     <row r="711" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E711" t="s">
         <v>26</v>
       </c>
       <c r="F711" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G711" s="1">
         <v>45927</v>
@@ -19100,7 +19100,7 @@
     </row>
     <row r="712" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B712" t="s">
         <v>8</v>
@@ -19123,7 +19123,7 @@
     </row>
     <row r="713" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B713" t="s">
         <v>8</v>
@@ -19146,7 +19146,7 @@
     </row>
     <row r="714" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B714" t="s">
         <v>8</v>
@@ -19169,7 +19169,7 @@
     </row>
     <row r="715" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B715" t="s">
         <v>8</v>
@@ -19192,7 +19192,7 @@
     </row>
     <row r="716" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B716" t="s">
         <v>8</v>
@@ -19215,7 +19215,7 @@
     </row>
     <row r="717" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B717" t="s">
         <v>8</v>
@@ -19238,7 +19238,7 @@
     </row>
     <row r="718" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B718" t="s">
         <v>28</v>
@@ -19261,7 +19261,7 @@
     </row>
     <row r="719" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B719" t="s">
         <v>24</v>
@@ -19284,7 +19284,7 @@
     </row>
     <row r="720" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B720" t="s">
         <v>24</v>
@@ -19307,7 +19307,7 @@
     </row>
     <row r="721" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B721" t="s">
         <v>24</v>
@@ -19330,7 +19330,7 @@
     </row>
     <row r="722" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B722" t="s">
         <v>24</v>
@@ -19353,7 +19353,7 @@
     </row>
     <row r="723" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B723" t="s">
         <v>24</v>
@@ -19376,7 +19376,7 @@
     </row>
     <row r="724" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B724" t="s">
         <v>24</v>
@@ -19399,7 +19399,7 @@
     </row>
     <row r="725" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B725" t="s">
         <v>24</v>
@@ -19422,7 +19422,7 @@
     </row>
     <row r="726" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B726" t="s">
         <v>24</v>
@@ -19445,7 +19445,7 @@
     </row>
     <row r="727" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B727" t="s">
         <v>24</v>
@@ -19468,13 +19468,13 @@
     </row>
     <row r="728" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
+        <v>360</v>
+      </c>
+      <c r="E728" t="s">
+        <v>10</v>
+      </c>
+      <c r="F728" t="s">
         <v>361</v>
-      </c>
-      <c r="E728" t="s">
-        <v>10</v>
-      </c>
-      <c r="F728" t="s">
-        <v>362</v>
       </c>
       <c r="G728">
         <v>45888</v>
@@ -19482,7 +19482,7 @@
     </row>
     <row r="729" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B729" t="s">
         <v>8</v>
@@ -19505,7 +19505,7 @@
     </row>
     <row r="730" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B730" t="s">
         <v>24</v>
@@ -19528,13 +19528,13 @@
     </row>
     <row r="731" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E731" t="s">
         <v>10</v>
       </c>
       <c r="F731" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G731" s="1">
         <v>45813</v>
@@ -19542,7 +19542,7 @@
     </row>
     <row r="732" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B732" t="s">
         <v>24</v>
@@ -19565,7 +19565,7 @@
     </row>
     <row r="733" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B733" t="s">
         <v>24</v>
@@ -19588,7 +19588,7 @@
     </row>
     <row r="734" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B734" t="s">
         <v>24</v>
@@ -19611,7 +19611,7 @@
     </row>
     <row r="735" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B735" t="s">
         <v>24</v>
@@ -19634,13 +19634,13 @@
     </row>
     <row r="736" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E736" t="s">
         <v>10</v>
       </c>
       <c r="F736" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G736">
         <v>45951</v>
@@ -19648,13 +19648,13 @@
     </row>
     <row r="737" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E737" t="s">
         <v>16</v>
       </c>
       <c r="F737" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G737">
         <v>45951</v>
@@ -19662,13 +19662,13 @@
     </row>
     <row r="738" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E738" t="s">
         <v>26</v>
       </c>
       <c r="F738" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G738">
         <v>45956</v>
@@ -19676,13 +19676,13 @@
     </row>
     <row r="739" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E739" t="s">
         <v>10</v>
       </c>
       <c r="F739" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G739" s="1">
         <v>45989</v>
@@ -19690,13 +19690,13 @@
     </row>
     <row r="740" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E740" t="s">
         <v>10</v>
       </c>
       <c r="F740" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G740" s="1">
         <v>45928</v>
@@ -19704,13 +19704,13 @@
     </row>
     <row r="741" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E741" t="s">
         <v>10</v>
       </c>
       <c r="F741" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G741" s="1">
         <v>45997</v>
@@ -19718,13 +19718,13 @@
     </row>
     <row r="742" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E742" t="s">
         <v>10</v>
       </c>
       <c r="F742" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G742" s="1">
         <v>45997</v>
@@ -19732,13 +19732,13 @@
     </row>
     <row r="743" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E743" t="s">
         <v>10</v>
       </c>
       <c r="F743" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G743" s="1">
         <v>46017</v>
@@ -19746,7 +19746,7 @@
     </row>
     <row r="744" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B744" t="s">
         <v>24</v>
@@ -19769,7 +19769,7 @@
     </row>
     <row r="745" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B745" t="s">
         <v>24</v>
@@ -19792,13 +19792,13 @@
     </row>
     <row r="746" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E746" t="s">
         <v>68</v>
       </c>
       <c r="F746" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G746" s="1">
         <v>45925</v>
@@ -19806,10 +19806,10 @@
     </row>
     <row r="747" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
+        <v>374</v>
+      </c>
+      <c r="B747" t="s">
         <v>375</v>
-      </c>
-      <c r="B747" t="s">
-        <v>376</v>
       </c>
       <c r="C747">
         <v>3904014891</v>
@@ -19829,13 +19829,13 @@
     </row>
     <row r="748" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E748" t="s">
         <v>10</v>
       </c>
       <c r="F748" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G748" s="1">
         <v>46021</v>
@@ -19843,7 +19843,7 @@
     </row>
     <row r="749" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B749" t="s">
         <v>8</v>
@@ -19866,7 +19866,7 @@
     </row>
     <row r="750" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B750" t="s">
         <v>8</v>
@@ -19889,13 +19889,13 @@
     </row>
     <row r="751" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E751" t="s">
         <v>10</v>
       </c>
       <c r="F751" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G751" s="1">
         <v>45926</v>
@@ -19903,13 +19903,13 @@
     </row>
     <row r="752" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E752" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F752" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G752" s="1">
         <v>45935</v>
@@ -19917,7 +19917,7 @@
     </row>
     <row r="753" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B753" t="s">
         <v>83</v>
@@ -19940,13 +19940,13 @@
     </row>
     <row r="754" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E754" t="s">
         <v>10</v>
       </c>
       <c r="F754" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G754" s="1">
         <v>45886</v>
@@ -19954,13 +19954,13 @@
     </row>
     <row r="755" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E755" t="s">
         <v>16</v>
       </c>
       <c r="F755" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G755" s="1">
         <v>45886</v>
@@ -19968,13 +19968,13 @@
     </row>
     <row r="756" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E756" t="s">
         <v>26</v>
       </c>
       <c r="F756" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G756" s="1">
         <v>45886</v>
@@ -19982,13 +19982,13 @@
     </row>
     <row r="757" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E757" t="s">
         <v>10</v>
       </c>
       <c r="F757" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G757">
         <v>45989</v>
@@ -19996,13 +19996,13 @@
     </row>
     <row r="758" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E758" t="s">
         <v>16</v>
       </c>
       <c r="F758" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G758">
         <v>45989</v>
@@ -20010,13 +20010,13 @@
     </row>
     <row r="759" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E759" t="s">
         <v>26</v>
       </c>
       <c r="F759" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G759">
         <v>45989</v>
@@ -20024,13 +20024,13 @@
     </row>
     <row r="760" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E760" t="s">
         <v>10</v>
       </c>
       <c r="F760" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G760" s="1">
         <v>45898</v>
@@ -20038,13 +20038,13 @@
     </row>
     <row r="761" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E761" t="s">
         <v>16</v>
       </c>
       <c r="F761" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G761" s="1">
         <v>45898</v>
@@ -20052,13 +20052,13 @@
     </row>
     <row r="762" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E762" t="s">
         <v>26</v>
       </c>
       <c r="F762" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G762" s="1">
         <v>45899</v>
@@ -20066,7 +20066,7 @@
     </row>
     <row r="763" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B763" t="s">
         <v>24</v>
@@ -20089,7 +20089,7 @@
     </row>
     <row r="764" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B764" t="s">
         <v>24</v>
@@ -20112,27 +20112,27 @@
     </row>
     <row r="765" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
+        <v>384</v>
+      </c>
+      <c r="E765" t="s">
+        <v>351</v>
+      </c>
+      <c r="F765" t="s">
+        <v>326</v>
+      </c>
+      <c r="G765" t="s">
         <v>385</v>
-      </c>
-      <c r="E765" t="s">
-        <v>352</v>
-      </c>
-      <c r="F765" t="s">
-        <v>327</v>
-      </c>
-      <c r="G765" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="766" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E766" t="s">
         <v>10</v>
       </c>
       <c r="F766" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G766">
         <v>45617</v>
@@ -20140,13 +20140,13 @@
     </row>
     <row r="767" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E767" t="s">
         <v>10</v>
       </c>
       <c r="F767" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G767" s="1">
         <v>45975</v>
@@ -20154,13 +20154,13 @@
     </row>
     <row r="768" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E768" t="s">
         <v>26</v>
       </c>
       <c r="F768" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G768" s="1">
         <v>45975</v>
@@ -20168,13 +20168,13 @@
     </row>
     <row r="769" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
+        <v>387</v>
+      </c>
+      <c r="E769" t="s">
+        <v>10</v>
+      </c>
+      <c r="F769" t="s">
         <v>388</v>
-      </c>
-      <c r="E769" t="s">
-        <v>10</v>
-      </c>
-      <c r="F769" t="s">
-        <v>389</v>
       </c>
       <c r="G769">
         <v>46253</v>
@@ -20182,13 +20182,13 @@
     </row>
     <row r="770" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E770" t="s">
         <v>16</v>
       </c>
       <c r="F770" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G770">
         <v>46253</v>
@@ -20196,13 +20196,13 @@
     </row>
     <row r="771" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E771" t="s">
         <v>26</v>
       </c>
       <c r="F771" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G771">
         <v>46253</v>
@@ -20210,13 +20210,13 @@
     </row>
     <row r="772" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E772" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F772" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G772" s="1">
         <v>45968</v>
@@ -20224,13 +20224,13 @@
     </row>
     <row r="773" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E773" t="s">
         <v>10</v>
       </c>
       <c r="F773" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G773" s="1">
         <v>45894</v>
@@ -20238,13 +20238,13 @@
     </row>
     <row r="774" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E774" t="s">
         <v>16</v>
       </c>
       <c r="F774" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G774" s="1">
         <v>45894</v>
@@ -20252,13 +20252,13 @@
     </row>
     <row r="775" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E775" t="s">
         <v>26</v>
       </c>
       <c r="F775" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G775" s="1">
         <v>45894</v>
@@ -20266,13 +20266,13 @@
     </row>
     <row r="776" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E776" t="s">
         <v>10</v>
       </c>
       <c r="F776" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G776">
         <v>45887</v>
@@ -20280,13 +20280,13 @@
     </row>
     <row r="777" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E777" t="s">
         <v>10</v>
       </c>
       <c r="F777" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G777">
         <v>45909</v>
@@ -20294,18 +20294,18 @@
     </row>
     <row r="778" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="779" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E779" t="s">
         <v>10</v>
       </c>
       <c r="F779" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G779">
         <v>45912</v>
@@ -20313,18 +20313,18 @@
     </row>
     <row r="780" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="781" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E781" t="s">
         <v>16</v>
       </c>
       <c r="F781" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G781">
         <v>45911</v>
@@ -20332,18 +20332,18 @@
     </row>
     <row r="782" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="783" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E783" t="s">
         <v>26</v>
       </c>
       <c r="F783" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G783">
         <v>45911</v>
@@ -20351,7 +20351,7 @@
     </row>
     <row r="784" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B784" t="s">
         <v>24</v>
@@ -20374,7 +20374,7 @@
     </row>
     <row r="785" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B785" t="s">
         <v>24</v>
@@ -20397,13 +20397,13 @@
     </row>
     <row r="786" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
+        <v>396</v>
+      </c>
+      <c r="E786" t="s">
+        <v>10</v>
+      </c>
+      <c r="F786" t="s">
         <v>397</v>
-      </c>
-      <c r="E786" t="s">
-        <v>10</v>
-      </c>
-      <c r="F786" t="s">
-        <v>398</v>
       </c>
       <c r="G786" s="1">
         <v>44909</v>
@@ -20411,7 +20411,7 @@
     </row>
     <row r="787" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B787" t="s">
         <v>44</v>
@@ -20434,7 +20434,7 @@
     </row>
     <row r="788" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B788" t="s">
         <v>8</v>
@@ -20457,27 +20457,27 @@
     </row>
     <row r="789" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
+        <v>400</v>
+      </c>
+      <c r="E789" t="s">
+        <v>10</v>
+      </c>
+      <c r="F789" t="s">
+        <v>326</v>
+      </c>
+      <c r="G789" t="s">
         <v>401</v>
-      </c>
-      <c r="E789" t="s">
-        <v>10</v>
-      </c>
-      <c r="F789" t="s">
-        <v>327</v>
-      </c>
-      <c r="G789" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="790" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E790" t="s">
         <v>10</v>
       </c>
       <c r="F790" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G790">
         <v>45912</v>
@@ -20485,13 +20485,13 @@
     </row>
     <row r="791" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E791" t="s">
         <v>16</v>
       </c>
       <c r="F791" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G791">
         <v>45912</v>
@@ -20499,13 +20499,13 @@
     </row>
     <row r="792" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E792" t="s">
         <v>26</v>
       </c>
       <c r="F792" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G792">
         <v>45912</v>
@@ -20513,7 +20513,7 @@
     </row>
     <row r="793" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B793" t="s">
         <v>24</v>
@@ -20536,13 +20536,13 @@
     </row>
     <row r="794" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
+        <v>404</v>
+      </c>
+      <c r="E794" t="s">
+        <v>10</v>
+      </c>
+      <c r="F794" t="s">
         <v>405</v>
-      </c>
-      <c r="E794" t="s">
-        <v>10</v>
-      </c>
-      <c r="F794" t="s">
-        <v>406</v>
       </c>
       <c r="G794">
         <v>45993</v>
@@ -20550,13 +20550,13 @@
     </row>
     <row r="795" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E795" t="s">
         <v>16</v>
       </c>
       <c r="F795" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G795">
         <v>45993</v>
@@ -20564,13 +20564,13 @@
     </row>
     <row r="796" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E796" t="s">
         <v>26</v>
       </c>
       <c r="F796" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G796">
         <v>45995</v>
@@ -20578,13 +20578,13 @@
     </row>
     <row r="797" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E797" t="s">
         <v>10</v>
       </c>
       <c r="F797" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G797" s="1">
         <v>46033</v>
@@ -20592,13 +20592,13 @@
     </row>
     <row r="798" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E798" t="s">
         <v>16</v>
       </c>
       <c r="F798" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G798" s="1">
         <v>46032</v>
@@ -20606,13 +20606,13 @@
     </row>
     <row r="799" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E799" t="s">
         <v>26</v>
       </c>
       <c r="F799" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G799" s="1">
         <v>46032</v>
@@ -20620,13 +20620,13 @@
     </row>
     <row r="800" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E800" t="s">
         <v>88</v>
       </c>
       <c r="F800" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G800" s="1">
         <v>45570</v>
@@ -20634,13 +20634,13 @@
     </row>
     <row r="801" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E801" t="s">
         <v>88</v>
       </c>
       <c r="F801" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G801" s="1">
         <v>46913</v>
@@ -20648,7 +20648,7 @@
     </row>
     <row r="802" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A802" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D802" t="s">
         <v>9</v>
@@ -20657,7 +20657,7 @@
         <v>88</v>
       </c>
       <c r="F802" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G802" s="1">
         <v>46431</v>
@@ -20665,13 +20665,13 @@
     </row>
     <row r="803" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E803" t="s">
         <v>88</v>
       </c>
       <c r="F803" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G803" s="1">
         <v>45549</v>
@@ -20679,13 +20679,13 @@
     </row>
     <row r="804" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E804" t="s">
         <v>88</v>
       </c>
       <c r="F804" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G804" s="1">
         <v>46931</v>
@@ -20693,13 +20693,13 @@
     </row>
     <row r="805" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A805" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E805" t="s">
         <v>10</v>
       </c>
       <c r="F805" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G805" s="1">
         <v>45888</v>
@@ -20707,7 +20707,7 @@
     </row>
     <row r="806" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A806" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B806" t="s">
         <v>83</v>
@@ -20730,7 +20730,7 @@
     </row>
     <row r="807" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B807" t="s">
         <v>24</v>
@@ -20753,7 +20753,7 @@
     </row>
     <row r="808" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A808" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B808" t="s">
         <v>24</v>
@@ -20776,7 +20776,7 @@
     </row>
     <row r="809" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A809" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B809" t="s">
         <v>24</v>
@@ -20799,7 +20799,7 @@
     </row>
     <row r="810" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A810" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B810" t="s">
         <v>24</v>
@@ -20822,7 +20822,7 @@
     </row>
     <row r="811" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B811" t="s">
         <v>28</v>
@@ -20848,7 +20848,7 @@
         <v>10</v>
       </c>
       <c r="F812" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G812" s="1">
         <v>46542</v>
@@ -20856,13 +20856,13 @@
     </row>
     <row r="813" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A813" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E813" t="s">
         <v>10</v>
       </c>
       <c r="F813" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G813" s="1">
         <v>46083</v>
@@ -20870,13 +20870,13 @@
     </row>
     <row r="814" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A814" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E814" t="s">
         <v>10</v>
       </c>
       <c r="F814" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G814" s="1">
         <v>46258</v>
@@ -20884,13 +20884,13 @@
     </row>
     <row r="815" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A815" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E815" t="s">
         <v>16</v>
       </c>
       <c r="F815" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G815" s="1">
         <v>46276</v>
@@ -20898,13 +20898,13 @@
     </row>
     <row r="816" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A816" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E816" t="s">
         <v>26</v>
       </c>
       <c r="F816" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G816" s="1">
         <v>46195</v>
@@ -20915,7 +20915,7 @@
         <v>26</v>
       </c>
       <c r="F817" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G817" s="1">
         <v>46414</v>
@@ -20926,7 +20926,7 @@
         <v>10</v>
       </c>
       <c r="F818" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G818" s="1">
         <v>46356</v>
@@ -20940,7 +20940,7 @@
         <v>10</v>
       </c>
       <c r="F819" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G819" s="1">
         <v>46660</v>
@@ -20954,7 +20954,7 @@
         <v>16</v>
       </c>
       <c r="F820" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G820" s="1">
         <v>46660</v>
@@ -20968,7 +20968,7 @@
         <v>26</v>
       </c>
       <c r="F821" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G821" s="1">
         <v>46660</v>
@@ -20976,16 +20976,16 @@
     </row>
     <row r="822" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A822" t="s">
+        <v>417</v>
+      </c>
+      <c r="B822" t="s">
         <v>418</v>
       </c>
-      <c r="B822" t="s">
+      <c r="E822" t="s">
         <v>419</v>
       </c>
-      <c r="E822" t="s">
-        <v>420</v>
-      </c>
       <c r="F822" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G822" s="1">
         <v>46901</v>
@@ -20993,16 +20993,16 @@
     </row>
     <row r="823" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A823" t="s">
+        <v>417</v>
+      </c>
+      <c r="B823" t="s">
         <v>418</v>
       </c>
-      <c r="B823" t="s">
+      <c r="E823" t="s">
         <v>419</v>
       </c>
-      <c r="E823" t="s">
-        <v>420</v>
-      </c>
       <c r="F823" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G823" s="1">
         <v>46901</v>
@@ -21010,7 +21010,7 @@
     </row>
     <row r="824" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A824" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B824" t="s">
         <v>8</v>
@@ -21033,7 +21033,7 @@
     </row>
     <row r="825" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A825" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B825" t="s">
         <v>24</v>
@@ -21056,7 +21056,7 @@
     </row>
     <row r="826" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A826" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B826" t="s">
         <v>24</v>
@@ -21079,7 +21079,7 @@
     </row>
     <row r="827" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A827" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B827" t="s">
         <v>24</v>
@@ -21102,7 +21102,7 @@
     </row>
     <row r="828" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A828" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B828" t="s">
         <v>24</v>
@@ -21125,13 +21125,13 @@
     </row>
     <row r="829" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A829" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E829" t="s">
         <v>16</v>
       </c>
       <c r="F829" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G829">
         <v>46004</v>
@@ -21139,13 +21139,13 @@
     </row>
     <row r="830" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A830" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E830" t="s">
         <v>26</v>
       </c>
       <c r="F830" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G830">
         <v>46004</v>
@@ -21153,7 +21153,7 @@
     </row>
     <row r="831" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A831" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B831" t="s">
         <v>8</v>
@@ -21176,7 +21176,7 @@
     </row>
     <row r="832" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A832" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B832" t="s">
         <v>8</v>
@@ -21199,7 +21199,7 @@
     </row>
     <row r="833" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A833" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B833" t="s">
         <v>8</v>
@@ -21222,7 +21222,7 @@
     </row>
     <row r="834" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A834" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B834" t="s">
         <v>8</v>
@@ -21245,7 +21245,7 @@
     </row>
     <row r="835" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A835" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B835" t="s">
         <v>8</v>
@@ -21268,7 +21268,7 @@
     </row>
     <row r="836" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A836" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B836" t="s">
         <v>24</v>
@@ -21291,7 +21291,7 @@
     </row>
     <row r="837" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A837" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B837" t="s">
         <v>24</v>
@@ -21314,7 +21314,7 @@
     </row>
     <row r="838" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A838" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B838" t="s">
         <v>24</v>
@@ -21326,7 +21326,7 @@
         <v>9</v>
       </c>
       <c r="E838" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F838" t="s">
         <v>11</v>
@@ -21337,13 +21337,13 @@
     </row>
     <row r="839" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A839" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E839" t="s">
         <v>10</v>
       </c>
       <c r="F839" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G839" t="e">
         <v>#REF!</v>
@@ -21351,7 +21351,7 @@
     </row>
     <row r="840" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A840" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B840" t="s">
         <v>24</v>
@@ -21374,7 +21374,7 @@
     </row>
     <row r="841" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A841" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B841" t="s">
         <v>24</v>
@@ -21397,7 +21397,7 @@
     </row>
     <row r="842" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A842" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B842" t="s">
         <v>24</v>
@@ -21420,7 +21420,7 @@
     </row>
     <row r="843" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A843" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B843" t="s">
         <v>24</v>
@@ -21443,7 +21443,7 @@
     </row>
     <row r="844" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A844" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C844">
         <v>700010977</v>
@@ -21463,7 +21463,7 @@
     </row>
     <row r="845" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A845" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B845" t="s">
         <v>24</v>
@@ -21486,7 +21486,7 @@
     </row>
     <row r="846" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A846" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B846" t="s">
         <v>24</v>
@@ -21509,7 +21509,7 @@
     </row>
     <row r="847" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A847" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B847" t="s">
         <v>24</v>
@@ -21532,10 +21532,10 @@
     </row>
     <row r="848" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A848" t="s">
+        <v>432</v>
+      </c>
+      <c r="B848" t="s">
         <v>433</v>
-      </c>
-      <c r="B848" t="s">
-        <v>434</v>
       </c>
       <c r="C848">
         <v>3904014891</v>
@@ -21558,7 +21558,7 @@
         <v>10</v>
       </c>
       <c r="F849" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G849" s="1">
         <v>46108</v>
@@ -21569,7 +21569,7 @@
         <v>16</v>
       </c>
       <c r="F850" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G850" s="1">
         <v>45011</v>
@@ -21577,7 +21577,7 @@
     </row>
     <row r="851" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A851" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B851" t="s">
         <v>83</v>
@@ -21600,13 +21600,13 @@
     </row>
     <row r="852" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A852" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E852" t="s">
         <v>10</v>
       </c>
       <c r="F852" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G852" s="1">
         <v>46116</v>
@@ -21614,13 +21614,13 @@
     </row>
     <row r="853" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A853" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E853" t="s">
         <v>10</v>
       </c>
       <c r="F853" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G853" s="1">
         <v>46109</v>
@@ -21628,7 +21628,7 @@
     </row>
     <row r="854" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A854" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B854" t="s">
         <v>24</v>
@@ -21651,7 +21651,7 @@
     </row>
     <row r="855" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A855" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B855" t="s">
         <v>44</v>
@@ -21674,7 +21674,7 @@
     </row>
     <row r="856" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A856" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B856" t="s">
         <v>44</v>
@@ -21697,7 +21697,7 @@
     </row>
     <row r="857" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A857" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B857" t="s">
         <v>44</v>
@@ -21720,16 +21720,16 @@
     </row>
     <row r="858" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A858" t="s">
+        <v>439</v>
+      </c>
+      <c r="D858" t="s">
+        <v>9</v>
+      </c>
+      <c r="E858" t="s">
         <v>440</v>
       </c>
-      <c r="D858" t="s">
-        <v>9</v>
-      </c>
-      <c r="E858" t="s">
-        <v>441</v>
-      </c>
       <c r="F858" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G858" s="1">
         <v>46177</v>
@@ -21737,7 +21737,7 @@
     </row>
     <row r="859" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A859" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B859" t="s">
         <v>8</v>
@@ -21760,7 +21760,7 @@
     </row>
     <row r="860" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A860" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B860" t="s">
         <v>8</v>
@@ -21783,7 +21783,7 @@
     </row>
     <row r="861" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A861" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B861" t="s">
         <v>8</v>
@@ -21806,7 +21806,7 @@
     </row>
     <row r="862" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A862" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B862" t="s">
         <v>8</v>
@@ -21829,13 +21829,13 @@
     </row>
     <row r="863" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A863" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E863" t="s">
         <v>10</v>
       </c>
       <c r="F863" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G863" s="1">
         <v>46153</v>
@@ -21843,13 +21843,13 @@
     </row>
     <row r="864" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A864" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E864" t="s">
         <v>68</v>
       </c>
       <c r="F864" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G864" s="1">
         <v>45960</v>
@@ -21857,7 +21857,7 @@
     </row>
     <row r="865" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A865" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B865" t="s">
         <v>83</v>
@@ -21880,7 +21880,7 @@
     </row>
     <row r="866" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A866" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B866" t="s">
         <v>83</v>
@@ -21903,7 +21903,7 @@
     </row>
     <row r="867" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A867" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B867" t="s">
         <v>24</v>
@@ -21926,7 +21926,7 @@
     </row>
     <row r="868" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A868" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B868" t="s">
         <v>24</v>
@@ -21949,7 +21949,7 @@
     </row>
     <row r="869" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A869" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B869" t="s">
         <v>24</v>
@@ -21966,7 +21966,7 @@
     </row>
     <row r="870" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A870" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B870" t="s">
         <v>24</v>
@@ -21989,7 +21989,7 @@
     </row>
     <row r="871" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A871" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B871" t="s">
         <v>24</v>
@@ -22001,7 +22001,7 @@
         <v>14</v>
       </c>
       <c r="E871" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F871" t="s">
         <v>11</v>
@@ -22012,13 +22012,13 @@
     </row>
     <row r="872" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A872" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E872" t="s">
         <v>10</v>
       </c>
       <c r="F872" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G872" s="1">
         <v>46156</v>
@@ -22026,13 +22026,13 @@
     </row>
     <row r="873" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A873" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E873" t="s">
         <v>16</v>
       </c>
       <c r="F873" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G873" s="1">
         <v>46156</v>
@@ -22040,13 +22040,13 @@
     </row>
     <row r="874" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A874" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E874" t="s">
         <v>26</v>
       </c>
       <c r="F874" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G874" s="1">
         <v>46156</v>
@@ -22054,7 +22054,7 @@
     </row>
     <row r="875" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A875" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B875" t="s">
         <v>24</v>
@@ -22077,7 +22077,7 @@
     </row>
     <row r="876" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A876" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B876" t="s">
         <v>24</v>
@@ -22100,7 +22100,7 @@
     </row>
     <row r="877" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A877" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B877" t="s">
         <v>24</v>
@@ -22123,10 +22123,10 @@
     </row>
     <row r="878" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A878" t="s">
+        <v>449</v>
+      </c>
+      <c r="B878" t="s">
         <v>450</v>
-      </c>
-      <c r="B878" t="s">
-        <v>451</v>
       </c>
       <c r="C878">
         <v>101498057</v>
@@ -22146,12 +22146,12 @@
     </row>
     <row r="879" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A879" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="880" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A880" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B880" t="s">
         <v>24</v>
@@ -22163,7 +22163,7 @@
         <v>9</v>
       </c>
       <c r="E880" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F880" t="s">
         <v>11</v>
@@ -22174,7 +22174,7 @@
     </row>
     <row r="881" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A881" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B881" t="s">
         <v>24</v>
@@ -22186,7 +22186,7 @@
         <v>9</v>
       </c>
       <c r="E881" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F881" t="s">
         <v>11</v>
@@ -22197,7 +22197,7 @@
     </row>
     <row r="882" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A882" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B882" t="s">
         <v>8</v>
@@ -22220,7 +22220,7 @@
     </row>
     <row r="883" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A883" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B883" t="s">
         <v>24</v>
@@ -22243,7 +22243,7 @@
     </row>
     <row r="884" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A884" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B884" t="s">
         <v>8</v>
@@ -22266,7 +22266,7 @@
     </row>
     <row r="885" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A885" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B885" t="s">
         <v>8</v>
@@ -22289,7 +22289,7 @@
     </row>
     <row r="886" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A886" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B886" t="s">
         <v>24</v>
@@ -22312,7 +22312,7 @@
     </row>
     <row r="887" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A887" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B887" t="s">
         <v>24</v>
@@ -22335,7 +22335,7 @@
     </row>
     <row r="888" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A888" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B888" t="s">
         <v>24</v>
@@ -22361,7 +22361,7 @@
         <v>10</v>
       </c>
       <c r="F889" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G889" t="e">
         <v>#REF!</v>
@@ -22372,7 +22372,7 @@
         <v>16</v>
       </c>
       <c r="F890" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G890" t="e">
         <v>#REF!</v>
@@ -22383,7 +22383,7 @@
         <v>26</v>
       </c>
       <c r="F891" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G891" t="e">
         <v>#REF!</v>
@@ -22394,7 +22394,7 @@
         <v>10</v>
       </c>
       <c r="F892" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G892" t="e">
         <v>#REF!</v>
@@ -22405,7 +22405,7 @@
         <v>16</v>
       </c>
       <c r="F893" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G893" t="e">
         <v>#REF!</v>
@@ -22416,7 +22416,7 @@
         <v>26</v>
       </c>
       <c r="F894" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G894" t="e">
         <v>#REF!</v>
@@ -22427,7 +22427,7 @@
         <v>10</v>
       </c>
       <c r="F895" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G895" t="e">
         <v>#REF!</v>
@@ -22438,7 +22438,7 @@
         <v>16</v>
       </c>
       <c r="F896" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G896" t="e">
         <v>#REF!</v>
@@ -22449,7 +22449,7 @@
         <v>26</v>
       </c>
       <c r="F897" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G897" t="e">
         <v>#REF!</v>
@@ -22460,7 +22460,7 @@
         <v>10</v>
       </c>
       <c r="F898" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G898" t="e">
         <v>#REF!</v>
@@ -22471,7 +22471,7 @@
         <v>16</v>
       </c>
       <c r="F899" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G899" t="e">
         <v>#REF!</v>
@@ -22482,7 +22482,7 @@
         <v>26</v>
       </c>
       <c r="F900" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G900" t="e">
         <v>#REF!</v>
@@ -22490,10 +22490,10 @@
     </row>
     <row r="901" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A901" t="s">
+        <v>461</v>
+      </c>
+      <c r="B901" t="s">
         <v>462</v>
-      </c>
-      <c r="B901" t="s">
-        <v>463</v>
       </c>
       <c r="C901">
         <v>7809022120</v>
@@ -22513,10 +22513,10 @@
     </row>
     <row r="902" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A902" t="s">
+        <v>461</v>
+      </c>
+      <c r="B902" t="s">
         <v>462</v>
-      </c>
-      <c r="B902" t="s">
-        <v>463</v>
       </c>
       <c r="C902">
         <v>7809022120</v>
@@ -22539,7 +22539,7 @@
         <v>10</v>
       </c>
       <c r="F903" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G903" t="e">
         <v>#REF!</v>
@@ -22550,7 +22550,7 @@
         <v>16</v>
       </c>
       <c r="F904" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G904" t="e">
         <v>#REF!</v>
@@ -22561,7 +22561,7 @@
         <v>26</v>
       </c>
       <c r="F905" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G905" t="e">
         <v>#REF!</v>
@@ -22569,13 +22569,13 @@
     </row>
     <row r="906" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A906" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E906" t="s">
         <v>10</v>
       </c>
       <c r="F906" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G906" s="1">
         <v>46095</v>
@@ -22583,7 +22583,7 @@
     </row>
     <row r="907" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A907" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B907" t="s">
         <v>8</v>
@@ -22609,7 +22609,7 @@
         <v>10</v>
       </c>
       <c r="F908" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G908" t="e">
         <v>#REF!</v>
@@ -22617,7 +22617,7 @@
     </row>
     <row r="909" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A909" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B909" t="s">
         <v>24</v>
@@ -22640,7 +22640,7 @@
     </row>
     <row r="910" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A910" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B910" t="s">
         <v>24</v>
@@ -22652,7 +22652,7 @@
         <v>59</v>
       </c>
       <c r="E910" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F910" t="s">
         <v>11</v>
@@ -22663,7 +22663,7 @@
     </row>
     <row r="911" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A911" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B911" t="s">
         <v>24</v>
@@ -22675,7 +22675,7 @@
         <v>59</v>
       </c>
       <c r="E911" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F911" t="s">
         <v>11</v>
@@ -22686,7 +22686,7 @@
     </row>
     <row r="912" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A912" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B912" t="s">
         <v>24</v>
@@ -22709,7 +22709,7 @@
     </row>
     <row r="913" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A913" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B913" t="s">
         <v>24</v>
@@ -22732,13 +22732,13 @@
     </row>
     <row r="914" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A914" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E914" t="s">
         <v>10</v>
       </c>
       <c r="F914" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G914" s="1">
         <v>46206</v>
@@ -22746,7 +22746,7 @@
     </row>
     <row r="915" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A915" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D915" t="s">
         <v>9</v>
@@ -22755,7 +22755,7 @@
         <v>52</v>
       </c>
       <c r="F915" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G915" s="1">
         <v>46171</v>
@@ -22763,13 +22763,13 @@
     </row>
     <row r="916" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A916" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E916" t="s">
         <v>88</v>
       </c>
       <c r="F916" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G916" s="1">
         <v>45568</v>
@@ -22777,24 +22777,24 @@
     </row>
     <row r="917" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A917" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E917" t="s">
         <v>88</v>
       </c>
       <c r="F917" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="918" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A918" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E918" t="s">
         <v>68</v>
       </c>
       <c r="F918" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G918" s="1">
         <v>45960</v>
@@ -22802,13 +22802,13 @@
     </row>
     <row r="919" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A919" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E919" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F919" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G919" s="1">
         <v>46206</v>
@@ -22816,13 +22816,13 @@
     </row>
     <row r="920" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A920" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E920" t="s">
         <v>10</v>
       </c>
       <c r="F920" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G920" s="1">
         <v>46213</v>
@@ -22830,7 +22830,7 @@
     </row>
     <row r="921" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A921" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B921" t="s">
         <v>24</v>
@@ -22853,7 +22853,7 @@
     </row>
     <row r="922" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A922" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B922" t="s">
         <v>24</v>
@@ -22876,7 +22876,7 @@
     </row>
     <row r="923" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A923" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B923" t="s">
         <v>8</v>
@@ -22899,7 +22899,7 @@
     </row>
     <row r="924" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A924" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B924" t="s">
         <v>8</v>
@@ -22922,7 +22922,7 @@
     </row>
     <row r="925" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A925" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B925" t="s">
         <v>8</v>
@@ -22945,7 +22945,7 @@
     </row>
     <row r="926" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A926" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B926" t="s">
         <v>8</v>
@@ -22968,7 +22968,7 @@
     </row>
     <row r="927" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A927" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B927" t="s">
         <v>8</v>
@@ -22991,13 +22991,13 @@
     </row>
     <row r="928" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A928" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E928" t="s">
         <v>10</v>
       </c>
       <c r="F928" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G928" s="1">
         <v>46321</v>
@@ -23005,13 +23005,13 @@
     </row>
     <row r="929" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A929" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E929" t="s">
         <v>16</v>
       </c>
       <c r="F929" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G929" s="1">
         <v>46373</v>
@@ -23019,13 +23019,13 @@
     </row>
     <row r="930" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A930" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E930" t="s">
         <v>26</v>
       </c>
       <c r="F930" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G930" s="1">
         <v>46017</v>
@@ -23033,13 +23033,13 @@
     </row>
     <row r="931" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A931" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E931" t="s">
         <v>50</v>
       </c>
       <c r="F931" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G931" s="1">
         <v>45515</v>
@@ -23047,13 +23047,13 @@
     </row>
     <row r="932" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A932" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E932" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F932" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G932" s="1">
         <v>46241</v>
@@ -23061,7 +23061,7 @@
     </row>
     <row r="933" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A933" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B933" t="s">
         <v>8</v>
@@ -23087,7 +23087,7 @@
         <v>10</v>
       </c>
       <c r="F934" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G934" t="e">
         <v>#REF!</v>
@@ -23098,7 +23098,7 @@
         <v>16</v>
       </c>
       <c r="F935" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G935" t="e">
         <v>#REF!</v>
@@ -23109,7 +23109,7 @@
         <v>26</v>
       </c>
       <c r="F936" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G936" t="e">
         <v>#REF!</v>
@@ -23117,7 +23117,7 @@
     </row>
     <row r="937" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A937" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B937" t="s">
         <v>24</v>
@@ -23143,7 +23143,7 @@
         <v>10</v>
       </c>
       <c r="F938" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G938" t="e">
         <v>#REF!</v>
@@ -23151,7 +23151,7 @@
     </row>
     <row r="939" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A939" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B939" t="s">
         <v>24</v>
@@ -23174,7 +23174,7 @@
     </row>
     <row r="940" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A940" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B940" t="s">
         <v>24</v>
@@ -23197,7 +23197,7 @@
     </row>
     <row r="941" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A941" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B941" t="s">
         <v>24</v>
@@ -23220,7 +23220,7 @@
     </row>
     <row r="942" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A942" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B942" t="s">
         <v>24</v>
@@ -23243,7 +23243,7 @@
     </row>
     <row r="943" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A943" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B943" t="s">
         <v>24</v>
@@ -23266,7 +23266,7 @@
     </row>
     <row r="944" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A944" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B944" t="s">
         <v>24</v>
@@ -23292,7 +23292,7 @@
         <v>10</v>
       </c>
       <c r="F945" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G945" t="e">
         <v>#REF!</v>
@@ -23303,7 +23303,7 @@
         <v>10</v>
       </c>
       <c r="F946" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G946" s="1">
         <v>45090</v>
@@ -23314,7 +23314,7 @@
         <v>10</v>
       </c>
       <c r="F947" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G947" s="1">
         <v>46206</v>
@@ -23322,7 +23322,7 @@
     </row>
     <row r="948" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A948" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B948" t="s">
         <v>24</v>
@@ -23345,7 +23345,7 @@
     </row>
     <row r="949" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A949" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B949" t="s">
         <v>24</v>
@@ -23368,7 +23368,7 @@
     </row>
     <row r="950" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A950" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B950" t="s">
         <v>24</v>
@@ -23391,7 +23391,7 @@
     </row>
     <row r="951" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A951" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B951" t="s">
         <v>24</v>
@@ -23414,7 +23414,7 @@
     </row>
     <row r="952" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A952" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B952" t="s">
         <v>24</v>
@@ -23437,7 +23437,7 @@
     </row>
     <row r="953" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A953" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B953" t="s">
         <v>24</v>
@@ -23460,7 +23460,7 @@
     </row>
     <row r="954" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A954" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B954" t="s">
         <v>24</v>
@@ -23483,7 +23483,7 @@
     </row>
     <row r="955" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A955" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B955" t="s">
         <v>24</v>
@@ -23506,15 +23506,15 @@
     </row>
     <row r="956" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A956" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="958" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A958" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B958" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C958">
         <v>7729050901</v>
@@ -23534,7 +23534,7 @@
     </row>
     <row r="959" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A959" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B959" t="s">
         <v>24</v>
@@ -23557,7 +23557,7 @@
     </row>
     <row r="960" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A960" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B960" t="s">
         <v>24</v>
@@ -23580,7 +23580,7 @@
     </row>
     <row r="961" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A961" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B961" t="s">
         <v>24</v>
@@ -23592,7 +23592,7 @@
         <v>9</v>
       </c>
       <c r="E961" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F961" t="s">
         <v>11</v>
@@ -23603,13 +23603,13 @@
     </row>
     <row r="962" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A962" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E962" t="s">
         <v>10</v>
       </c>
       <c r="F962" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G962" s="1">
         <v>46270</v>
@@ -23617,13 +23617,13 @@
     </row>
     <row r="963" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A963" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E963" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F963" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G963" s="1">
         <v>46301</v>
@@ -23631,13 +23631,13 @@
     </row>
     <row r="964" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A964" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E964" t="s">
         <v>68</v>
       </c>
       <c r="F964" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G964" s="1">
         <v>45960</v>
@@ -23645,13 +23645,13 @@
     </row>
     <row r="965" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A965" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E965" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F965" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G965" s="1">
         <v>46418</v>
@@ -23659,13 +23659,13 @@
     </row>
     <row r="966" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A966" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E966" t="s">
         <v>10</v>
       </c>
       <c r="F966" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G966" s="1">
         <v>46603</v>
@@ -23673,13 +23673,13 @@
     </row>
     <row r="967" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A967" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E967" t="s">
         <v>16</v>
       </c>
       <c r="F967" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G967" s="1">
         <v>46603</v>
@@ -23687,13 +23687,13 @@
     </row>
     <row r="968" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A968" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E968" t="s">
         <v>26</v>
       </c>
       <c r="F968" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G968" s="1">
         <v>46603</v>
@@ -23701,7 +23701,7 @@
     </row>
     <row r="969" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A969" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B969" t="s">
         <v>24</v>
@@ -23724,7 +23724,7 @@
     </row>
     <row r="970" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A970" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B970" t="s">
         <v>24</v>
@@ -23747,7 +23747,7 @@
     </row>
     <row r="971" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A971" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B971" t="s">
         <v>24</v>
@@ -23770,7 +23770,7 @@
     </row>
     <row r="972" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A972" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B972" t="s">
         <v>24</v>
@@ -23793,13 +23793,13 @@
     </row>
     <row r="973" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A973" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E973" t="s">
         <v>10</v>
       </c>
       <c r="F973" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G973" s="1">
         <v>46277</v>
@@ -23807,13 +23807,13 @@
     </row>
     <row r="974" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A974" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E974" t="s">
         <v>10</v>
       </c>
       <c r="F974" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G974" s="1">
         <v>46297</v>
@@ -23821,7 +23821,7 @@
     </row>
     <row r="975" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A975" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B975" t="s">
         <v>24</v>
@@ -23844,7 +23844,7 @@
     </row>
     <row r="976" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A976" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B976" t="s">
         <v>24</v>
@@ -23867,7 +23867,7 @@
     </row>
     <row r="977" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A977" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B977" t="s">
         <v>24</v>
@@ -23890,7 +23890,7 @@
     </row>
     <row r="978" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A978" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B978" t="s">
         <v>24</v>
@@ -23913,7 +23913,7 @@
     </row>
     <row r="979" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A979" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B979" t="s">
         <v>24</v>
@@ -23936,13 +23936,13 @@
     </row>
     <row r="980" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A980" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E980" t="s">
         <v>52</v>
       </c>
       <c r="F980" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G980" t="e">
         <v>#REF!</v>
@@ -23950,7 +23950,7 @@
     </row>
     <row r="981" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A981" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B981" t="s">
         <v>8</v>
@@ -23973,7 +23973,7 @@
     </row>
     <row r="982" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A982" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B982" t="s">
         <v>8</v>
@@ -23996,7 +23996,7 @@
     </row>
     <row r="983" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A983" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B983" t="s">
         <v>8</v>
@@ -24019,7 +24019,7 @@
     </row>
     <row r="984" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A984" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B984" t="s">
         <v>24</v>
@@ -24042,7 +24042,7 @@
     </row>
     <row r="985" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A985" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D985" t="s">
         <v>9</v>
@@ -24051,7 +24051,7 @@
         <v>10</v>
       </c>
       <c r="F985" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G985" s="1">
         <v>46651</v>
@@ -24059,7 +24059,7 @@
     </row>
     <row r="986" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A986" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D986" t="s">
         <v>9</v>
@@ -24068,7 +24068,7 @@
         <v>16</v>
       </c>
       <c r="F986" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G986" s="1">
         <v>46265</v>
@@ -24076,7 +24076,7 @@
     </row>
     <row r="987" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A987" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D987" t="s">
         <v>9</v>
@@ -24085,7 +24085,7 @@
         <v>50</v>
       </c>
       <c r="F987" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G987" s="1">
         <v>46768</v>
@@ -24093,7 +24093,7 @@
     </row>
     <row r="988" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A988" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B988" t="s">
         <v>24</v>
@@ -24116,13 +24116,13 @@
     </row>
     <row r="989" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A989" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E989" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F989" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G989" s="1">
         <v>46345</v>
@@ -24130,13 +24130,13 @@
     </row>
     <row r="990" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A990" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E990" t="s">
         <v>10</v>
       </c>
       <c r="F990" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G990" s="1">
         <v>46358</v>
@@ -24144,13 +24144,13 @@
     </row>
     <row r="991" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A991" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E991" t="s">
         <v>16</v>
       </c>
       <c r="F991" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G991" s="1">
         <v>46345</v>
@@ -24158,13 +24158,13 @@
     </row>
     <row r="992" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A992" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E992" t="s">
         <v>26</v>
       </c>
       <c r="F992" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G992" s="1">
         <v>46380</v>
@@ -24172,7 +24172,7 @@
     </row>
     <row r="993" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A993" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B993" t="s">
         <v>24</v>
@@ -24195,7 +24195,7 @@
     </row>
     <row r="994" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A994" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B994" t="s">
         <v>24</v>
@@ -24218,7 +24218,7 @@
     </row>
     <row r="995" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A995" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B995" t="s">
         <v>24</v>
@@ -24241,7 +24241,7 @@
     </row>
     <row r="996" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A996" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B996" t="s">
         <v>8</v>
@@ -24264,7 +24264,7 @@
     </row>
     <row r="997" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A997" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B997" t="s">
         <v>24</v>
@@ -24287,7 +24287,7 @@
     </row>
     <row r="998" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A998" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B998" t="s">
         <v>24</v>
@@ -24310,7 +24310,7 @@
     </row>
     <row r="999" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A999" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B999" t="s">
         <v>24</v>
@@ -24333,7 +24333,7 @@
     </row>
     <row r="1000" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1000" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B1000" t="s">
         <v>24</v>
@@ -24356,7 +24356,7 @@
     </row>
     <row r="1001" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1001" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B1001" t="s">
         <v>24</v>
@@ -24379,7 +24379,7 @@
     </row>
     <row r="1002" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1002" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B1002" t="s">
         <v>24</v>
@@ -24402,13 +24402,13 @@
     </row>
     <row r="1003" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1003" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E1003" t="s">
         <v>10</v>
       </c>
       <c r="F1003" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G1003" s="1">
         <v>46320</v>
@@ -24416,7 +24416,7 @@
     </row>
     <row r="1004" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1004" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B1004" t="s">
         <v>24</v>
@@ -24439,7 +24439,7 @@
     </row>
     <row r="1005" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1005" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B1005" t="s">
         <v>28</v>
@@ -24462,13 +24462,13 @@
     </row>
     <row r="1006" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1006" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E1006" t="s">
         <v>10</v>
       </c>
       <c r="F1006" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1006" s="1">
         <v>46318</v>
@@ -24476,13 +24476,13 @@
     </row>
     <row r="1007" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1007" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E1007" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F1007" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1007" s="1">
         <v>46348</v>
@@ -24512,7 +24512,7 @@
     </row>
     <row r="1010" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1010" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B1010" t="s">
         <v>24</v>
@@ -24535,7 +24535,7 @@
     </row>
     <row r="1011" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1011" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B1011" t="s">
         <v>24</v>
@@ -24558,7 +24558,7 @@
     </row>
     <row r="1012" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1012" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B1012" t="s">
         <v>24</v>
@@ -24581,7 +24581,7 @@
     </row>
     <row r="1013" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1013" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B1013" t="s">
         <v>24</v>
@@ -24604,7 +24604,7 @@
     </row>
     <row r="1014" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1014" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B1014" t="s">
         <v>24</v>
@@ -24630,7 +24630,7 @@
         <v>10</v>
       </c>
       <c r="F1015" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G1015" s="1">
         <v>46292</v>
@@ -24641,7 +24641,7 @@
         <v>16</v>
       </c>
       <c r="F1016" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G1016" s="1">
         <v>46292</v>
@@ -24652,7 +24652,7 @@
         <v>26</v>
       </c>
       <c r="F1017" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G1017" s="1">
         <v>46292</v>
@@ -24660,7 +24660,7 @@
     </row>
     <row r="1018" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1018" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B1018" t="s">
         <v>8</v>
@@ -24683,7 +24683,7 @@
     </row>
     <row r="1019" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1019" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B1019" t="s">
         <v>8</v>
@@ -24706,7 +24706,7 @@
     </row>
     <row r="1020" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1020" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B1020" t="s">
         <v>8</v>
@@ -24729,13 +24729,13 @@
     </row>
     <row r="1021" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1021" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E1021" t="s">
         <v>10</v>
       </c>
       <c r="F1021" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1021" s="1">
         <v>46372</v>
@@ -24743,13 +24743,13 @@
     </row>
     <row r="1022" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1022" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E1022" t="s">
         <v>10</v>
       </c>
       <c r="F1022" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1022" s="1">
         <v>46330</v>
@@ -24757,7 +24757,7 @@
     </row>
     <row r="1023" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1023" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B1023" t="s">
         <v>24</v>
@@ -24780,7 +24780,7 @@
     </row>
     <row r="1024" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1024" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B1024" t="s">
         <v>24</v>
@@ -24803,7 +24803,7 @@
     </row>
     <row r="1025" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1025" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B1025" t="s">
         <v>24</v>
@@ -24829,7 +24829,7 @@
         <v>10</v>
       </c>
       <c r="F1026" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G1026" s="1">
         <v>46316</v>
@@ -24837,7 +24837,7 @@
     </row>
     <row r="1027" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1027" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B1027" t="s">
         <v>24</v>
@@ -24860,7 +24860,7 @@
     </row>
     <row r="1028" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1028" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B1028" t="s">
         <v>24</v>
@@ -24883,7 +24883,7 @@
     </row>
     <row r="1029" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1029" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B1029" t="s">
         <v>24</v>
@@ -24906,7 +24906,7 @@
     </row>
     <row r="1030" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1030" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B1030" t="s">
         <v>24</v>
@@ -24929,7 +24929,7 @@
     </row>
     <row r="1031" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1031" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B1031" t="s">
         <v>24</v>
@@ -24952,7 +24952,7 @@
     </row>
     <row r="1032" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1032" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B1032" t="s">
         <v>24</v>
@@ -24975,10 +24975,10 @@
     </row>
     <row r="1033" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1033" t="s">
+        <v>520</v>
+      </c>
+      <c r="B1033" t="s">
         <v>521</v>
-      </c>
-      <c r="B1033" t="s">
-        <v>522</v>
       </c>
       <c r="C1033">
         <v>3900005663</v>
@@ -24998,10 +24998,10 @@
     </row>
     <row r="1034" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1034" t="s">
+        <v>520</v>
+      </c>
+      <c r="B1034" t="s">
         <v>521</v>
-      </c>
-      <c r="B1034" t="s">
-        <v>522</v>
       </c>
       <c r="C1034">
         <v>3900005663</v>
@@ -25021,10 +25021,10 @@
     </row>
     <row r="1035" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1035" t="s">
+        <v>520</v>
+      </c>
+      <c r="B1035" t="s">
         <v>521</v>
-      </c>
-      <c r="B1035" t="s">
-        <v>522</v>
       </c>
       <c r="C1035">
         <v>3900005663</v>
@@ -25044,10 +25044,10 @@
     </row>
     <row r="1036" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1036" t="s">
+        <v>520</v>
+      </c>
+      <c r="B1036" t="s">
         <v>521</v>
-      </c>
-      <c r="B1036" t="s">
-        <v>522</v>
       </c>
       <c r="C1036">
         <v>3900005663</v>
@@ -25056,7 +25056,7 @@
         <v>14</v>
       </c>
       <c r="E1036" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F1036" t="s">
         <v>11</v>
@@ -25067,10 +25067,10 @@
     </row>
     <row r="1037" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1037" t="s">
+        <v>520</v>
+      </c>
+      <c r="B1037" t="s">
         <v>521</v>
-      </c>
-      <c r="B1037" t="s">
-        <v>522</v>
       </c>
       <c r="C1037">
         <v>3900005663</v>
@@ -25090,10 +25090,10 @@
     </row>
     <row r="1038" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1038" t="s">
+        <v>520</v>
+      </c>
+      <c r="B1038" t="s">
         <v>521</v>
-      </c>
-      <c r="B1038" t="s">
-        <v>522</v>
       </c>
       <c r="C1038">
         <v>3900005663</v>
@@ -25113,10 +25113,10 @@
     </row>
     <row r="1039" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1039" t="s">
+        <v>520</v>
+      </c>
+      <c r="B1039" t="s">
         <v>521</v>
-      </c>
-      <c r="B1039" t="s">
-        <v>522</v>
       </c>
       <c r="C1039">
         <v>3900005663</v>
@@ -25136,13 +25136,13 @@
     </row>
     <row r="1040" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1040" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E1040" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F1040" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1040" s="1">
         <v>46355</v>
@@ -25150,13 +25150,13 @@
     </row>
     <row r="1041" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1041" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E1041" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F1041" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1041" s="1">
         <v>45991</v>
@@ -25164,13 +25164,13 @@
     </row>
     <row r="1042" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1042" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E1042" t="s">
         <v>10</v>
       </c>
       <c r="F1042" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G1042" s="1">
         <v>46082</v>
@@ -25178,13 +25178,13 @@
     </row>
     <row r="1043" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1043" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E1043" t="s">
         <v>16</v>
       </c>
       <c r="F1043" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G1043" s="1">
         <v>46082</v>
@@ -25192,13 +25192,13 @@
     </row>
     <row r="1044" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1044" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E1044" t="s">
         <v>26</v>
       </c>
       <c r="F1044" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G1044" s="1">
         <v>46082</v>
@@ -25206,7 +25206,7 @@
     </row>
     <row r="1045" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1045" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B1045" t="s">
         <v>24</v>
@@ -25229,13 +25229,13 @@
     </row>
     <row r="1046" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1046" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E1046" t="s">
         <v>10</v>
       </c>
       <c r="F1046" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G1046" s="1">
         <v>46255</v>
@@ -25243,13 +25243,13 @@
     </row>
     <row r="1047" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1047" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E1047" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F1047" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1047" s="1">
         <v>46339</v>
@@ -25257,7 +25257,7 @@
     </row>
     <row r="1048" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1048" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B1048" t="s">
         <v>8</v>
@@ -25280,7 +25280,7 @@
     </row>
     <row r="1049" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1049" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B1049" t="s">
         <v>8</v>
@@ -25303,7 +25303,7 @@
     </row>
     <row r="1050" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1050" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B1050" t="s">
         <v>8</v>
@@ -25326,7 +25326,7 @@
     </row>
     <row r="1051" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1051" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B1051" t="s">
         <v>8</v>
@@ -25352,7 +25352,7 @@
         <v>10</v>
       </c>
       <c r="F1052" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G1052" s="1">
         <v>46292</v>
@@ -25363,7 +25363,7 @@
         <v>16</v>
       </c>
       <c r="F1053" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G1053" s="1">
         <v>46292</v>
@@ -25374,7 +25374,7 @@
         <v>26</v>
       </c>
       <c r="F1054" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G1054" s="1">
         <v>46292</v>
@@ -25382,7 +25382,7 @@
     </row>
     <row r="1055" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1055" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B1055" t="s">
         <v>24</v>
@@ -25405,13 +25405,13 @@
     </row>
     <row r="1056" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1056" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E1056" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F1056" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1056" s="1">
         <v>46376</v>
@@ -25419,13 +25419,13 @@
     </row>
     <row r="1057" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1057" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E1057" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F1057" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G1057" s="1">
         <v>46516</v>
@@ -25433,13 +25433,13 @@
     </row>
     <row r="1058" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1058" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E1058" t="s">
         <v>10</v>
       </c>
       <c r="F1058" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1058" s="1">
         <v>46358</v>
@@ -25447,13 +25447,13 @@
     </row>
     <row r="1059" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1059" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E1059" t="s">
         <v>16</v>
       </c>
       <c r="F1059" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1059" s="1">
         <v>46362</v>
@@ -25461,13 +25461,13 @@
     </row>
     <row r="1060" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1060" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E1060" t="s">
         <v>26</v>
       </c>
       <c r="F1060" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1060" s="1">
         <v>46358</v>
@@ -25475,7 +25475,7 @@
     </row>
     <row r="1061" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1061" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B1061" t="s">
         <v>24</v>
@@ -25498,13 +25498,13 @@
     </row>
     <row r="1062" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1062" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E1062" t="s">
         <v>10</v>
       </c>
       <c r="F1062" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G1062" s="1">
         <v>46460</v>
@@ -25512,7 +25512,7 @@
     </row>
     <row r="1063" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1063" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B1063" t="s">
         <v>24</v>
@@ -25535,7 +25535,7 @@
     </row>
     <row r="1064" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1064" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B1064" t="s">
         <v>24</v>
@@ -25558,7 +25558,7 @@
     </row>
     <row r="1065" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1065" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B1065" t="s">
         <v>24</v>
@@ -25581,7 +25581,7 @@
     </row>
     <row r="1066" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1066" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B1066" t="s">
         <v>24</v>
@@ -25604,7 +25604,7 @@
     </row>
     <row r="1067" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1067" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B1067" t="s">
         <v>24</v>
@@ -25627,7 +25627,7 @@
     </row>
     <row r="1068" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1068" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B1068" t="s">
         <v>24</v>
@@ -25650,13 +25650,13 @@
     </row>
     <row r="1069" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1069" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E1069" t="s">
         <v>10</v>
       </c>
       <c r="F1069" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G1069" s="1">
         <v>46375</v>
@@ -25667,7 +25667,7 @@
         <v>10</v>
       </c>
       <c r="F1070" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G1070" s="1">
         <v>46350</v>
@@ -25678,7 +25678,7 @@
         <v>16</v>
       </c>
       <c r="F1071" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G1071" s="1">
         <v>46350</v>
@@ -25689,7 +25689,7 @@
         <v>26</v>
       </c>
       <c r="F1072" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G1072" s="1">
         <v>46350</v>
@@ -25697,7 +25697,7 @@
     </row>
     <row r="1073" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1073" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B1073" t="s">
         <v>24</v>
@@ -25720,7 +25720,7 @@
     </row>
     <row r="1074" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1074" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B1074" t="s">
         <v>24</v>
@@ -25743,7 +25743,7 @@
     </row>
     <row r="1075" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1075" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B1075" t="s">
         <v>24</v>
@@ -25766,7 +25766,7 @@
     </row>
     <row r="1076" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1076" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B1076" t="s">
         <v>24</v>
@@ -25789,7 +25789,7 @@
     </row>
     <row r="1077" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1077" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B1077" t="s">
         <v>24</v>
@@ -25801,7 +25801,7 @@
         <v>59</v>
       </c>
       <c r="E1077" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F1077" t="s">
         <v>11</v>
@@ -25812,7 +25812,7 @@
     </row>
     <row r="1078" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1078" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B1078" t="s">
         <v>24</v>
@@ -25824,7 +25824,7 @@
         <v>14</v>
       </c>
       <c r="E1078" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F1078" t="s">
         <v>11</v>
@@ -25835,7 +25835,7 @@
     </row>
     <row r="1079" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1079" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B1079" t="s">
         <v>24</v>
@@ -25858,7 +25858,7 @@
     </row>
     <row r="1080" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1080" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B1080" t="s">
         <v>24</v>
@@ -25881,7 +25881,7 @@
     </row>
     <row r="1081" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1081" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B1081" t="s">
         <v>24</v>
@@ -25904,7 +25904,7 @@
     </row>
     <row r="1082" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1082" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B1082" t="s">
         <v>24</v>
@@ -25927,7 +25927,7 @@
     </row>
     <row r="1083" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1083" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B1083" t="s">
         <v>24</v>
@@ -25950,7 +25950,7 @@
     </row>
     <row r="1084" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1084" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B1084" t="s">
         <v>24</v>
@@ -25962,7 +25962,7 @@
         <v>9</v>
       </c>
       <c r="E1084" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F1084" t="s">
         <v>11</v>
@@ -25973,13 +25973,13 @@
     </row>
     <row r="1085" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1085" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E1085" t="s">
         <v>10</v>
       </c>
       <c r="F1085" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1085" s="1">
         <v>46417</v>
@@ -25987,7 +25987,7 @@
     </row>
     <row r="1086" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1086" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B1086" t="s">
         <v>24</v>
@@ -26010,7 +26010,7 @@
     </row>
     <row r="1087" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1087" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B1087" t="s">
         <v>24</v>
@@ -26036,7 +26036,7 @@
         <v>10</v>
       </c>
       <c r="F1088" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G1088" s="1">
         <v>46360</v>
@@ -26047,7 +26047,7 @@
         <v>16</v>
       </c>
       <c r="F1089" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G1089" s="1">
         <v>46367</v>
@@ -26058,7 +26058,7 @@
         <v>26</v>
       </c>
       <c r="F1090" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G1090" s="1">
         <v>46367</v>
@@ -26066,7 +26066,7 @@
     </row>
     <row r="1091" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1091" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D1091" t="s">
         <v>9</v>
@@ -26075,7 +26075,7 @@
         <v>10</v>
       </c>
       <c r="F1091" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1091" s="1">
         <v>46404</v>
@@ -26083,7 +26083,7 @@
     </row>
     <row r="1092" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1092" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D1092" t="s">
         <v>9</v>
@@ -26092,7 +26092,7 @@
         <v>10</v>
       </c>
       <c r="F1092" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1092" s="1">
         <v>46434</v>
@@ -26100,16 +26100,16 @@
     </row>
     <row r="1093" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1093" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D1093" t="s">
         <v>9</v>
       </c>
       <c r="E1093" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F1093" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G1093" s="1">
         <v>46516</v>
@@ -26117,7 +26117,7 @@
     </row>
     <row r="1094" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1094" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D1094" t="s">
         <v>9</v>
@@ -26126,7 +26126,7 @@
         <v>10</v>
       </c>
       <c r="F1094" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1094" s="1">
         <v>46441</v>
@@ -26134,7 +26134,7 @@
     </row>
     <row r="1095" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1095" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D1095" t="s">
         <v>9</v>
@@ -26143,7 +26143,7 @@
         <v>10</v>
       </c>
       <c r="F1095" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1095" s="1">
         <v>46403</v>
@@ -26151,7 +26151,7 @@
     </row>
     <row r="1096" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1096" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D1096" t="s">
         <v>9</v>
@@ -26160,7 +26160,7 @@
         <v>26</v>
       </c>
       <c r="F1096" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G1096" s="1">
         <v>45337</v>
@@ -26168,7 +26168,7 @@
     </row>
     <row r="1097" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1097" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B1097" t="s">
         <v>24</v>
@@ -26183,7 +26183,7 @@
         <v>68</v>
       </c>
       <c r="F1097" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G1097" s="1">
         <v>45960</v>
@@ -26191,10 +26191,10 @@
     </row>
     <row r="1098" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E1098" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F1098" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G1098" s="1">
         <v>46380</v>
@@ -26202,10 +26202,10 @@
     </row>
     <row r="1099" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1099" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B1099" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C1099">
         <v>2465015109</v>
@@ -26225,7 +26225,7 @@
     </row>
     <row r="1100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1100" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B1100" t="s">
         <v>8</v>
@@ -26248,7 +26248,7 @@
     </row>
     <row r="1101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1101" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B1101" t="s">
         <v>8</v>
@@ -26271,13 +26271,13 @@
     </row>
     <row r="1102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1102" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E1102" t="s">
         <v>10</v>
       </c>
       <c r="F1102" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G1102" s="1">
         <v>46404</v>
@@ -26285,13 +26285,13 @@
     </row>
     <row r="1103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1103" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E1103" t="s">
         <v>16</v>
       </c>
       <c r="F1103" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G1103" s="1">
         <v>46404</v>
@@ -26302,7 +26302,7 @@
         <v>10</v>
       </c>
       <c r="F1104" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G1104" s="1">
         <v>46374</v>
@@ -26313,7 +26313,7 @@
         <v>16</v>
       </c>
       <c r="F1105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G1105" s="1">
         <v>46374</v>
@@ -26324,7 +26324,7 @@
         <v>26</v>
       </c>
       <c r="F1106" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G1106" s="1">
         <v>46374</v>
@@ -26332,7 +26332,7 @@
     </row>
     <row r="1107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1107" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B1107" t="s">
         <v>28</v>
@@ -26355,13 +26355,13 @@
     </row>
     <row r="1108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1108" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E1108" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F1108" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1108" s="1">
         <v>46352</v>
@@ -26369,7 +26369,7 @@
     </row>
     <row r="1109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1109" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D1109" t="s">
         <v>9</v>
@@ -26378,7 +26378,7 @@
         <v>10</v>
       </c>
       <c r="F1109" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G1109" s="1">
         <v>46784</v>
@@ -26386,7 +26386,7 @@
     </row>
     <row r="1110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1110" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B1110" t="s">
         <v>24</v>
@@ -26398,7 +26398,7 @@
         <v>14</v>
       </c>
       <c r="E1110" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F1110" t="s">
         <v>11</v>
@@ -26406,7 +26406,7 @@
     </row>
     <row r="1111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1111" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B1111" t="s">
         <v>24</v>
@@ -26429,7 +26429,7 @@
     </row>
     <row r="1112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1112" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B1112" t="s">
         <v>24</v>
@@ -26452,7 +26452,7 @@
     </row>
     <row r="1113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1113" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B1113" t="s">
         <v>24</v>
@@ -26475,7 +26475,7 @@
     </row>
     <row r="1114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1114" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B1114" t="s">
         <v>24</v>
@@ -26498,7 +26498,7 @@
     </row>
     <row r="1115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1115" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B1115" t="s">
         <v>44</v>
@@ -26521,7 +26521,7 @@
     </row>
     <row r="1116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1116" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B1116" t="s">
         <v>44</v>
@@ -26544,7 +26544,7 @@
     </row>
     <row r="1117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1117" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B1117" t="s">
         <v>8</v>
@@ -26567,7 +26567,7 @@
     </row>
     <row r="1118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1118" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B1118" t="s">
         <v>8</v>
@@ -26590,7 +26590,7 @@
     </row>
     <row r="1119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1119" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B1119" t="s">
         <v>8</v>
@@ -26613,7 +26613,7 @@
     </row>
     <row r="1120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1120" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B1120" t="s">
         <v>8</v>
@@ -26636,7 +26636,7 @@
     </row>
     <row r="1121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1121" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B1121" t="s">
         <v>8</v>
@@ -26659,7 +26659,7 @@
     </row>
     <row r="1122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1122" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B1122" t="s">
         <v>8</v>
@@ -26682,7 +26682,7 @@
     </row>
     <row r="1123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1123" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B1123" t="s">
         <v>44</v>
@@ -26705,7 +26705,7 @@
     </row>
     <row r="1124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1124" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B1124" t="s">
         <v>44</v>
@@ -26728,13 +26728,13 @@
     </row>
     <row r="1125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1125" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E1125" t="s">
         <v>10</v>
       </c>
       <c r="F1125" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G1125" s="1">
         <v>46432</v>
@@ -26742,13 +26742,13 @@
     </row>
     <row r="1126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1126" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E1126" t="s">
         <v>16</v>
       </c>
       <c r="F1126" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G1126" s="1">
         <v>46431</v>
@@ -26756,13 +26756,13 @@
     </row>
     <row r="1127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1127" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E1127" t="s">
         <v>26</v>
       </c>
       <c r="F1127" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G1127" s="1">
         <v>46431</v>
@@ -26770,13 +26770,13 @@
     </row>
     <row r="1128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1128" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E1128" t="s">
         <v>10</v>
       </c>
       <c r="F1128" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1128" s="1">
         <v>46436</v>
@@ -26784,13 +26784,13 @@
     </row>
     <row r="1129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1129" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E1129" t="s">
         <v>16</v>
       </c>
       <c r="F1129" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1129" s="1">
         <v>46436</v>
@@ -26798,13 +26798,13 @@
     </row>
     <row r="1130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1130" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E1130" t="s">
         <v>26</v>
       </c>
       <c r="F1130" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1130" s="1">
         <v>46436</v>
@@ -26812,13 +26812,13 @@
     </row>
     <row r="1131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1131" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E1131" t="s">
         <v>10</v>
       </c>
       <c r="F1131" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G1131" s="1">
         <v>46788</v>
@@ -26826,7 +26826,7 @@
     </row>
     <row r="1132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1132" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C1132">
         <v>7722384856</v>
@@ -26835,7 +26835,7 @@
         <v>10</v>
       </c>
       <c r="F1132" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G1132" s="1">
         <v>46459</v>
@@ -26843,13 +26843,13 @@
     </row>
     <row r="1133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1133" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E1133" t="s">
         <v>10</v>
       </c>
       <c r="F1133" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G1133" s="1">
         <v>46452</v>
@@ -26857,13 +26857,13 @@
     </row>
     <row r="1134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1134" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E1134" t="s">
         <v>26</v>
       </c>
       <c r="F1134" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G1134" s="1">
         <v>46452</v>
@@ -26871,13 +26871,13 @@
     </row>
     <row r="1135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1135" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E1135" t="s">
         <v>10</v>
       </c>
       <c r="F1135" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G1135" s="1">
         <v>46510</v>
@@ -26885,13 +26885,13 @@
     </row>
     <row r="1136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1136" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E1136" t="s">
         <v>52</v>
       </c>
       <c r="F1136" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G1136" s="1">
         <v>46510</v>
@@ -26899,13 +26899,13 @@
     </row>
     <row r="1137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1137" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E1137" t="s">
         <v>10</v>
       </c>
       <c r="F1137" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G1137" s="1">
         <v>46445</v>
@@ -26913,13 +26913,13 @@
     </row>
     <row r="1138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1138" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E1138" t="s">
         <v>10</v>
       </c>
       <c r="F1138" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G1138" s="1">
         <v>46437</v>
@@ -26927,13 +26927,13 @@
     </row>
     <row r="1139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1139" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E1139" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F1139" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1139" s="1">
         <v>46440</v>
@@ -26941,13 +26941,13 @@
     </row>
     <row r="1140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1140" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E1140" t="s">
         <v>10</v>
       </c>
       <c r="F1140" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1140" s="1">
         <v>45935</v>
@@ -26955,13 +26955,13 @@
     </row>
     <row r="1141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1141" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E1141" t="s">
         <v>16</v>
       </c>
       <c r="F1141" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1141" s="1">
         <v>45928</v>
@@ -26969,13 +26969,13 @@
     </row>
     <row r="1142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1142" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E1142" t="s">
         <v>26</v>
       </c>
       <c r="F1142" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1142" s="1">
         <v>45928</v>
@@ -26983,13 +26983,13 @@
     </row>
     <row r="1143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1143" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E1143" t="s">
         <v>10</v>
       </c>
       <c r="F1143" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1143" s="1">
         <v>46241</v>
@@ -26997,13 +26997,13 @@
     </row>
     <row r="1144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1144" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E1144" t="s">
         <v>16</v>
       </c>
       <c r="F1144" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1144" s="1">
         <v>46241</v>
@@ -27011,13 +27011,13 @@
     </row>
     <row r="1145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1145" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E1145" t="s">
         <v>26</v>
       </c>
       <c r="F1145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1145" s="1">
         <v>46241</v>
@@ -27028,7 +27028,7 @@
         <v>10</v>
       </c>
       <c r="F1146" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G1146" s="1">
         <v>46374</v>
@@ -27039,7 +27039,7 @@
         <v>16</v>
       </c>
       <c r="F1147" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G1147" s="1">
         <v>46374</v>
@@ -27050,7 +27050,7 @@
         <v>26</v>
       </c>
       <c r="F1148" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G1148" s="1">
         <v>46374</v>
@@ -27058,13 +27058,13 @@
     </row>
     <row r="1149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1149" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E1149" t="s">
         <v>68</v>
       </c>
       <c r="F1149" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G1149" s="1">
         <v>45960</v>
@@ -27072,13 +27072,13 @@
     </row>
     <row r="1150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1150" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E1150" t="s">
         <v>10</v>
       </c>
       <c r="F1150" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G1150" s="1">
         <v>46471</v>
@@ -27086,13 +27086,13 @@
     </row>
     <row r="1151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1151" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E1151" t="s">
         <v>10</v>
       </c>
       <c r="F1151" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1151" s="1">
         <v>46536</v>
@@ -27100,13 +27100,13 @@
     </row>
     <row r="1152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1152" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E1152" t="s">
         <v>16</v>
       </c>
       <c r="F1152" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1152" s="1">
         <v>46536</v>
@@ -27114,13 +27114,13 @@
     </row>
     <row r="1153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1153" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E1153" t="s">
         <v>26</v>
       </c>
       <c r="F1153" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1153" s="1">
         <v>46538</v>
@@ -27128,7 +27128,7 @@
     </row>
     <row r="1154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1154" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B1154" t="s">
         <v>44</v>
@@ -27151,7 +27151,7 @@
     </row>
     <row r="1155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1155" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B1155" t="s">
         <v>44</v>
@@ -27174,7 +27174,7 @@
     </row>
     <row r="1156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1156" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B1156" t="s">
         <v>24</v>
@@ -27197,7 +27197,7 @@
     </row>
     <row r="1157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1157" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B1157" t="s">
         <v>24</v>
@@ -27223,7 +27223,7 @@
         <v>10</v>
       </c>
       <c r="F1158" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G1158" s="1">
         <v>46382</v>
@@ -27234,7 +27234,7 @@
         <v>16</v>
       </c>
       <c r="F1159" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G1159" s="1">
         <v>46382</v>
@@ -27245,7 +27245,7 @@
         <v>26</v>
       </c>
       <c r="F1160" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G1160" s="1">
         <v>46382</v>
@@ -27253,7 +27253,7 @@
     </row>
     <row r="1161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1161" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B1161" t="s">
         <v>24</v>
@@ -27276,13 +27276,13 @@
     </row>
     <row r="1162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1162" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E1162" t="s">
         <v>10</v>
       </c>
       <c r="F1162" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G1162" s="1">
         <v>46529</v>
@@ -27290,13 +27290,13 @@
     </row>
     <row r="1163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1163" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E1163" t="s">
         <v>16</v>
       </c>
       <c r="F1163" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G1163" s="1">
         <v>46529</v>
@@ -27304,13 +27304,13 @@
     </row>
     <row r="1164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1164" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E1164" t="s">
         <v>26</v>
       </c>
       <c r="F1164" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G1164" s="1">
         <v>46529</v>
@@ -27318,13 +27318,13 @@
     </row>
     <row r="1165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1165" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E1165" t="s">
         <v>10</v>
       </c>
       <c r="F1165" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1165" s="1">
         <v>46523</v>
@@ -27332,7 +27332,7 @@
     </row>
     <row r="1166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1166" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B1166" t="s">
         <v>24</v>
@@ -27341,7 +27341,7 @@
         <v>52</v>
       </c>
       <c r="F1166" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G1166" s="1">
         <v>46501</v>
@@ -27349,7 +27349,7 @@
     </row>
     <row r="1167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1167" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B1167" t="s">
         <v>24</v>
@@ -27372,7 +27372,7 @@
     </row>
     <row r="1168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1168" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B1168" t="s">
         <v>24</v>
@@ -27395,21 +27395,21 @@
     </row>
     <row r="1169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E1169" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F1169" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="1170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1170" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E1170" t="s">
         <v>10</v>
       </c>
       <c r="F1170" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1170" s="1">
         <v>46643</v>
@@ -27417,13 +27417,13 @@
     </row>
     <row r="1171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1171" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E1171" t="s">
         <v>10</v>
       </c>
       <c r="F1171" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1171" s="1">
         <v>46473</v>
@@ -27431,16 +27431,16 @@
     </row>
     <row r="1172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1172" t="s">
+        <v>591</v>
+      </c>
+      <c r="B1172" t="s">
         <v>592</v>
       </c>
-      <c r="B1172" t="s">
-        <v>593</v>
-      </c>
       <c r="E1172" t="s">
         <v>10</v>
       </c>
       <c r="F1172" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1172" s="1">
         <v>46548</v>
@@ -27448,7 +27448,7 @@
     </row>
     <row r="1173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1173" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B1173" t="s">
         <v>8</v>
@@ -27471,7 +27471,7 @@
     </row>
     <row r="1174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1174" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B1174" t="s">
         <v>8</v>
@@ -27494,10 +27494,10 @@
     </row>
     <row r="1175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E1175" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F1175" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G1175" s="1">
         <v>46510</v>
@@ -27505,7 +27505,7 @@
     </row>
     <row r="1176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1176" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B1176" t="s">
         <v>24</v>
@@ -27528,7 +27528,7 @@
     </row>
     <row r="1177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1177" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B1177" t="s">
         <v>83</v>
@@ -27551,13 +27551,13 @@
     </row>
     <row r="1178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1178" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E1178" t="s">
         <v>10</v>
       </c>
       <c r="F1178" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1178" s="1">
         <v>46572</v>
@@ -27565,13 +27565,13 @@
     </row>
     <row r="1179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1179" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E1179" t="s">
         <v>10</v>
       </c>
       <c r="F1179" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1179" s="1">
         <v>46562</v>
@@ -27579,13 +27579,13 @@
     </row>
     <row r="1180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1180" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E1180" t="s">
         <v>16</v>
       </c>
       <c r="F1180" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1180" s="1">
         <v>46562</v>
@@ -27593,13 +27593,13 @@
     </row>
     <row r="1181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1181" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E1181" t="s">
         <v>26</v>
       </c>
       <c r="F1181" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1181" s="1">
         <v>46570</v>
@@ -27607,7 +27607,7 @@
     </row>
     <row r="1182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1182" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B1182" t="s">
         <v>24</v>
@@ -27630,7 +27630,7 @@
     </row>
     <row r="1183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1183" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B1183" t="s">
         <v>24</v>
@@ -27653,13 +27653,13 @@
     </row>
     <row r="1184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1184" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E1184" t="s">
         <v>10</v>
       </c>
       <c r="F1184" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G1184" s="1">
         <v>46545</v>
@@ -27667,13 +27667,13 @@
     </row>
     <row r="1185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1185" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E1185" t="s">
         <v>10</v>
       </c>
       <c r="F1185" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1185" s="1">
         <v>46546</v>
@@ -27681,13 +27681,13 @@
     </row>
     <row r="1186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1186" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E1186" t="s">
         <v>16</v>
       </c>
       <c r="F1186" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1186" s="1">
         <v>46598</v>
@@ -27695,13 +27695,13 @@
     </row>
     <row r="1187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1187" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E1187" t="s">
         <v>26</v>
       </c>
       <c r="F1187" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1187" s="1">
         <v>46598</v>
@@ -27709,13 +27709,13 @@
     </row>
     <row r="1188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1188" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E1188" t="s">
         <v>10</v>
       </c>
       <c r="F1188" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1188" s="1">
         <v>46613</v>
@@ -27723,13 +27723,13 @@
     </row>
     <row r="1189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1189" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E1189" t="s">
         <v>16</v>
       </c>
       <c r="F1189" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1189" s="1">
         <v>46613</v>
@@ -27737,13 +27737,13 @@
     </row>
     <row r="1190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1190" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E1190" t="s">
         <v>26</v>
       </c>
       <c r="F1190" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1190" s="1">
         <v>46613</v>
@@ -27751,13 +27751,13 @@
     </row>
     <row r="1191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1191" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E1191" t="s">
         <v>10</v>
       </c>
       <c r="F1191" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G1191" s="1">
         <v>46558</v>
@@ -27765,13 +27765,13 @@
     </row>
     <row r="1192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1192" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E1192" t="s">
         <v>10</v>
       </c>
       <c r="F1192" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1192" s="1">
         <v>46606</v>
@@ -27779,7 +27779,7 @@
     </row>
     <row r="1193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1193" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B1193" t="s">
         <v>24</v>
@@ -27802,7 +27802,7 @@
     </row>
     <row r="1194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1194" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B1194" t="s">
         <v>24</v>
@@ -27825,7 +27825,7 @@
     </row>
     <row r="1195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1195" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B1195" t="s">
         <v>24</v>
@@ -27848,7 +27848,7 @@
     </row>
     <row r="1196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1196" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B1196" t="s">
         <v>24</v>
@@ -27871,7 +27871,7 @@
     </row>
     <row r="1197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1197" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B1197" t="s">
         <v>24</v>
@@ -27894,7 +27894,7 @@
     </row>
     <row r="1198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1198" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B1198" t="s">
         <v>24</v>
@@ -27917,7 +27917,7 @@
     </row>
     <row r="1199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1199" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B1199" t="s">
         <v>24</v>
@@ -27940,7 +27940,7 @@
     </row>
     <row r="1200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1200" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B1200" t="s">
         <v>8</v>
@@ -27963,7 +27963,7 @@
     </row>
     <row r="1201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1201" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B1201" t="s">
         <v>24</v>
@@ -27986,7 +27986,7 @@
     </row>
     <row r="1202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1202" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B1202" t="s">
         <v>24</v>
@@ -28009,7 +28009,7 @@
     </row>
     <row r="1203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1203" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B1203" t="s">
         <v>24</v>
@@ -28032,7 +28032,7 @@
     </row>
     <row r="1204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1204" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B1204" t="s">
         <v>83</v>
@@ -28055,7 +28055,7 @@
     </row>
     <row r="1205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1205" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B1205" t="s">
         <v>24</v>
@@ -28078,7 +28078,7 @@
     </row>
     <row r="1206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1206" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B1206" t="s">
         <v>24</v>
@@ -28101,7 +28101,7 @@
     </row>
     <row r="1207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1207" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B1207" t="s">
         <v>24</v>
@@ -28124,7 +28124,7 @@
     </row>
     <row r="1208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1208" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B1208" t="s">
         <v>8</v>
@@ -28147,7 +28147,7 @@
     </row>
     <row r="1209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1209" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B1209" t="s">
         <v>24</v>
@@ -28170,7 +28170,7 @@
     </row>
     <row r="1210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1210" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B1210" t="s">
         <v>24</v>
@@ -28193,7 +28193,7 @@
     </row>
     <row r="1211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1211" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B1211" t="s">
         <v>24</v>
@@ -28216,7 +28216,7 @@
     </row>
     <row r="1212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1212" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B1212" t="s">
         <v>24</v>
@@ -28239,7 +28239,7 @@
     </row>
     <row r="1213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1213" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B1213" t="s">
         <v>24</v>
@@ -28262,7 +28262,7 @@
     </row>
     <row r="1214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1214" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B1214" t="s">
         <v>24</v>
@@ -28285,7 +28285,7 @@
     </row>
     <row r="1215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1215" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B1215" t="s">
         <v>24</v>
@@ -28308,7 +28308,7 @@
     </row>
     <row r="1216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1216" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B1216" t="s">
         <v>24</v>
@@ -28328,7 +28328,7 @@
     </row>
     <row r="1217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1217" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B1217" t="s">
         <v>8</v>
@@ -28340,7 +28340,7 @@
         <v>59</v>
       </c>
       <c r="E1217" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F1217" t="s">
         <v>11</v>
@@ -28351,7 +28351,7 @@
     </row>
     <row r="1218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1218" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B1218" t="s">
         <v>8</v>
@@ -28363,7 +28363,7 @@
         <v>14</v>
       </c>
       <c r="E1218" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F1218" t="s">
         <v>11</v>
@@ -28374,7 +28374,7 @@
     </row>
     <row r="1219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1219" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B1219" t="s">
         <v>24</v>
@@ -28397,7 +28397,7 @@
     </row>
     <row r="1220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1220" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B1220" t="s">
         <v>24</v>
@@ -28420,7 +28420,7 @@
     </row>
     <row r="1221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1221" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B1221" t="s">
         <v>8</v>
@@ -28443,7 +28443,7 @@
     </row>
     <row r="1222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1222" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B1222" t="s">
         <v>8</v>
@@ -28466,7 +28466,7 @@
     </row>
     <row r="1223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1223" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B1223" t="s">
         <v>24</v>
@@ -28489,7 +28489,7 @@
     </row>
     <row r="1224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1224" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B1224" t="s">
         <v>24</v>
@@ -28512,13 +28512,13 @@
     </row>
     <row r="1225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1225" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E1225" t="s">
         <v>10</v>
       </c>
       <c r="F1225" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1225" s="1">
         <v>46643</v>
@@ -28526,7 +28526,7 @@
     </row>
     <row r="1226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1226" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B1226" t="s">
         <v>24</v>
@@ -28549,7 +28549,7 @@
     </row>
     <row r="1227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1227" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D1227" t="s">
         <v>9</v>
@@ -28558,7 +28558,7 @@
         <v>10</v>
       </c>
       <c r="F1227" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G1227" s="1">
         <v>46604</v>
@@ -28566,16 +28566,16 @@
     </row>
     <row r="1228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1228" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D1228" t="s">
         <v>9</v>
       </c>
       <c r="E1228" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F1228" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G1228" s="1">
         <v>46644</v>
@@ -28583,7 +28583,7 @@
     </row>
     <row r="1229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1229" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E1229" t="s">
         <v>10</v>
@@ -28603,7 +28603,7 @@
         <v>10</v>
       </c>
       <c r="F1230" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G1230" s="1">
         <v>46640</v>
@@ -28617,7 +28617,7 @@
         <v>16</v>
       </c>
       <c r="F1231" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G1231" s="1">
         <v>46640</v>
@@ -28625,7 +28625,7 @@
     </row>
     <row r="1232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1232" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D1232" t="s">
         <v>9</v>
@@ -28634,7 +28634,7 @@
         <v>52</v>
       </c>
       <c r="F1232" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G1232" s="1">
         <v>46716</v>
@@ -28642,7 +28642,7 @@
     </row>
     <row r="1233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1233" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B1233" t="s">
         <v>24</v>
@@ -28665,7 +28665,7 @@
     </row>
     <row r="1234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1234" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B1234" t="s">
         <v>24</v>
@@ -28688,7 +28688,7 @@
     </row>
     <row r="1235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1235" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B1235" t="s">
         <v>24</v>
@@ -28711,7 +28711,7 @@
     </row>
     <row r="1236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1236" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B1236" t="s">
         <v>24</v>
@@ -28734,7 +28734,7 @@
     </row>
     <row r="1237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1237" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B1237" t="s">
         <v>24</v>
@@ -28757,7 +28757,7 @@
     </row>
     <row r="1238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1238" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B1238" t="s">
         <v>24</v>
@@ -28780,7 +28780,7 @@
     </row>
     <row r="1239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1239" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B1239" t="s">
         <v>24</v>
@@ -28789,10 +28789,10 @@
         <v>3604011804</v>
       </c>
       <c r="D1239" t="s">
+        <v>642</v>
+      </c>
+      <c r="E1239" t="s">
         <v>643</v>
-      </c>
-      <c r="E1239" t="s">
-        <v>644</v>
       </c>
       <c r="F1239" t="s">
         <v>11</v>
@@ -28806,7 +28806,7 @@
         <v>10</v>
       </c>
       <c r="F1240" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G1240" s="1">
         <v>46622</v>
@@ -28817,7 +28817,7 @@
         <v>10</v>
       </c>
       <c r="F1241" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G1241" s="1">
         <v>46654</v>
@@ -28825,7 +28825,7 @@
     </row>
     <row r="1242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1242" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B1242" t="s">
         <v>24</v>
@@ -28848,7 +28848,7 @@
     </row>
     <row r="1243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1243" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B1243" t="s">
         <v>24</v>
@@ -28871,7 +28871,7 @@
     </row>
     <row r="1244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1244" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B1244" t="s">
         <v>24</v>
@@ -28894,7 +28894,7 @@
     </row>
     <row r="1245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1245" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B1245" t="s">
         <v>24</v>
@@ -28917,7 +28917,7 @@
     </row>
     <row r="1246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1246" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B1246" t="s">
         <v>24</v>
@@ -28937,7 +28937,7 @@
         <v>10</v>
       </c>
       <c r="F1247" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G1247" s="1">
         <v>45574</v>
@@ -28945,7 +28945,7 @@
     </row>
     <row r="1248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1248" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B1248" t="s">
         <v>24</v>
@@ -28968,7 +28968,7 @@
     </row>
     <row r="1249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1249" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B1249" t="s">
         <v>24</v>
@@ -28991,7 +28991,7 @@
     </row>
     <row r="1250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1250" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B1250" t="s">
         <v>8</v>
@@ -29014,7 +29014,7 @@
     </row>
     <row r="1251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1251" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B1251" t="s">
         <v>8</v>
@@ -29037,7 +29037,7 @@
     </row>
     <row r="1252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1252" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B1252" t="s">
         <v>8</v>
@@ -29060,7 +29060,7 @@
     </row>
     <row r="1253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1253" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B1253" t="s">
         <v>8</v>
@@ -29083,7 +29083,7 @@
     </row>
     <row r="1254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1254" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B1254" t="s">
         <v>24</v>
@@ -29103,7 +29103,7 @@
     </row>
     <row r="1255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1255" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B1255" t="s">
         <v>24</v>
@@ -29126,10 +29126,10 @@
     </row>
     <row r="1256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1256" t="s">
+        <v>653</v>
+      </c>
+      <c r="B1256" t="s">
         <v>654</v>
-      </c>
-      <c r="B1256" t="s">
-        <v>655</v>
       </c>
       <c r="C1256" s="2">
         <v>632000000000</v>
@@ -29149,7 +29149,7 @@
     </row>
     <row r="1257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1257" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B1257" t="s">
         <v>28</v>
@@ -29172,7 +29172,7 @@
     </row>
     <row r="1258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1258" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B1258" t="s">
         <v>28</v>
@@ -29195,7 +29195,7 @@
     </row>
     <row r="1259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1259" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B1259" t="s">
         <v>24</v>
@@ -29218,7 +29218,7 @@
     </row>
     <row r="1260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1260" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B1260" t="s">
         <v>8</v>
@@ -29238,19 +29238,19 @@
     </row>
     <row r="1261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1261" t="s">
+        <v>657</v>
+      </c>
+      <c r="B1261" t="s">
         <v>658</v>
       </c>
-      <c r="B1261" t="s">
+      <c r="D1261" t="s">
+        <v>642</v>
+      </c>
+      <c r="E1261" t="s">
+        <v>643</v>
+      </c>
+      <c r="F1261" t="s">
         <v>659</v>
-      </c>
-      <c r="D1261" t="s">
-        <v>643</v>
-      </c>
-      <c r="E1261" t="s">
-        <v>644</v>
-      </c>
-      <c r="F1261" t="s">
-        <v>660</v>
       </c>
       <c r="G1261" s="1">
         <v>46377</v>
@@ -29258,7 +29258,7 @@
     </row>
     <row r="1262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1262" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B1262" t="s">
         <v>24</v>
@@ -29267,10 +29267,10 @@
         <v>3257017280</v>
       </c>
       <c r="D1262" t="s">
+        <v>642</v>
+      </c>
+      <c r="E1262" t="s">
         <v>643</v>
-      </c>
-      <c r="E1262" t="s">
-        <v>644</v>
       </c>
       <c r="F1262" t="s">
         <v>11</v>
@@ -29284,7 +29284,7 @@
         <v>10</v>
       </c>
       <c r="F1263" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G1263" s="1">
         <v>46719</v>
@@ -29292,7 +29292,7 @@
     </row>
     <row r="1264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1264" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B1264" t="s">
         <v>24</v>
@@ -29301,10 +29301,10 @@
         <v>5030090040</v>
       </c>
       <c r="D1264" t="s">
+        <v>642</v>
+      </c>
+      <c r="E1264" t="s">
         <v>643</v>
-      </c>
-      <c r="E1264" t="s">
-        <v>644</v>
       </c>
       <c r="F1264" t="s">
         <v>11</v>
@@ -29315,7 +29315,7 @@
     </row>
     <row r="1265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1265" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B1265" t="s">
         <v>24</v>
@@ -29324,10 +29324,10 @@
         <v>5834052005</v>
       </c>
       <c r="D1265" t="s">
+        <v>642</v>
+      </c>
+      <c r="E1265" t="s">
         <v>643</v>
-      </c>
-      <c r="E1265" t="s">
-        <v>644</v>
       </c>
       <c r="F1265" t="s">
         <v>11</v>
@@ -29335,7 +29335,7 @@
     </row>
     <row r="1266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1266" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B1266" t="s">
         <v>24</v>
@@ -29344,10 +29344,10 @@
         <v>7733660353</v>
       </c>
       <c r="D1266" t="s">
+        <v>642</v>
+      </c>
+      <c r="E1266" t="s">
         <v>643</v>
-      </c>
-      <c r="E1266" t="s">
-        <v>644</v>
       </c>
       <c r="F1266" t="s">
         <v>11</v>
@@ -29358,7 +29358,7 @@
     </row>
     <row r="1267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1267" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B1267" t="s">
         <v>24</v>
@@ -29367,10 +29367,10 @@
         <v>1644034949</v>
       </c>
       <c r="D1267" t="s">
+        <v>642</v>
+      </c>
+      <c r="E1267" t="s">
         <v>643</v>
-      </c>
-      <c r="E1267" t="s">
-        <v>644</v>
       </c>
       <c r="F1267" t="s">
         <v>11</v>
@@ -29381,7 +29381,7 @@
     </row>
     <row r="1268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1268" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B1268" t="s">
         <v>24</v>
@@ -29390,10 +29390,10 @@
         <v>8610024374</v>
       </c>
       <c r="D1268" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E1268" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F1268" t="s">
         <v>11</v>
@@ -29401,7 +29401,7 @@
     </row>
     <row r="1269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1269" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B1269" t="s">
         <v>24</v>
@@ -29410,10 +29410,10 @@
         <v>5504168160</v>
       </c>
       <c r="D1269" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E1269" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F1269" t="s">
         <v>11</v>
@@ -29421,7 +29421,7 @@
     </row>
     <row r="1270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1270" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B1270" t="s">
         <v>8</v>
@@ -29430,10 +29430,10 @@
         <v>6317126596</v>
       </c>
       <c r="D1270" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E1270" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F1270" t="s">
         <v>11</v>
@@ -29444,7 +29444,7 @@
     </row>
     <row r="1271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1271" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B1271" t="s">
         <v>24</v>
@@ -29453,10 +29453,10 @@
         <v>7017462729</v>
       </c>
       <c r="D1271" t="s">
+        <v>642</v>
+      </c>
+      <c r="E1271" t="s">
         <v>643</v>
-      </c>
-      <c r="E1271" t="s">
-        <v>644</v>
       </c>
       <c r="F1271" t="s">
         <v>11</v>
@@ -29467,7 +29467,7 @@
     </row>
     <row r="1272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1272" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B1272" t="s">
         <v>24</v>
@@ -29476,10 +29476,10 @@
         <v>7811438750</v>
       </c>
       <c r="D1272" t="s">
+        <v>642</v>
+      </c>
+      <c r="E1272" t="s">
         <v>643</v>
-      </c>
-      <c r="E1272" t="s">
-        <v>644</v>
       </c>
       <c r="F1272" t="s">
         <v>11</v>
@@ -29490,7 +29490,7 @@
     </row>
     <row r="1273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1273" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B1273" t="s">
         <v>24</v>
@@ -29513,7 +29513,7 @@
     </row>
     <row r="1274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1274" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B1274" t="s">
         <v>24</v>
@@ -29536,7 +29536,7 @@
     </row>
     <row r="1275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1275" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B1275" t="s">
         <v>24</v>
@@ -29545,10 +29545,10 @@
         <v>5505217893</v>
       </c>
       <c r="D1275" t="s">
+        <v>642</v>
+      </c>
+      <c r="E1275" t="s">
         <v>643</v>
-      </c>
-      <c r="E1275" t="s">
-        <v>644</v>
       </c>
       <c r="F1275" t="s">
         <v>11</v>
@@ -29559,7 +29559,7 @@
     </row>
     <row r="1276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1276" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B1276" t="s">
         <v>24</v>
@@ -29567,13 +29567,13 @@
     </row>
     <row r="1277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1277" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B1277" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C1277" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D1277" t="s">
         <v>11</v>
@@ -29584,16 +29584,16 @@
     </row>
     <row r="1278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1278" t="s">
+        <v>676</v>
+      </c>
+      <c r="B1278" t="s">
         <v>677</v>
       </c>
-      <c r="B1278" t="s">
-        <v>678</v>
-      </c>
       <c r="D1278" t="s">
+        <v>642</v>
+      </c>
+      <c r="E1278" t="s">
         <v>643</v>
-      </c>
-      <c r="E1278" t="s">
-        <v>644</v>
       </c>
       <c r="F1278" t="s">
         <v>131</v>
@@ -29601,13 +29601,13 @@
     </row>
     <row r="1279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D1279" t="s">
+        <v>678</v>
+      </c>
+      <c r="E1279" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1279" t="s">
         <v>679</v>
-      </c>
-      <c r="E1279" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1279" t="s">
-        <v>680</v>
       </c>
       <c r="G1279" s="1">
         <v>46769</v>
@@ -29621,7 +29621,7 @@
         <v>10</v>
       </c>
       <c r="F1280" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G1280" s="1">
         <v>46766</v>
@@ -29629,7 +29629,7 @@
     </row>
     <row r="1281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1281" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B1281" t="s">
         <v>24</v>
@@ -29652,7 +29652,7 @@
     </row>
     <row r="1282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1282" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B1282" t="s">
         <v>24</v>
@@ -29675,7 +29675,7 @@
     </row>
     <row r="1283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1283" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B1283" t="s">
         <v>24</v>
@@ -29698,7 +29698,7 @@
     </row>
     <row r="1284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1284" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B1284" t="s">
         <v>24</v>
@@ -29721,7 +29721,7 @@
     </row>
     <row r="1285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1285" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B1285" t="s">
         <v>8</v>
@@ -29744,7 +29744,7 @@
     </row>
     <row r="1286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1286" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B1286" t="s">
         <v>24</v>
@@ -29756,7 +29756,7 @@
         <v>14</v>
       </c>
       <c r="E1286" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F1286" t="s">
         <v>11</v>
@@ -29767,7 +29767,7 @@
     </row>
     <row r="1287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1287" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B1287" t="s">
         <v>24</v>
@@ -29790,7 +29790,7 @@
     </row>
     <row r="1288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1288" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B1288" t="s">
         <v>24</v>
@@ -29813,7 +29813,7 @@
     </row>
     <row r="1289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1289" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B1289" t="s">
         <v>28</v>
@@ -29836,7 +29836,7 @@
     </row>
     <row r="1290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1290" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B1290" t="s">
         <v>24</v>
@@ -29859,7 +29859,7 @@
     </row>
     <row r="1291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1291" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B1291" t="s">
         <v>24</v>
@@ -29882,7 +29882,7 @@
     </row>
     <row r="1292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1292" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B1292" t="s">
         <v>24</v>
@@ -29894,7 +29894,7 @@
         <v>59</v>
       </c>
       <c r="E1292" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F1292" t="s">
         <v>11</v>
@@ -29902,7 +29902,7 @@
     </row>
     <row r="1293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1293" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B1293" t="s">
         <v>24</v>
@@ -29925,7 +29925,7 @@
     </row>
     <row r="1294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1294" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B1294" t="s">
         <v>24</v>
@@ -29948,7 +29948,7 @@
     </row>
     <row r="1295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1295" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B1295" t="s">
         <v>24</v>
@@ -29971,7 +29971,7 @@
     </row>
     <row r="1296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1296" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B1296" t="s">
         <v>24</v>
@@ -29994,7 +29994,7 @@
     </row>
     <row r="1297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1297" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B1297" t="s">
         <v>24</v>
@@ -30017,7 +30017,7 @@
     </row>
     <row r="1298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1298" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B1298" t="s">
         <v>24</v>
@@ -30040,7 +30040,7 @@
     </row>
     <row r="1299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1299" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B1299" t="s">
         <v>24</v>
@@ -30063,7 +30063,7 @@
     </row>
     <row r="1300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1300" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B1300" t="s">
         <v>24</v>
@@ -30083,7 +30083,7 @@
     </row>
     <row r="1301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1301" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B1301" t="s">
         <v>24</v>
@@ -30106,7 +30106,7 @@
     </row>
     <row r="1302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1302" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B1302" t="s">
         <v>24</v>
@@ -30129,7 +30129,7 @@
     </row>
     <row r="1303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1303" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B1303" t="s">
         <v>24</v>
@@ -30152,7 +30152,7 @@
     </row>
     <row r="1304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1304" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B1304" t="s">
         <v>24</v>
@@ -30175,7 +30175,7 @@
     </row>
     <row r="1305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1305" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B1305" t="s">
         <v>24</v>
@@ -30198,7 +30198,7 @@
     </row>
     <row r="1306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1306" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B1306" t="s">
         <v>24</v>
@@ -30221,7 +30221,7 @@
     </row>
     <row r="1307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1307" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B1307" t="s">
         <v>24</v>
@@ -30238,7 +30238,7 @@
     </row>
     <row r="1308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1308" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B1308" t="s">
         <v>24</v>
@@ -30255,7 +30255,7 @@
     </row>
     <row r="1309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1309" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B1309" t="s">
         <v>8</v>
@@ -30278,7 +30278,7 @@
     </row>
     <row r="1310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1310" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B1310" t="s">
         <v>8</v>
@@ -30301,7 +30301,7 @@
     </row>
     <row r="1311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1311" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B1311" t="s">
         <v>8</v>
@@ -30324,7 +30324,7 @@
     </row>
     <row r="1312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1312" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D1312" t="s">
         <v>81</v>
@@ -30333,7 +30333,7 @@
         <v>10</v>
       </c>
       <c r="F1312" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G1312" s="1">
         <v>46788</v>
@@ -30341,7 +30341,7 @@
     </row>
     <row r="1313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1313" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D1313" t="s">
         <v>81</v>
@@ -30350,7 +30350,7 @@
         <v>16</v>
       </c>
       <c r="F1313" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G1313" s="1">
         <v>46787</v>
@@ -30358,7 +30358,7 @@
     </row>
     <row r="1314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1314" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D1314" t="s">
         <v>81</v>
@@ -30367,7 +30367,7 @@
         <v>26</v>
       </c>
       <c r="F1314" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G1314" s="1">
         <v>46787</v>
@@ -30375,7 +30375,7 @@
     </row>
     <row r="1315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1315" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B1315" t="s">
         <v>24</v>
@@ -30392,7 +30392,7 @@
     </row>
     <row r="1316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1316" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B1316" t="s">
         <v>8</v>
@@ -30409,7 +30409,7 @@
     </row>
     <row r="1317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1317" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B1317" t="s">
         <v>8</v>
@@ -30426,7 +30426,7 @@
     </row>
     <row r="1318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1318" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B1318" t="s">
         <v>8</v>
@@ -30446,7 +30446,7 @@
     </row>
     <row r="1319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1319" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B1319" t="s">
         <v>8</v>
@@ -30466,10 +30466,10 @@
     </row>
     <row r="1320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1320" t="s">
+        <v>699</v>
+      </c>
+      <c r="B1320" t="s">
         <v>700</v>
-      </c>
-      <c r="B1320" t="s">
-        <v>701</v>
       </c>
       <c r="D1320" t="s">
         <v>59</v>
@@ -30478,7 +30478,7 @@
         <v>10</v>
       </c>
       <c r="F1320" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1320" s="1">
         <v>46823</v>
@@ -30486,10 +30486,10 @@
     </row>
     <row r="1321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1321" t="s">
+        <v>699</v>
+      </c>
+      <c r="B1321" t="s">
         <v>700</v>
-      </c>
-      <c r="B1321" t="s">
-        <v>701</v>
       </c>
       <c r="D1321" t="s">
         <v>59</v>
@@ -30498,7 +30498,7 @@
         <v>16</v>
       </c>
       <c r="F1321" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1321" s="1">
         <v>46824</v>
@@ -30506,10 +30506,10 @@
     </row>
     <row r="1322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1322" t="s">
+        <v>699</v>
+      </c>
+      <c r="B1322" t="s">
         <v>700</v>
-      </c>
-      <c r="B1322" t="s">
-        <v>701</v>
       </c>
       <c r="D1322" t="s">
         <v>59</v>
@@ -30518,7 +30518,7 @@
         <v>26</v>
       </c>
       <c r="F1322" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1322" s="1">
         <v>46824</v>
@@ -30526,7 +30526,7 @@
     </row>
     <row r="1323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1323" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B1323" t="s">
         <v>24</v>
@@ -30543,7 +30543,7 @@
     </row>
     <row r="1324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1324" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B1324" t="s">
         <v>24</v>
@@ -30560,7 +30560,7 @@
     </row>
     <row r="1325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1325" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B1325" t="s">
         <v>24</v>
@@ -30580,7 +30580,7 @@
     </row>
     <row r="1326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1326" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B1326" t="s">
         <v>24</v>
@@ -30600,7 +30600,7 @@
     </row>
     <row r="1327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1327" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B1327" t="s">
         <v>24</v>
@@ -30620,7 +30620,7 @@
     </row>
     <row r="1328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1328" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B1328" t="s">
         <v>24</v>
@@ -30643,7 +30643,7 @@
     </row>
     <row r="1329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1329" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B1329" t="s">
         <v>86</v>
@@ -30666,7 +30666,7 @@
     </row>
     <row r="1330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1330" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B1330" t="s">
         <v>86</v>
@@ -30689,7 +30689,7 @@
     </row>
     <row r="1331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1331" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B1331" t="s">
         <v>86</v>
@@ -30718,7 +30718,7 @@
         <v>10</v>
       </c>
       <c r="F1332" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G1332" s="1">
         <v>46857</v>
@@ -30732,7 +30732,7 @@
         <v>16</v>
       </c>
       <c r="F1333" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="1334" spans="1:7" x14ac:dyDescent="0.3">
@@ -30743,7 +30743,7 @@
         <v>26</v>
       </c>
       <c r="F1334" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="1335" spans="1:7" x14ac:dyDescent="0.3">
@@ -30754,7 +30754,7 @@
         <v>10</v>
       </c>
       <c r="F1335" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G1335" s="1">
         <v>46857</v>
@@ -30768,7 +30768,7 @@
         <v>16</v>
       </c>
       <c r="F1336" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G1336" s="1">
         <v>46899</v>
@@ -30782,7 +30782,7 @@
         <v>10</v>
       </c>
       <c r="F1337" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G1337" s="1">
         <v>46824</v>
@@ -30790,10 +30790,10 @@
     </row>
     <row r="1338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1338" t="s">
+        <v>706</v>
+      </c>
+      <c r="B1338" t="s">
         <v>707</v>
-      </c>
-      <c r="B1338" t="s">
-        <v>708</v>
       </c>
       <c r="C1338">
         <v>6660003190</v>
@@ -30813,10 +30813,10 @@
     </row>
     <row r="1339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1339" t="s">
+        <v>706</v>
+      </c>
+      <c r="B1339" t="s">
         <v>707</v>
-      </c>
-      <c r="B1339" t="s">
-        <v>708</v>
       </c>
       <c r="C1339">
         <v>6660003190</v>
@@ -30836,7 +30836,7 @@
     </row>
     <row r="1340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1340" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B1340" t="s">
         <v>8</v>
@@ -30859,7 +30859,7 @@
     </row>
     <row r="1341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1341" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B1341" t="s">
         <v>8</v>
@@ -30882,7 +30882,7 @@
     </row>
     <row r="1342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1342" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B1342" t="s">
         <v>8</v>
@@ -30905,7 +30905,7 @@
     </row>
     <row r="1343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1343" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B1343" t="s">
         <v>24</v>
@@ -30922,7 +30922,7 @@
     </row>
     <row r="1344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1344" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B1344" t="s">
         <v>24</v>
@@ -30939,7 +30939,7 @@
     </row>
     <row r="1345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1345" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B1345" t="s">
         <v>24</v>
@@ -30951,7 +30951,7 @@
         <v>81</v>
       </c>
       <c r="E1345" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F1345" t="s">
         <v>11</v>
@@ -30962,7 +30962,7 @@
     </row>
     <row r="1346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1346" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B1346" t="s">
         <v>24</v>
@@ -30974,7 +30974,7 @@
         <v>14</v>
       </c>
       <c r="E1346" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F1346" t="s">
         <v>11</v>
@@ -30985,7 +30985,7 @@
     </row>
     <row r="1347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1347" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B1347" t="s">
         <v>8</v>
@@ -31002,7 +31002,7 @@
     </row>
     <row r="1348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1348" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B1348" t="s">
         <v>24</v>
@@ -31025,7 +31025,7 @@
     </row>
     <row r="1349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1349" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B1349" t="s">
         <v>24</v>
@@ -31042,7 +31042,7 @@
     </row>
     <row r="1350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1350" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B1350" t="s">
         <v>24</v>
@@ -31059,7 +31059,7 @@
     </row>
     <row r="1351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1351" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B1351" t="s">
         <v>24</v>
@@ -31076,7 +31076,7 @@
     </row>
     <row r="1352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1352" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B1352" t="s">
         <v>24</v>
@@ -31096,10 +31096,10 @@
     </row>
     <row r="1353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1353" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B1353" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D1353" t="s">
         <v>9</v>
@@ -31108,7 +31108,7 @@
         <v>88</v>
       </c>
       <c r="F1353" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1353" s="1">
         <v>46949</v>
@@ -31116,7 +31116,7 @@
     </row>
     <row r="1354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1354" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B1354" t="s">
         <v>24</v>
@@ -31136,10 +31136,10 @@
     </row>
     <row r="1355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1355" t="s">
+        <v>716</v>
+      </c>
+      <c r="B1355" t="s">
         <v>717</v>
-      </c>
-      <c r="B1355" t="s">
-        <v>718</v>
       </c>
       <c r="C1355">
         <v>7723320277</v>
@@ -31159,10 +31159,10 @@
     </row>
     <row r="1356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1356" t="s">
+        <v>718</v>
+      </c>
+      <c r="B1356" t="s">
         <v>719</v>
-      </c>
-      <c r="B1356" t="s">
-        <v>720</v>
       </c>
       <c r="C1356" s="2">
         <v>584000000000</v>
@@ -31182,10 +31182,10 @@
     </row>
     <row r="1357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1357" t="s">
+        <v>718</v>
+      </c>
+      <c r="B1357" t="s">
         <v>719</v>
-      </c>
-      <c r="B1357" t="s">
-        <v>720</v>
       </c>
       <c r="C1357" s="2">
         <v>584000000000</v>
@@ -31205,7 +31205,7 @@
     </row>
     <row r="1358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1358" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B1358" t="s">
         <v>24</v>
@@ -31228,7 +31228,7 @@
     </row>
     <row r="1359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1359" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B1359" t="s">
         <v>24</v>
@@ -31251,7 +31251,7 @@
     </row>
     <row r="1360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1360" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B1360" t="s">
         <v>24</v>

--- a/sites/URS_Certifications 29.07.25.xlsx
+++ b/sites/URS_Certifications 29.07.25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\sites\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA35F9FB-F3E6-4EE7-9CB2-CC0FF3540439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6478DA5A-FCC3-4A08-9596-5E05311BE0FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -940,9 +940,6 @@
     <t>Армтел</t>
   </si>
   <si>
-    <t>Armtel-Engineering</t>
-  </si>
-  <si>
     <t>09AAWCA1561B1ZO</t>
   </si>
   <si>
@@ -2189,6 +2186,9 @@
   </si>
   <si>
     <t>LTD</t>
+  </si>
+  <si>
+    <t>Armtel-Engineering (India)</t>
   </si>
 </sst>
 </file>
@@ -3052,12 +3052,13 @@
   <dimension ref="A1:G1360"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A606" workbookViewId="0">
-      <selection activeCell="I615" sqref="I615"/>
+      <selection activeCell="C620" sqref="C620"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="7" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -17191,13 +17192,13 @@
     </row>
     <row r="620" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
+        <v>722</v>
+      </c>
+      <c r="B620" t="s">
+        <v>721</v>
+      </c>
+      <c r="C620" t="s">
         <v>306</v>
-      </c>
-      <c r="B620" t="s">
-        <v>722</v>
-      </c>
-      <c r="C620" t="s">
-        <v>307</v>
       </c>
       <c r="D620" t="s">
         <v>9</v>
@@ -17214,7 +17215,7 @@
     </row>
     <row r="621" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B621" t="s">
         <v>24</v>
@@ -17237,7 +17238,7 @@
     </row>
     <row r="622" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B622" t="s">
         <v>24</v>
@@ -17260,7 +17261,7 @@
     </row>
     <row r="623" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B623" t="s">
         <v>24</v>
@@ -17283,7 +17284,7 @@
     </row>
     <row r="624" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B624" t="s">
         <v>24</v>
@@ -17306,7 +17307,7 @@
     </row>
     <row r="625" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B625" t="s">
         <v>24</v>
@@ -17329,7 +17330,7 @@
     </row>
     <row r="626" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B626" t="s">
         <v>24</v>
@@ -17352,7 +17353,7 @@
     </row>
     <row r="627" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B627" t="s">
         <v>24</v>
@@ -17375,7 +17376,7 @@
     </row>
     <row r="628" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B628" t="s">
         <v>24</v>
@@ -17398,7 +17399,7 @@
     </row>
     <row r="629" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B629" t="s">
         <v>24</v>
@@ -17421,7 +17422,7 @@
     </row>
     <row r="630" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B630" t="s">
         <v>8</v>
@@ -17444,7 +17445,7 @@
     </row>
     <row r="631" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B631" t="s">
         <v>24</v>
@@ -17467,7 +17468,7 @@
     </row>
     <row r="632" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B632" t="s">
         <v>8</v>
@@ -17490,7 +17491,7 @@
     </row>
     <row r="633" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B633" t="s">
         <v>8</v>
@@ -17513,7 +17514,7 @@
     </row>
     <row r="634" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B634" t="s">
         <v>8</v>
@@ -17536,7 +17537,7 @@
     </row>
     <row r="635" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B635" t="s">
         <v>8</v>
@@ -17559,7 +17560,7 @@
     </row>
     <row r="636" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B636" t="s">
         <v>28</v>
@@ -17582,7 +17583,7 @@
     </row>
     <row r="637" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B637" t="s">
         <v>24</v>
@@ -17605,7 +17606,7 @@
     </row>
     <row r="638" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B638" t="s">
         <v>24</v>
@@ -17628,7 +17629,7 @@
     </row>
     <row r="639" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B639" t="s">
         <v>24</v>
@@ -17651,7 +17652,7 @@
     </row>
     <row r="640" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B640" t="s">
         <v>24</v>
@@ -17674,7 +17675,7 @@
     </row>
     <row r="641" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B641" t="s">
         <v>24</v>
@@ -17697,7 +17698,7 @@
     </row>
     <row r="642" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B642" t="s">
         <v>24</v>
@@ -17720,7 +17721,7 @@
     </row>
     <row r="643" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B643" t="s">
         <v>24</v>
@@ -17743,7 +17744,7 @@
     </row>
     <row r="644" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B644" t="s">
         <v>24</v>
@@ -17755,7 +17756,7 @@
         <v>14</v>
       </c>
       <c r="E644" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F644" t="s">
         <v>11</v>
@@ -17763,7 +17764,7 @@
     </row>
     <row r="645" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B645" t="s">
         <v>8</v>
@@ -17786,7 +17787,7 @@
     </row>
     <row r="646" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B646" t="s">
         <v>8</v>
@@ -17809,7 +17810,7 @@
     </row>
     <row r="647" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B647" t="s">
         <v>8</v>
@@ -17832,7 +17833,7 @@
     </row>
     <row r="648" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B648" t="s">
         <v>8</v>
@@ -17855,7 +17856,7 @@
     </row>
     <row r="649" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B649" t="s">
         <v>8</v>
@@ -17875,7 +17876,7 @@
     </row>
     <row r="650" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B650" t="s">
         <v>8</v>
@@ -17895,7 +17896,7 @@
     </row>
     <row r="651" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B651" t="s">
         <v>24</v>
@@ -17918,13 +17919,13 @@
     </row>
     <row r="652" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
+        <v>324</v>
+      </c>
+      <c r="E652" t="s">
+        <v>10</v>
+      </c>
+      <c r="F652" t="s">
         <v>325</v>
-      </c>
-      <c r="E652" t="s">
-        <v>10</v>
-      </c>
-      <c r="F652" t="s">
-        <v>326</v>
       </c>
       <c r="G652" s="1">
         <v>45575</v>
@@ -17932,13 +17933,13 @@
     </row>
     <row r="653" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E653" t="s">
         <v>16</v>
       </c>
       <c r="F653" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G653" s="1">
         <v>45957</v>
@@ -17946,13 +17947,13 @@
     </row>
     <row r="654" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E654" t="s">
         <v>26</v>
       </c>
       <c r="F654" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G654" s="1">
         <v>45957</v>
@@ -17960,13 +17961,13 @@
     </row>
     <row r="655" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E655" t="s">
         <v>68</v>
       </c>
       <c r="F655" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G655" s="1">
         <v>45548</v>
@@ -17974,13 +17975,13 @@
     </row>
     <row r="656" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
+        <v>324</v>
+      </c>
+      <c r="E656" t="s">
+        <v>326</v>
+      </c>
+      <c r="F656" t="s">
         <v>325</v>
-      </c>
-      <c r="E656" t="s">
-        <v>327</v>
-      </c>
-      <c r="F656" t="s">
-        <v>326</v>
       </c>
       <c r="G656" s="1">
         <v>45565</v>
@@ -17988,7 +17989,7 @@
     </row>
     <row r="657" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B657" t="s">
         <v>8</v>
@@ -18011,7 +18012,7 @@
     </row>
     <row r="658" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B658" t="s">
         <v>8</v>
@@ -18034,7 +18035,7 @@
     </row>
     <row r="659" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B659" t="s">
         <v>8</v>
@@ -18057,7 +18058,7 @@
     </row>
     <row r="660" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B660" t="s">
         <v>24</v>
@@ -18080,7 +18081,7 @@
     </row>
     <row r="661" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B661" t="s">
         <v>24</v>
@@ -18103,7 +18104,7 @@
     </row>
     <row r="662" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B662" t="s">
         <v>24</v>
@@ -18126,7 +18127,7 @@
     </row>
     <row r="663" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B663" t="s">
         <v>8</v>
@@ -18149,7 +18150,7 @@
     </row>
     <row r="664" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B664" t="s">
         <v>8</v>
@@ -18172,7 +18173,7 @@
     </row>
     <row r="665" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B665" t="s">
         <v>24</v>
@@ -18195,7 +18196,7 @@
     </row>
     <row r="666" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B666" t="s">
         <v>24</v>
@@ -18218,7 +18219,7 @@
     </row>
     <row r="667" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B667" t="s">
         <v>24</v>
@@ -18241,7 +18242,7 @@
     </row>
     <row r="668" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B668" t="s">
         <v>24</v>
@@ -18264,7 +18265,7 @@
     </row>
     <row r="669" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B669" t="s">
         <v>24</v>
@@ -18287,7 +18288,7 @@
     </row>
     <row r="670" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B670" t="s">
         <v>24</v>
@@ -18310,7 +18311,7 @@
     </row>
     <row r="671" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B671" t="s">
         <v>24</v>
@@ -18333,7 +18334,7 @@
     </row>
     <row r="672" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B672" t="s">
         <v>8</v>
@@ -18356,7 +18357,7 @@
     </row>
     <row r="673" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B673" t="s">
         <v>8</v>
@@ -18379,7 +18380,7 @@
     </row>
     <row r="674" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B674" t="s">
         <v>8</v>
@@ -18402,7 +18403,7 @@
     </row>
     <row r="675" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B675" t="s">
         <v>8</v>
@@ -18425,7 +18426,7 @@
     </row>
     <row r="676" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B676" t="s">
         <v>24</v>
@@ -18448,7 +18449,7 @@
     </row>
     <row r="677" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B677" t="s">
         <v>24</v>
@@ -18471,7 +18472,7 @@
     </row>
     <row r="678" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B678" t="s">
         <v>24</v>
@@ -18494,13 +18495,13 @@
     </row>
     <row r="679" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E679" t="s">
         <v>10</v>
       </c>
       <c r="F679" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G679" s="1">
         <v>45926</v>
@@ -18508,13 +18509,13 @@
     </row>
     <row r="680" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E680" t="s">
         <v>10</v>
       </c>
       <c r="F680" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G680" s="1">
         <v>45996</v>
@@ -18522,13 +18523,13 @@
     </row>
     <row r="681" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E681" t="s">
         <v>16</v>
       </c>
       <c r="F681" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G681" s="1">
         <v>45995</v>
@@ -18536,13 +18537,13 @@
     </row>
     <row r="682" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E682" t="s">
         <v>26</v>
       </c>
       <c r="F682" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G682" s="1">
         <v>45995</v>
@@ -18550,7 +18551,7 @@
     </row>
     <row r="683" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B683" t="s">
         <v>24</v>
@@ -18573,13 +18574,13 @@
     </row>
     <row r="684" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E684" t="s">
         <v>10</v>
       </c>
       <c r="F684" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G684" s="1">
         <v>46013</v>
@@ -18587,13 +18588,13 @@
     </row>
     <row r="685" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E685" t="s">
         <v>16</v>
       </c>
       <c r="F685" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G685" s="1">
         <v>46013</v>
@@ -18601,13 +18602,13 @@
     </row>
     <row r="686" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E686" t="s">
         <v>26</v>
       </c>
       <c r="F686" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G686" s="1">
         <v>46013</v>
@@ -18615,13 +18616,13 @@
     </row>
     <row r="687" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E687" t="s">
         <v>10</v>
       </c>
       <c r="F687" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G687" s="1">
         <v>45998</v>
@@ -18629,13 +18630,13 @@
     </row>
     <row r="688" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E688" t="s">
         <v>16</v>
       </c>
       <c r="F688" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G688" s="1">
         <v>45997</v>
@@ -18643,13 +18644,13 @@
     </row>
     <row r="689" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E689" t="s">
         <v>26</v>
       </c>
       <c r="F689" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G689" s="1">
         <v>45997</v>
@@ -18657,7 +18658,7 @@
     </row>
     <row r="690" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B690" t="s">
         <v>83</v>
@@ -18680,7 +18681,7 @@
     </row>
     <row r="691" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B691" t="s">
         <v>24</v>
@@ -18703,7 +18704,7 @@
     </row>
     <row r="692" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B692" t="s">
         <v>24</v>
@@ -18726,7 +18727,7 @@
     </row>
     <row r="693" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B693" t="s">
         <v>24</v>
@@ -18749,7 +18750,7 @@
     </row>
     <row r="694" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B694" t="s">
         <v>24</v>
@@ -18772,7 +18773,7 @@
     </row>
     <row r="695" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B695" t="s">
         <v>24</v>
@@ -18795,7 +18796,7 @@
     </row>
     <row r="696" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B696" t="s">
         <v>24</v>
@@ -18818,7 +18819,7 @@
     </row>
     <row r="697" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B697" t="s">
         <v>24</v>
@@ -18841,7 +18842,7 @@
     </row>
     <row r="698" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B698" t="s">
         <v>24</v>
@@ -18864,7 +18865,7 @@
     </row>
     <row r="699" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B699" t="s">
         <v>24</v>
@@ -18887,7 +18888,7 @@
     </row>
     <row r="700" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B700" t="s">
         <v>24</v>
@@ -18910,7 +18911,7 @@
     </row>
     <row r="701" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B701" t="s">
         <v>24</v>
@@ -18933,13 +18934,13 @@
     </row>
     <row r="702" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
+        <v>347</v>
+      </c>
+      <c r="E702" t="s">
+        <v>10</v>
+      </c>
+      <c r="F702" t="s">
         <v>348</v>
-      </c>
-      <c r="E702" t="s">
-        <v>10</v>
-      </c>
-      <c r="F702" t="s">
-        <v>349</v>
       </c>
       <c r="G702" s="1">
         <v>45951</v>
@@ -18947,13 +18948,13 @@
     </row>
     <row r="703" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E703" t="s">
         <v>16</v>
       </c>
       <c r="F703" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G703" s="1">
         <v>45951</v>
@@ -18961,13 +18962,13 @@
     </row>
     <row r="704" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E704" t="s">
         <v>26</v>
       </c>
       <c r="F704" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G704" s="1">
         <v>45951</v>
@@ -18975,13 +18976,13 @@
     </row>
     <row r="705" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E705" t="s">
         <v>10</v>
       </c>
       <c r="F705" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G705" s="1">
         <v>45925</v>
@@ -18989,13 +18990,13 @@
     </row>
     <row r="706" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
+        <v>349</v>
+      </c>
+      <c r="E706" t="s">
         <v>350</v>
       </c>
-      <c r="E706" t="s">
-        <v>351</v>
-      </c>
       <c r="F706" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G706" s="1">
         <v>45928</v>
@@ -19003,7 +19004,7 @@
     </row>
     <row r="707" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B707" t="s">
         <v>8</v>
@@ -19026,7 +19027,7 @@
     </row>
     <row r="708" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B708" t="s">
         <v>8</v>
@@ -19049,7 +19050,7 @@
     </row>
     <row r="709" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B709" t="s">
         <v>8</v>
@@ -19072,13 +19073,13 @@
     </row>
     <row r="710" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E710" t="s">
         <v>10</v>
       </c>
       <c r="F710" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G710" s="1">
         <v>45927</v>
@@ -19086,13 +19087,13 @@
     </row>
     <row r="711" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E711" t="s">
         <v>26</v>
       </c>
       <c r="F711" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G711" s="1">
         <v>45927</v>
@@ -19100,7 +19101,7 @@
     </row>
     <row r="712" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B712" t="s">
         <v>8</v>
@@ -19123,7 +19124,7 @@
     </row>
     <row r="713" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B713" t="s">
         <v>8</v>
@@ -19146,7 +19147,7 @@
     </row>
     <row r="714" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B714" t="s">
         <v>8</v>
@@ -19169,7 +19170,7 @@
     </row>
     <row r="715" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B715" t="s">
         <v>8</v>
@@ -19192,7 +19193,7 @@
     </row>
     <row r="716" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B716" t="s">
         <v>8</v>
@@ -19215,7 +19216,7 @@
     </row>
     <row r="717" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B717" t="s">
         <v>8</v>
@@ -19238,7 +19239,7 @@
     </row>
     <row r="718" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B718" t="s">
         <v>28</v>
@@ -19261,7 +19262,7 @@
     </row>
     <row r="719" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B719" t="s">
         <v>24</v>
@@ -19284,7 +19285,7 @@
     </row>
     <row r="720" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B720" t="s">
         <v>24</v>
@@ -19307,7 +19308,7 @@
     </row>
     <row r="721" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B721" t="s">
         <v>24</v>
@@ -19330,7 +19331,7 @@
     </row>
     <row r="722" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B722" t="s">
         <v>24</v>
@@ -19353,7 +19354,7 @@
     </row>
     <row r="723" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B723" t="s">
         <v>24</v>
@@ -19376,7 +19377,7 @@
     </row>
     <row r="724" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B724" t="s">
         <v>24</v>
@@ -19399,7 +19400,7 @@
     </row>
     <row r="725" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B725" t="s">
         <v>24</v>
@@ -19422,7 +19423,7 @@
     </row>
     <row r="726" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B726" t="s">
         <v>24</v>
@@ -19445,7 +19446,7 @@
     </row>
     <row r="727" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B727" t="s">
         <v>24</v>
@@ -19468,13 +19469,13 @@
     </row>
     <row r="728" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
+        <v>359</v>
+      </c>
+      <c r="E728" t="s">
+        <v>10</v>
+      </c>
+      <c r="F728" t="s">
         <v>360</v>
-      </c>
-      <c r="E728" t="s">
-        <v>10</v>
-      </c>
-      <c r="F728" t="s">
-        <v>361</v>
       </c>
       <c r="G728">
         <v>45888</v>
@@ -19482,7 +19483,7 @@
     </row>
     <row r="729" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B729" t="s">
         <v>8</v>
@@ -19505,7 +19506,7 @@
     </row>
     <row r="730" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B730" t="s">
         <v>24</v>
@@ -19528,13 +19529,13 @@
     </row>
     <row r="731" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E731" t="s">
         <v>10</v>
       </c>
       <c r="F731" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G731" s="1">
         <v>45813</v>
@@ -19542,7 +19543,7 @@
     </row>
     <row r="732" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B732" t="s">
         <v>24</v>
@@ -19565,7 +19566,7 @@
     </row>
     <row r="733" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B733" t="s">
         <v>24</v>
@@ -19588,7 +19589,7 @@
     </row>
     <row r="734" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B734" t="s">
         <v>24</v>
@@ -19611,7 +19612,7 @@
     </row>
     <row r="735" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B735" t="s">
         <v>24</v>
@@ -19634,13 +19635,13 @@
     </row>
     <row r="736" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E736" t="s">
         <v>10</v>
       </c>
       <c r="F736" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G736">
         <v>45951</v>
@@ -19648,13 +19649,13 @@
     </row>
     <row r="737" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E737" t="s">
         <v>16</v>
       </c>
       <c r="F737" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G737">
         <v>45951</v>
@@ -19662,13 +19663,13 @@
     </row>
     <row r="738" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E738" t="s">
         <v>26</v>
       </c>
       <c r="F738" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G738">
         <v>45956</v>
@@ -19676,13 +19677,13 @@
     </row>
     <row r="739" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E739" t="s">
         <v>10</v>
       </c>
       <c r="F739" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G739" s="1">
         <v>45989</v>
@@ -19690,13 +19691,13 @@
     </row>
     <row r="740" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E740" t="s">
         <v>10</v>
       </c>
       <c r="F740" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G740" s="1">
         <v>45928</v>
@@ -19704,13 +19705,13 @@
     </row>
     <row r="741" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E741" t="s">
         <v>10</v>
       </c>
       <c r="F741" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G741" s="1">
         <v>45997</v>
@@ -19718,13 +19719,13 @@
     </row>
     <row r="742" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E742" t="s">
         <v>10</v>
       </c>
       <c r="F742" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G742" s="1">
         <v>45997</v>
@@ -19732,13 +19733,13 @@
     </row>
     <row r="743" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E743" t="s">
         <v>10</v>
       </c>
       <c r="F743" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G743" s="1">
         <v>46017</v>
@@ -19746,7 +19747,7 @@
     </row>
     <row r="744" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B744" t="s">
         <v>24</v>
@@ -19769,7 +19770,7 @@
     </row>
     <row r="745" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B745" t="s">
         <v>24</v>
@@ -19792,13 +19793,13 @@
     </row>
     <row r="746" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E746" t="s">
         <v>68</v>
       </c>
       <c r="F746" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G746" s="1">
         <v>45925</v>
@@ -19806,10 +19807,10 @@
     </row>
     <row r="747" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
+        <v>373</v>
+      </c>
+      <c r="B747" t="s">
         <v>374</v>
-      </c>
-      <c r="B747" t="s">
-        <v>375</v>
       </c>
       <c r="C747">
         <v>3904014891</v>
@@ -19829,13 +19830,13 @@
     </row>
     <row r="748" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E748" t="s">
         <v>10</v>
       </c>
       <c r="F748" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G748" s="1">
         <v>46021</v>
@@ -19843,7 +19844,7 @@
     </row>
     <row r="749" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B749" t="s">
         <v>8</v>
@@ -19866,7 +19867,7 @@
     </row>
     <row r="750" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B750" t="s">
         <v>8</v>
@@ -19889,13 +19890,13 @@
     </row>
     <row r="751" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E751" t="s">
         <v>10</v>
       </c>
       <c r="F751" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G751" s="1">
         <v>45926</v>
@@ -19903,13 +19904,13 @@
     </row>
     <row r="752" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E752" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F752" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G752" s="1">
         <v>45935</v>
@@ -19917,7 +19918,7 @@
     </row>
     <row r="753" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B753" t="s">
         <v>83</v>
@@ -19940,13 +19941,13 @@
     </row>
     <row r="754" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E754" t="s">
         <v>10</v>
       </c>
       <c r="F754" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G754" s="1">
         <v>45886</v>
@@ -19954,13 +19955,13 @@
     </row>
     <row r="755" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E755" t="s">
         <v>16</v>
       </c>
       <c r="F755" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G755" s="1">
         <v>45886</v>
@@ -19968,13 +19969,13 @@
     </row>
     <row r="756" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E756" t="s">
         <v>26</v>
       </c>
       <c r="F756" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G756" s="1">
         <v>45886</v>
@@ -19982,13 +19983,13 @@
     </row>
     <row r="757" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E757" t="s">
         <v>10</v>
       </c>
       <c r="F757" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G757">
         <v>45989</v>
@@ -19996,13 +19997,13 @@
     </row>
     <row r="758" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E758" t="s">
         <v>16</v>
       </c>
       <c r="F758" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G758">
         <v>45989</v>
@@ -20010,13 +20011,13 @@
     </row>
     <row r="759" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E759" t="s">
         <v>26</v>
       </c>
       <c r="F759" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G759">
         <v>45989</v>
@@ -20024,13 +20025,13 @@
     </row>
     <row r="760" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E760" t="s">
         <v>10</v>
       </c>
       <c r="F760" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G760" s="1">
         <v>45898</v>
@@ -20038,13 +20039,13 @@
     </row>
     <row r="761" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E761" t="s">
         <v>16</v>
       </c>
       <c r="F761" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G761" s="1">
         <v>45898</v>
@@ -20052,13 +20053,13 @@
     </row>
     <row r="762" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E762" t="s">
         <v>26</v>
       </c>
       <c r="F762" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G762" s="1">
         <v>45899</v>
@@ -20066,7 +20067,7 @@
     </row>
     <row r="763" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B763" t="s">
         <v>24</v>
@@ -20089,7 +20090,7 @@
     </row>
     <row r="764" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B764" t="s">
         <v>24</v>
@@ -20112,27 +20113,27 @@
     </row>
     <row r="765" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
+        <v>383</v>
+      </c>
+      <c r="E765" t="s">
+        <v>350</v>
+      </c>
+      <c r="F765" t="s">
+        <v>325</v>
+      </c>
+      <c r="G765" t="s">
         <v>384</v>
-      </c>
-      <c r="E765" t="s">
-        <v>351</v>
-      </c>
-      <c r="F765" t="s">
-        <v>326</v>
-      </c>
-      <c r="G765" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="766" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E766" t="s">
         <v>10</v>
       </c>
       <c r="F766" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G766">
         <v>45617</v>
@@ -20140,13 +20141,13 @@
     </row>
     <row r="767" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E767" t="s">
         <v>10</v>
       </c>
       <c r="F767" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G767" s="1">
         <v>45975</v>
@@ -20154,13 +20155,13 @@
     </row>
     <row r="768" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E768" t="s">
         <v>26</v>
       </c>
       <c r="F768" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G768" s="1">
         <v>45975</v>
@@ -20168,13 +20169,13 @@
     </row>
     <row r="769" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
+        <v>386</v>
+      </c>
+      <c r="E769" t="s">
+        <v>10</v>
+      </c>
+      <c r="F769" t="s">
         <v>387</v>
-      </c>
-      <c r="E769" t="s">
-        <v>10</v>
-      </c>
-      <c r="F769" t="s">
-        <v>388</v>
       </c>
       <c r="G769">
         <v>46253</v>
@@ -20182,13 +20183,13 @@
     </row>
     <row r="770" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E770" t="s">
         <v>16</v>
       </c>
       <c r="F770" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G770">
         <v>46253</v>
@@ -20196,13 +20197,13 @@
     </row>
     <row r="771" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E771" t="s">
         <v>26</v>
       </c>
       <c r="F771" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G771">
         <v>46253</v>
@@ -20210,13 +20211,13 @@
     </row>
     <row r="772" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E772" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F772" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G772" s="1">
         <v>45968</v>
@@ -20224,13 +20225,13 @@
     </row>
     <row r="773" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E773" t="s">
         <v>10</v>
       </c>
       <c r="F773" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G773" s="1">
         <v>45894</v>
@@ -20238,13 +20239,13 @@
     </row>
     <row r="774" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E774" t="s">
         <v>16</v>
       </c>
       <c r="F774" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G774" s="1">
         <v>45894</v>
@@ -20252,13 +20253,13 @@
     </row>
     <row r="775" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E775" t="s">
         <v>26</v>
       </c>
       <c r="F775" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G775" s="1">
         <v>45894</v>
@@ -20266,13 +20267,13 @@
     </row>
     <row r="776" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E776" t="s">
         <v>10</v>
       </c>
       <c r="F776" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G776">
         <v>45887</v>
@@ -20280,13 +20281,13 @@
     </row>
     <row r="777" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E777" t="s">
         <v>10</v>
       </c>
       <c r="F777" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G777">
         <v>45909</v>
@@ -20294,18 +20295,18 @@
     </row>
     <row r="778" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="779" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E779" t="s">
         <v>10</v>
       </c>
       <c r="F779" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G779">
         <v>45912</v>
@@ -20313,18 +20314,18 @@
     </row>
     <row r="780" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="781" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E781" t="s">
         <v>16</v>
       </c>
       <c r="F781" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G781">
         <v>45911</v>
@@ -20332,18 +20333,18 @@
     </row>
     <row r="782" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="783" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E783" t="s">
         <v>26</v>
       </c>
       <c r="F783" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G783">
         <v>45911</v>
@@ -20351,7 +20352,7 @@
     </row>
     <row r="784" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B784" t="s">
         <v>24</v>
@@ -20374,7 +20375,7 @@
     </row>
     <row r="785" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B785" t="s">
         <v>24</v>
@@ -20397,13 +20398,13 @@
     </row>
     <row r="786" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
+        <v>395</v>
+      </c>
+      <c r="E786" t="s">
+        <v>10</v>
+      </c>
+      <c r="F786" t="s">
         <v>396</v>
-      </c>
-      <c r="E786" t="s">
-        <v>10</v>
-      </c>
-      <c r="F786" t="s">
-        <v>397</v>
       </c>
       <c r="G786" s="1">
         <v>44909</v>
@@ -20411,7 +20412,7 @@
     </row>
     <row r="787" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B787" t="s">
         <v>44</v>
@@ -20434,7 +20435,7 @@
     </row>
     <row r="788" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B788" t="s">
         <v>8</v>
@@ -20457,27 +20458,27 @@
     </row>
     <row r="789" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
+        <v>399</v>
+      </c>
+      <c r="E789" t="s">
+        <v>10</v>
+      </c>
+      <c r="F789" t="s">
+        <v>325</v>
+      </c>
+      <c r="G789" t="s">
         <v>400</v>
-      </c>
-      <c r="E789" t="s">
-        <v>10</v>
-      </c>
-      <c r="F789" t="s">
-        <v>326</v>
-      </c>
-      <c r="G789" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="790" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E790" t="s">
         <v>10</v>
       </c>
       <c r="F790" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G790">
         <v>45912</v>
@@ -20485,13 +20486,13 @@
     </row>
     <row r="791" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E791" t="s">
         <v>16</v>
       </c>
       <c r="F791" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G791">
         <v>45912</v>
@@ -20499,13 +20500,13 @@
     </row>
     <row r="792" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E792" t="s">
         <v>26</v>
       </c>
       <c r="F792" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G792">
         <v>45912</v>
@@ -20513,7 +20514,7 @@
     </row>
     <row r="793" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B793" t="s">
         <v>24</v>
@@ -20536,13 +20537,13 @@
     </row>
     <row r="794" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
+        <v>403</v>
+      </c>
+      <c r="E794" t="s">
+        <v>10</v>
+      </c>
+      <c r="F794" t="s">
         <v>404</v>
-      </c>
-      <c r="E794" t="s">
-        <v>10</v>
-      </c>
-      <c r="F794" t="s">
-        <v>405</v>
       </c>
       <c r="G794">
         <v>45993</v>
@@ -20550,13 +20551,13 @@
     </row>
     <row r="795" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E795" t="s">
         <v>16</v>
       </c>
       <c r="F795" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G795">
         <v>45993</v>
@@ -20564,13 +20565,13 @@
     </row>
     <row r="796" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E796" t="s">
         <v>26</v>
       </c>
       <c r="F796" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G796">
         <v>45995</v>
@@ -20578,13 +20579,13 @@
     </row>
     <row r="797" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E797" t="s">
         <v>10</v>
       </c>
       <c r="F797" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G797" s="1">
         <v>46033</v>
@@ -20592,13 +20593,13 @@
     </row>
     <row r="798" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E798" t="s">
         <v>16</v>
       </c>
       <c r="F798" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G798" s="1">
         <v>46032</v>
@@ -20606,13 +20607,13 @@
     </row>
     <row r="799" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E799" t="s">
         <v>26</v>
       </c>
       <c r="F799" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G799" s="1">
         <v>46032</v>
@@ -20620,13 +20621,13 @@
     </row>
     <row r="800" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E800" t="s">
         <v>88</v>
       </c>
       <c r="F800" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G800" s="1">
         <v>45570</v>
@@ -20634,13 +20635,13 @@
     </row>
     <row r="801" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E801" t="s">
         <v>88</v>
       </c>
       <c r="F801" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G801" s="1">
         <v>46913</v>
@@ -20648,7 +20649,7 @@
     </row>
     <row r="802" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A802" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D802" t="s">
         <v>9</v>
@@ -20657,7 +20658,7 @@
         <v>88</v>
       </c>
       <c r="F802" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G802" s="1">
         <v>46431</v>
@@ -20665,13 +20666,13 @@
     </row>
     <row r="803" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E803" t="s">
         <v>88</v>
       </c>
       <c r="F803" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G803" s="1">
         <v>45549</v>
@@ -20679,13 +20680,13 @@
     </row>
     <row r="804" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E804" t="s">
         <v>88</v>
       </c>
       <c r="F804" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G804" s="1">
         <v>46931</v>
@@ -20693,13 +20694,13 @@
     </row>
     <row r="805" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A805" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E805" t="s">
         <v>10</v>
       </c>
       <c r="F805" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G805" s="1">
         <v>45888</v>
@@ -20707,7 +20708,7 @@
     </row>
     <row r="806" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A806" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B806" t="s">
         <v>83</v>
@@ -20730,7 +20731,7 @@
     </row>
     <row r="807" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B807" t="s">
         <v>24</v>
@@ -20753,7 +20754,7 @@
     </row>
     <row r="808" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A808" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B808" t="s">
         <v>24</v>
@@ -20776,7 +20777,7 @@
     </row>
     <row r="809" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A809" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B809" t="s">
         <v>24</v>
@@ -20799,7 +20800,7 @@
     </row>
     <row r="810" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A810" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B810" t="s">
         <v>24</v>
@@ -20822,7 +20823,7 @@
     </row>
     <row r="811" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B811" t="s">
         <v>28</v>
@@ -20848,7 +20849,7 @@
         <v>10</v>
       </c>
       <c r="F812" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G812" s="1">
         <v>46542</v>
@@ -20856,13 +20857,13 @@
     </row>
     <row r="813" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A813" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E813" t="s">
         <v>10</v>
       </c>
       <c r="F813" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G813" s="1">
         <v>46083</v>
@@ -20870,13 +20871,13 @@
     </row>
     <row r="814" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A814" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E814" t="s">
         <v>10</v>
       </c>
       <c r="F814" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G814" s="1">
         <v>46258</v>
@@ -20884,13 +20885,13 @@
     </row>
     <row r="815" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A815" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E815" t="s">
         <v>16</v>
       </c>
       <c r="F815" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G815" s="1">
         <v>46276</v>
@@ -20898,13 +20899,13 @@
     </row>
     <row r="816" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A816" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E816" t="s">
         <v>26</v>
       </c>
       <c r="F816" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G816" s="1">
         <v>46195</v>
@@ -20915,7 +20916,7 @@
         <v>26</v>
       </c>
       <c r="F817" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G817" s="1">
         <v>46414</v>
@@ -20926,7 +20927,7 @@
         <v>10</v>
       </c>
       <c r="F818" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G818" s="1">
         <v>46356</v>
@@ -20940,7 +20941,7 @@
         <v>10</v>
       </c>
       <c r="F819" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G819" s="1">
         <v>46660</v>
@@ -20954,7 +20955,7 @@
         <v>16</v>
       </c>
       <c r="F820" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G820" s="1">
         <v>46660</v>
@@ -20968,7 +20969,7 @@
         <v>26</v>
       </c>
       <c r="F821" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G821" s="1">
         <v>46660</v>
@@ -20976,16 +20977,16 @@
     </row>
     <row r="822" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A822" t="s">
+        <v>416</v>
+      </c>
+      <c r="B822" t="s">
         <v>417</v>
       </c>
-      <c r="B822" t="s">
+      <c r="E822" t="s">
         <v>418</v>
       </c>
-      <c r="E822" t="s">
-        <v>419</v>
-      </c>
       <c r="F822" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G822" s="1">
         <v>46901</v>
@@ -20993,16 +20994,16 @@
     </row>
     <row r="823" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A823" t="s">
+        <v>416</v>
+      </c>
+      <c r="B823" t="s">
         <v>417</v>
       </c>
-      <c r="B823" t="s">
+      <c r="E823" t="s">
         <v>418</v>
       </c>
-      <c r="E823" t="s">
-        <v>419</v>
-      </c>
       <c r="F823" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G823" s="1">
         <v>46901</v>
@@ -21010,7 +21011,7 @@
     </row>
     <row r="824" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A824" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B824" t="s">
         <v>8</v>
@@ -21033,7 +21034,7 @@
     </row>
     <row r="825" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A825" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B825" t="s">
         <v>24</v>
@@ -21056,7 +21057,7 @@
     </row>
     <row r="826" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A826" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B826" t="s">
         <v>24</v>
@@ -21079,7 +21080,7 @@
     </row>
     <row r="827" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A827" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B827" t="s">
         <v>24</v>
@@ -21102,7 +21103,7 @@
     </row>
     <row r="828" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A828" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B828" t="s">
         <v>24</v>
@@ -21125,13 +21126,13 @@
     </row>
     <row r="829" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A829" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E829" t="s">
         <v>16</v>
       </c>
       <c r="F829" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G829">
         <v>46004</v>
@@ -21139,13 +21140,13 @@
     </row>
     <row r="830" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A830" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E830" t="s">
         <v>26</v>
       </c>
       <c r="F830" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G830">
         <v>46004</v>
@@ -21153,7 +21154,7 @@
     </row>
     <row r="831" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A831" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B831" t="s">
         <v>8</v>
@@ -21176,7 +21177,7 @@
     </row>
     <row r="832" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A832" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B832" t="s">
         <v>8</v>
@@ -21199,7 +21200,7 @@
     </row>
     <row r="833" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A833" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B833" t="s">
         <v>8</v>
@@ -21222,7 +21223,7 @@
     </row>
     <row r="834" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A834" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B834" t="s">
         <v>8</v>
@@ -21245,7 +21246,7 @@
     </row>
     <row r="835" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A835" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B835" t="s">
         <v>8</v>
@@ -21268,7 +21269,7 @@
     </row>
     <row r="836" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A836" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B836" t="s">
         <v>24</v>
@@ -21291,7 +21292,7 @@
     </row>
     <row r="837" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A837" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B837" t="s">
         <v>24</v>
@@ -21314,7 +21315,7 @@
     </row>
     <row r="838" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A838" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B838" t="s">
         <v>24</v>
@@ -21326,7 +21327,7 @@
         <v>9</v>
       </c>
       <c r="E838" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F838" t="s">
         <v>11</v>
@@ -21337,13 +21338,13 @@
     </row>
     <row r="839" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A839" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E839" t="s">
         <v>10</v>
       </c>
       <c r="F839" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G839" t="e">
         <v>#REF!</v>
@@ -21351,7 +21352,7 @@
     </row>
     <row r="840" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A840" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B840" t="s">
         <v>24</v>
@@ -21374,7 +21375,7 @@
     </row>
     <row r="841" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A841" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B841" t="s">
         <v>24</v>
@@ -21397,7 +21398,7 @@
     </row>
     <row r="842" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A842" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B842" t="s">
         <v>24</v>
@@ -21420,7 +21421,7 @@
     </row>
     <row r="843" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A843" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B843" t="s">
         <v>24</v>
@@ -21443,7 +21444,7 @@
     </row>
     <row r="844" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A844" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C844">
         <v>700010977</v>
@@ -21463,7 +21464,7 @@
     </row>
     <row r="845" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A845" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B845" t="s">
         <v>24</v>
@@ -21486,7 +21487,7 @@
     </row>
     <row r="846" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A846" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B846" t="s">
         <v>24</v>
@@ -21509,7 +21510,7 @@
     </row>
     <row r="847" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A847" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B847" t="s">
         <v>24</v>
@@ -21532,10 +21533,10 @@
     </row>
     <row r="848" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A848" t="s">
+        <v>431</v>
+      </c>
+      <c r="B848" t="s">
         <v>432</v>
-      </c>
-      <c r="B848" t="s">
-        <v>433</v>
       </c>
       <c r="C848">
         <v>3904014891</v>
@@ -21558,7 +21559,7 @@
         <v>10</v>
       </c>
       <c r="F849" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G849" s="1">
         <v>46108</v>
@@ -21569,7 +21570,7 @@
         <v>16</v>
       </c>
       <c r="F850" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G850" s="1">
         <v>45011</v>
@@ -21577,7 +21578,7 @@
     </row>
     <row r="851" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A851" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B851" t="s">
         <v>83</v>
@@ -21600,13 +21601,13 @@
     </row>
     <row r="852" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A852" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E852" t="s">
         <v>10</v>
       </c>
       <c r="F852" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G852" s="1">
         <v>46116</v>
@@ -21614,13 +21615,13 @@
     </row>
     <row r="853" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A853" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E853" t="s">
         <v>10</v>
       </c>
       <c r="F853" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G853" s="1">
         <v>46109</v>
@@ -21628,7 +21629,7 @@
     </row>
     <row r="854" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A854" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B854" t="s">
         <v>24</v>
@@ -21651,7 +21652,7 @@
     </row>
     <row r="855" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A855" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B855" t="s">
         <v>44</v>
@@ -21674,7 +21675,7 @@
     </row>
     <row r="856" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A856" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B856" t="s">
         <v>44</v>
@@ -21697,7 +21698,7 @@
     </row>
     <row r="857" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A857" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B857" t="s">
         <v>44</v>
@@ -21720,16 +21721,16 @@
     </row>
     <row r="858" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A858" t="s">
+        <v>438</v>
+      </c>
+      <c r="D858" t="s">
+        <v>9</v>
+      </c>
+      <c r="E858" t="s">
         <v>439</v>
       </c>
-      <c r="D858" t="s">
-        <v>9</v>
-      </c>
-      <c r="E858" t="s">
-        <v>440</v>
-      </c>
       <c r="F858" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G858" s="1">
         <v>46177</v>
@@ -21737,7 +21738,7 @@
     </row>
     <row r="859" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A859" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B859" t="s">
         <v>8</v>
@@ -21760,7 +21761,7 @@
     </row>
     <row r="860" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A860" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B860" t="s">
         <v>8</v>
@@ -21783,7 +21784,7 @@
     </row>
     <row r="861" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A861" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B861" t="s">
         <v>8</v>
@@ -21806,7 +21807,7 @@
     </row>
     <row r="862" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A862" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B862" t="s">
         <v>8</v>
@@ -21829,13 +21830,13 @@
     </row>
     <row r="863" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A863" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E863" t="s">
         <v>10</v>
       </c>
       <c r="F863" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G863" s="1">
         <v>46153</v>
@@ -21843,13 +21844,13 @@
     </row>
     <row r="864" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A864" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E864" t="s">
         <v>68</v>
       </c>
       <c r="F864" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G864" s="1">
         <v>45960</v>
@@ -21857,7 +21858,7 @@
     </row>
     <row r="865" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A865" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B865" t="s">
         <v>83</v>
@@ -21880,7 +21881,7 @@
     </row>
     <row r="866" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A866" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B866" t="s">
         <v>83</v>
@@ -21903,7 +21904,7 @@
     </row>
     <row r="867" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A867" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B867" t="s">
         <v>24</v>
@@ -21926,7 +21927,7 @@
     </row>
     <row r="868" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A868" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B868" t="s">
         <v>24</v>
@@ -21949,7 +21950,7 @@
     </row>
     <row r="869" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A869" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B869" t="s">
         <v>24</v>
@@ -21966,7 +21967,7 @@
     </row>
     <row r="870" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A870" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B870" t="s">
         <v>24</v>
@@ -21989,7 +21990,7 @@
     </row>
     <row r="871" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A871" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B871" t="s">
         <v>24</v>
@@ -22001,7 +22002,7 @@
         <v>14</v>
       </c>
       <c r="E871" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F871" t="s">
         <v>11</v>
@@ -22012,13 +22013,13 @@
     </row>
     <row r="872" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A872" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E872" t="s">
         <v>10</v>
       </c>
       <c r="F872" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G872" s="1">
         <v>46156</v>
@@ -22026,13 +22027,13 @@
     </row>
     <row r="873" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A873" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E873" t="s">
         <v>16</v>
       </c>
       <c r="F873" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G873" s="1">
         <v>46156</v>
@@ -22040,13 +22041,13 @@
     </row>
     <row r="874" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A874" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E874" t="s">
         <v>26</v>
       </c>
       <c r="F874" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G874" s="1">
         <v>46156</v>
@@ -22054,7 +22055,7 @@
     </row>
     <row r="875" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A875" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B875" t="s">
         <v>24</v>
@@ -22077,7 +22078,7 @@
     </row>
     <row r="876" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A876" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B876" t="s">
         <v>24</v>
@@ -22100,7 +22101,7 @@
     </row>
     <row r="877" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A877" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B877" t="s">
         <v>24</v>
@@ -22123,10 +22124,10 @@
     </row>
     <row r="878" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A878" t="s">
+        <v>448</v>
+      </c>
+      <c r="B878" t="s">
         <v>449</v>
-      </c>
-      <c r="B878" t="s">
-        <v>450</v>
       </c>
       <c r="C878">
         <v>101498057</v>
@@ -22146,12 +22147,12 @@
     </row>
     <row r="879" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A879" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="880" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A880" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B880" t="s">
         <v>24</v>
@@ -22163,7 +22164,7 @@
         <v>9</v>
       </c>
       <c r="E880" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F880" t="s">
         <v>11</v>
@@ -22174,7 +22175,7 @@
     </row>
     <row r="881" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A881" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B881" t="s">
         <v>24</v>
@@ -22186,7 +22187,7 @@
         <v>9</v>
       </c>
       <c r="E881" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F881" t="s">
         <v>11</v>
@@ -22197,7 +22198,7 @@
     </row>
     <row r="882" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A882" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B882" t="s">
         <v>8</v>
@@ -22220,7 +22221,7 @@
     </row>
     <row r="883" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A883" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B883" t="s">
         <v>24</v>
@@ -22243,7 +22244,7 @@
     </row>
     <row r="884" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A884" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B884" t="s">
         <v>8</v>
@@ -22266,7 +22267,7 @@
     </row>
     <row r="885" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A885" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B885" t="s">
         <v>8</v>
@@ -22289,7 +22290,7 @@
     </row>
     <row r="886" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A886" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B886" t="s">
         <v>24</v>
@@ -22312,7 +22313,7 @@
     </row>
     <row r="887" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A887" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B887" t="s">
         <v>24</v>
@@ -22335,7 +22336,7 @@
     </row>
     <row r="888" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A888" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B888" t="s">
         <v>24</v>
@@ -22361,7 +22362,7 @@
         <v>10</v>
       </c>
       <c r="F889" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G889" t="e">
         <v>#REF!</v>
@@ -22372,7 +22373,7 @@
         <v>16</v>
       </c>
       <c r="F890" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G890" t="e">
         <v>#REF!</v>
@@ -22383,7 +22384,7 @@
         <v>26</v>
       </c>
       <c r="F891" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G891" t="e">
         <v>#REF!</v>
@@ -22394,7 +22395,7 @@
         <v>10</v>
       </c>
       <c r="F892" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G892" t="e">
         <v>#REF!</v>
@@ -22405,7 +22406,7 @@
         <v>16</v>
       </c>
       <c r="F893" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G893" t="e">
         <v>#REF!</v>
@@ -22416,7 +22417,7 @@
         <v>26</v>
       </c>
       <c r="F894" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G894" t="e">
         <v>#REF!</v>
@@ -22427,7 +22428,7 @@
         <v>10</v>
       </c>
       <c r="F895" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G895" t="e">
         <v>#REF!</v>
@@ -22438,7 +22439,7 @@
         <v>16</v>
       </c>
       <c r="F896" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G896" t="e">
         <v>#REF!</v>
@@ -22449,7 +22450,7 @@
         <v>26</v>
       </c>
       <c r="F897" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G897" t="e">
         <v>#REF!</v>
@@ -22460,7 +22461,7 @@
         <v>10</v>
       </c>
       <c r="F898" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G898" t="e">
         <v>#REF!</v>
@@ -22471,7 +22472,7 @@
         <v>16</v>
       </c>
       <c r="F899" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G899" t="e">
         <v>#REF!</v>
@@ -22482,7 +22483,7 @@
         <v>26</v>
       </c>
       <c r="F900" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G900" t="e">
         <v>#REF!</v>
@@ -22490,10 +22491,10 @@
     </row>
     <row r="901" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A901" t="s">
+        <v>460</v>
+      </c>
+      <c r="B901" t="s">
         <v>461</v>
-      </c>
-      <c r="B901" t="s">
-        <v>462</v>
       </c>
       <c r="C901">
         <v>7809022120</v>
@@ -22513,10 +22514,10 @@
     </row>
     <row r="902" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A902" t="s">
+        <v>460</v>
+      </c>
+      <c r="B902" t="s">
         <v>461</v>
-      </c>
-      <c r="B902" t="s">
-        <v>462</v>
       </c>
       <c r="C902">
         <v>7809022120</v>
@@ -22539,7 +22540,7 @@
         <v>10</v>
       </c>
       <c r="F903" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G903" t="e">
         <v>#REF!</v>
@@ -22550,7 +22551,7 @@
         <v>16</v>
       </c>
       <c r="F904" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G904" t="e">
         <v>#REF!</v>
@@ -22561,7 +22562,7 @@
         <v>26</v>
       </c>
       <c r="F905" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G905" t="e">
         <v>#REF!</v>
@@ -22569,13 +22570,13 @@
     </row>
     <row r="906" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A906" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E906" t="s">
         <v>10</v>
       </c>
       <c r="F906" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G906" s="1">
         <v>46095</v>
@@ -22583,7 +22584,7 @@
     </row>
     <row r="907" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A907" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B907" t="s">
         <v>8</v>
@@ -22609,7 +22610,7 @@
         <v>10</v>
       </c>
       <c r="F908" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G908" t="e">
         <v>#REF!</v>
@@ -22617,7 +22618,7 @@
     </row>
     <row r="909" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A909" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B909" t="s">
         <v>24</v>
@@ -22640,7 +22641,7 @@
     </row>
     <row r="910" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A910" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B910" t="s">
         <v>24</v>
@@ -22652,7 +22653,7 @@
         <v>59</v>
       </c>
       <c r="E910" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F910" t="s">
         <v>11</v>
@@ -22663,7 +22664,7 @@
     </row>
     <row r="911" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A911" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B911" t="s">
         <v>24</v>
@@ -22675,7 +22676,7 @@
         <v>59</v>
       </c>
       <c r="E911" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F911" t="s">
         <v>11</v>
@@ -22686,7 +22687,7 @@
     </row>
     <row r="912" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A912" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B912" t="s">
         <v>24</v>
@@ -22709,7 +22710,7 @@
     </row>
     <row r="913" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A913" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B913" t="s">
         <v>24</v>
@@ -22732,13 +22733,13 @@
     </row>
     <row r="914" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A914" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E914" t="s">
         <v>10</v>
       </c>
       <c r="F914" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G914" s="1">
         <v>46206</v>
@@ -22746,7 +22747,7 @@
     </row>
     <row r="915" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A915" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D915" t="s">
         <v>9</v>
@@ -22755,7 +22756,7 @@
         <v>52</v>
       </c>
       <c r="F915" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G915" s="1">
         <v>46171</v>
@@ -22763,13 +22764,13 @@
     </row>
     <row r="916" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A916" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E916" t="s">
         <v>88</v>
       </c>
       <c r="F916" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G916" s="1">
         <v>45568</v>
@@ -22777,24 +22778,24 @@
     </row>
     <row r="917" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A917" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E917" t="s">
         <v>88</v>
       </c>
       <c r="F917" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="918" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A918" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E918" t="s">
         <v>68</v>
       </c>
       <c r="F918" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G918" s="1">
         <v>45960</v>
@@ -22802,13 +22803,13 @@
     </row>
     <row r="919" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A919" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E919" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F919" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G919" s="1">
         <v>46206</v>
@@ -22816,13 +22817,13 @@
     </row>
     <row r="920" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A920" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E920" t="s">
         <v>10</v>
       </c>
       <c r="F920" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G920" s="1">
         <v>46213</v>
@@ -22830,7 +22831,7 @@
     </row>
     <row r="921" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A921" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B921" t="s">
         <v>24</v>
@@ -22853,7 +22854,7 @@
     </row>
     <row r="922" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A922" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B922" t="s">
         <v>24</v>
@@ -22876,7 +22877,7 @@
     </row>
     <row r="923" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A923" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B923" t="s">
         <v>8</v>
@@ -22899,7 +22900,7 @@
     </row>
     <row r="924" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A924" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B924" t="s">
         <v>8</v>
@@ -22922,7 +22923,7 @@
     </row>
     <row r="925" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A925" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B925" t="s">
         <v>8</v>
@@ -22945,7 +22946,7 @@
     </row>
     <row r="926" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A926" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B926" t="s">
         <v>8</v>
@@ -22968,7 +22969,7 @@
     </row>
     <row r="927" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A927" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B927" t="s">
         <v>8</v>
@@ -22991,13 +22992,13 @@
     </row>
     <row r="928" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A928" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E928" t="s">
         <v>10</v>
       </c>
       <c r="F928" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G928" s="1">
         <v>46321</v>
@@ -23005,13 +23006,13 @@
     </row>
     <row r="929" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A929" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E929" t="s">
         <v>16</v>
       </c>
       <c r="F929" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G929" s="1">
         <v>46373</v>
@@ -23019,13 +23020,13 @@
     </row>
     <row r="930" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A930" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E930" t="s">
         <v>26</v>
       </c>
       <c r="F930" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G930" s="1">
         <v>46017</v>
@@ -23033,13 +23034,13 @@
     </row>
     <row r="931" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A931" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E931" t="s">
         <v>50</v>
       </c>
       <c r="F931" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G931" s="1">
         <v>45515</v>
@@ -23047,13 +23048,13 @@
     </row>
     <row r="932" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A932" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E932" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F932" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G932" s="1">
         <v>46241</v>
@@ -23061,7 +23062,7 @@
     </row>
     <row r="933" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A933" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B933" t="s">
         <v>8</v>
@@ -23087,7 +23088,7 @@
         <v>10</v>
       </c>
       <c r="F934" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G934" t="e">
         <v>#REF!</v>
@@ -23098,7 +23099,7 @@
         <v>16</v>
       </c>
       <c r="F935" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G935" t="e">
         <v>#REF!</v>
@@ -23109,7 +23110,7 @@
         <v>26</v>
       </c>
       <c r="F936" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G936" t="e">
         <v>#REF!</v>
@@ -23117,7 +23118,7 @@
     </row>
     <row r="937" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A937" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B937" t="s">
         <v>24</v>
@@ -23143,7 +23144,7 @@
         <v>10</v>
       </c>
       <c r="F938" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G938" t="e">
         <v>#REF!</v>
@@ -23151,7 +23152,7 @@
     </row>
     <row r="939" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A939" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B939" t="s">
         <v>24</v>
@@ -23174,7 +23175,7 @@
     </row>
     <row r="940" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A940" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B940" t="s">
         <v>24</v>
@@ -23197,7 +23198,7 @@
     </row>
     <row r="941" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A941" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B941" t="s">
         <v>24</v>
@@ -23220,7 +23221,7 @@
     </row>
     <row r="942" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A942" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B942" t="s">
         <v>24</v>
@@ -23243,7 +23244,7 @@
     </row>
     <row r="943" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A943" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B943" t="s">
         <v>24</v>
@@ -23266,7 +23267,7 @@
     </row>
     <row r="944" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A944" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B944" t="s">
         <v>24</v>
@@ -23292,7 +23293,7 @@
         <v>10</v>
       </c>
       <c r="F945" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G945" t="e">
         <v>#REF!</v>
@@ -23303,7 +23304,7 @@
         <v>10</v>
       </c>
       <c r="F946" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G946" s="1">
         <v>45090</v>
@@ -23314,7 +23315,7 @@
         <v>10</v>
       </c>
       <c r="F947" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G947" s="1">
         <v>46206</v>
@@ -23322,7 +23323,7 @@
     </row>
     <row r="948" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A948" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B948" t="s">
         <v>24</v>
@@ -23345,7 +23346,7 @@
     </row>
     <row r="949" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A949" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B949" t="s">
         <v>24</v>
@@ -23368,7 +23369,7 @@
     </row>
     <row r="950" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A950" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B950" t="s">
         <v>24</v>
@@ -23391,7 +23392,7 @@
     </row>
     <row r="951" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A951" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B951" t="s">
         <v>24</v>
@@ -23414,7 +23415,7 @@
     </row>
     <row r="952" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A952" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B952" t="s">
         <v>24</v>
@@ -23437,7 +23438,7 @@
     </row>
     <row r="953" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A953" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B953" t="s">
         <v>24</v>
@@ -23460,7 +23461,7 @@
     </row>
     <row r="954" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A954" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B954" t="s">
         <v>24</v>
@@ -23483,7 +23484,7 @@
     </row>
     <row r="955" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A955" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B955" t="s">
         <v>24</v>
@@ -23506,15 +23507,15 @@
     </row>
     <row r="956" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A956" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="958" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A958" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B958" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C958">
         <v>7729050901</v>
@@ -23534,7 +23535,7 @@
     </row>
     <row r="959" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A959" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B959" t="s">
         <v>24</v>
@@ -23557,7 +23558,7 @@
     </row>
     <row r="960" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A960" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B960" t="s">
         <v>24</v>
@@ -23580,7 +23581,7 @@
     </row>
     <row r="961" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A961" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B961" t="s">
         <v>24</v>
@@ -23592,7 +23593,7 @@
         <v>9</v>
       </c>
       <c r="E961" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F961" t="s">
         <v>11</v>
@@ -23603,13 +23604,13 @@
     </row>
     <row r="962" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A962" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E962" t="s">
         <v>10</v>
       </c>
       <c r="F962" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G962" s="1">
         <v>46270</v>
@@ -23617,13 +23618,13 @@
     </row>
     <row r="963" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A963" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E963" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F963" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G963" s="1">
         <v>46301</v>
@@ -23631,13 +23632,13 @@
     </row>
     <row r="964" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A964" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E964" t="s">
         <v>68</v>
       </c>
       <c r="F964" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G964" s="1">
         <v>45960</v>
@@ -23645,13 +23646,13 @@
     </row>
     <row r="965" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A965" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E965" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F965" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G965" s="1">
         <v>46418</v>
@@ -23659,13 +23660,13 @@
     </row>
     <row r="966" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A966" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E966" t="s">
         <v>10</v>
       </c>
       <c r="F966" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G966" s="1">
         <v>46603</v>
@@ -23673,13 +23674,13 @@
     </row>
     <row r="967" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A967" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E967" t="s">
         <v>16</v>
       </c>
       <c r="F967" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G967" s="1">
         <v>46603</v>
@@ -23687,13 +23688,13 @@
     </row>
     <row r="968" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A968" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E968" t="s">
         <v>26</v>
       </c>
       <c r="F968" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G968" s="1">
         <v>46603</v>
@@ -23701,7 +23702,7 @@
     </row>
     <row r="969" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A969" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B969" t="s">
         <v>24</v>
@@ -23724,7 +23725,7 @@
     </row>
     <row r="970" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A970" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B970" t="s">
         <v>24</v>
@@ -23747,7 +23748,7 @@
     </row>
     <row r="971" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A971" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B971" t="s">
         <v>24</v>
@@ -23770,7 +23771,7 @@
     </row>
     <row r="972" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A972" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B972" t="s">
         <v>24</v>
@@ -23793,13 +23794,13 @@
     </row>
     <row r="973" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A973" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E973" t="s">
         <v>10</v>
       </c>
       <c r="F973" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G973" s="1">
         <v>46277</v>
@@ -23807,13 +23808,13 @@
     </row>
     <row r="974" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A974" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E974" t="s">
         <v>10</v>
       </c>
       <c r="F974" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G974" s="1">
         <v>46297</v>
@@ -23821,7 +23822,7 @@
     </row>
     <row r="975" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A975" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B975" t="s">
         <v>24</v>
@@ -23844,7 +23845,7 @@
     </row>
     <row r="976" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A976" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B976" t="s">
         <v>24</v>
@@ -23867,7 +23868,7 @@
     </row>
     <row r="977" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A977" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B977" t="s">
         <v>24</v>
@@ -23890,7 +23891,7 @@
     </row>
     <row r="978" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A978" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B978" t="s">
         <v>24</v>
@@ -23913,7 +23914,7 @@
     </row>
     <row r="979" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A979" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B979" t="s">
         <v>24</v>
@@ -23936,13 +23937,13 @@
     </row>
     <row r="980" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A980" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E980" t="s">
         <v>52</v>
       </c>
       <c r="F980" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G980" t="e">
         <v>#REF!</v>
@@ -23950,7 +23951,7 @@
     </row>
     <row r="981" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A981" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B981" t="s">
         <v>8</v>
@@ -23973,7 +23974,7 @@
     </row>
     <row r="982" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A982" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B982" t="s">
         <v>8</v>
@@ -23996,7 +23997,7 @@
     </row>
     <row r="983" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A983" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B983" t="s">
         <v>8</v>
@@ -24019,7 +24020,7 @@
     </row>
     <row r="984" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A984" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B984" t="s">
         <v>24</v>
@@ -24042,7 +24043,7 @@
     </row>
     <row r="985" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A985" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D985" t="s">
         <v>9</v>
@@ -24051,7 +24052,7 @@
         <v>10</v>
       </c>
       <c r="F985" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G985" s="1">
         <v>46651</v>
@@ -24059,7 +24060,7 @@
     </row>
     <row r="986" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A986" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D986" t="s">
         <v>9</v>
@@ -24068,7 +24069,7 @@
         <v>16</v>
       </c>
       <c r="F986" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G986" s="1">
         <v>46265</v>
@@ -24076,7 +24077,7 @@
     </row>
     <row r="987" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A987" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D987" t="s">
         <v>9</v>
@@ -24085,7 +24086,7 @@
         <v>50</v>
       </c>
       <c r="F987" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G987" s="1">
         <v>46768</v>
@@ -24093,7 +24094,7 @@
     </row>
     <row r="988" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A988" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B988" t="s">
         <v>24</v>
@@ -24116,13 +24117,13 @@
     </row>
     <row r="989" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A989" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E989" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F989" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G989" s="1">
         <v>46345</v>
@@ -24130,13 +24131,13 @@
     </row>
     <row r="990" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A990" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E990" t="s">
         <v>10</v>
       </c>
       <c r="F990" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G990" s="1">
         <v>46358</v>
@@ -24144,13 +24145,13 @@
     </row>
     <row r="991" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A991" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E991" t="s">
         <v>16</v>
       </c>
       <c r="F991" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G991" s="1">
         <v>46345</v>
@@ -24158,13 +24159,13 @@
     </row>
     <row r="992" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A992" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E992" t="s">
         <v>26</v>
       </c>
       <c r="F992" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G992" s="1">
         <v>46380</v>
@@ -24172,7 +24173,7 @@
     </row>
     <row r="993" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A993" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B993" t="s">
         <v>24</v>
@@ -24195,7 +24196,7 @@
     </row>
     <row r="994" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A994" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B994" t="s">
         <v>24</v>
@@ -24218,7 +24219,7 @@
     </row>
     <row r="995" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A995" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B995" t="s">
         <v>24</v>
@@ -24241,7 +24242,7 @@
     </row>
     <row r="996" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A996" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B996" t="s">
         <v>8</v>
@@ -24264,7 +24265,7 @@
     </row>
     <row r="997" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A997" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B997" t="s">
         <v>24</v>
@@ -24287,7 +24288,7 @@
     </row>
     <row r="998" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A998" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B998" t="s">
         <v>24</v>
@@ -24310,7 +24311,7 @@
     </row>
     <row r="999" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A999" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B999" t="s">
         <v>24</v>
@@ -24333,7 +24334,7 @@
     </row>
     <row r="1000" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1000" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B1000" t="s">
         <v>24</v>
@@ -24356,7 +24357,7 @@
     </row>
     <row r="1001" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1001" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B1001" t="s">
         <v>24</v>
@@ -24379,7 +24380,7 @@
     </row>
     <row r="1002" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1002" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B1002" t="s">
         <v>24</v>
@@ -24402,13 +24403,13 @@
     </row>
     <row r="1003" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1003" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E1003" t="s">
         <v>10</v>
       </c>
       <c r="F1003" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G1003" s="1">
         <v>46320</v>
@@ -24416,7 +24417,7 @@
     </row>
     <row r="1004" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1004" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B1004" t="s">
         <v>24</v>
@@ -24439,7 +24440,7 @@
     </row>
     <row r="1005" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1005" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B1005" t="s">
         <v>28</v>
@@ -24462,13 +24463,13 @@
     </row>
     <row r="1006" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1006" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E1006" t="s">
         <v>10</v>
       </c>
       <c r="F1006" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G1006" s="1">
         <v>46318</v>
@@ -24476,13 +24477,13 @@
     </row>
     <row r="1007" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1007" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E1007" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F1007" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G1007" s="1">
         <v>46348</v>
@@ -24512,7 +24513,7 @@
     </row>
     <row r="1010" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1010" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B1010" t="s">
         <v>24</v>
@@ -24535,7 +24536,7 @@
     </row>
     <row r="1011" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1011" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B1011" t="s">
         <v>24</v>
@@ -24558,7 +24559,7 @@
     </row>
     <row r="1012" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1012" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B1012" t="s">
         <v>24</v>
@@ -24581,7 +24582,7 @@
     </row>
     <row r="1013" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1013" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B1013" t="s">
         <v>24</v>
@@ -24604,7 +24605,7 @@
     </row>
     <row r="1014" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1014" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B1014" t="s">
         <v>24</v>
@@ -24630,7 +24631,7 @@
         <v>10</v>
       </c>
       <c r="F1015" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G1015" s="1">
         <v>46292</v>
@@ -24641,7 +24642,7 @@
         <v>16</v>
       </c>
       <c r="F1016" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G1016" s="1">
         <v>46292</v>
@@ -24652,7 +24653,7 @@
         <v>26</v>
       </c>
       <c r="F1017" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G1017" s="1">
         <v>46292</v>
@@ -24660,7 +24661,7 @@
     </row>
     <row r="1018" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1018" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B1018" t="s">
         <v>8</v>
@@ -24683,7 +24684,7 @@
     </row>
     <row r="1019" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1019" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B1019" t="s">
         <v>8</v>
@@ -24706,7 +24707,7 @@
     </row>
     <row r="1020" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1020" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B1020" t="s">
         <v>8</v>
@@ -24729,13 +24730,13 @@
     </row>
     <row r="1021" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1021" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E1021" t="s">
         <v>10</v>
       </c>
       <c r="F1021" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G1021" s="1">
         <v>46372</v>
@@ -24743,13 +24744,13 @@
     </row>
     <row r="1022" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1022" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E1022" t="s">
         <v>10</v>
       </c>
       <c r="F1022" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G1022" s="1">
         <v>46330</v>
@@ -24757,7 +24758,7 @@
     </row>
     <row r="1023" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1023" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B1023" t="s">
         <v>24</v>
@@ -24780,7 +24781,7 @@
     </row>
     <row r="1024" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1024" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B1024" t="s">
         <v>24</v>
@@ -24803,7 +24804,7 @@
     </row>
     <row r="1025" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1025" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B1025" t="s">
         <v>24</v>
@@ -24829,7 +24830,7 @@
         <v>10</v>
       </c>
       <c r="F1026" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G1026" s="1">
         <v>46316</v>
@@ -24837,7 +24838,7 @@
     </row>
     <row r="1027" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1027" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B1027" t="s">
         <v>24</v>
@@ -24860,7 +24861,7 @@
     </row>
     <row r="1028" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1028" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B1028" t="s">
         <v>24</v>
@@ -24883,7 +24884,7 @@
     </row>
     <row r="1029" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1029" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B1029" t="s">
         <v>24</v>
@@ -24906,7 +24907,7 @@
     </row>
     <row r="1030" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1030" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B1030" t="s">
         <v>24</v>
@@ -24929,7 +24930,7 @@
     </row>
     <row r="1031" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1031" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B1031" t="s">
         <v>24</v>
@@ -24952,7 +24953,7 @@
     </row>
     <row r="1032" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1032" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B1032" t="s">
         <v>24</v>
@@ -24975,10 +24976,10 @@
     </row>
     <row r="1033" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1033" t="s">
+        <v>519</v>
+      </c>
+      <c r="B1033" t="s">
         <v>520</v>
-      </c>
-      <c r="B1033" t="s">
-        <v>521</v>
       </c>
       <c r="C1033">
         <v>3900005663</v>
@@ -24998,10 +24999,10 @@
     </row>
     <row r="1034" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1034" t="s">
+        <v>519</v>
+      </c>
+      <c r="B1034" t="s">
         <v>520</v>
-      </c>
-      <c r="B1034" t="s">
-        <v>521</v>
       </c>
       <c r="C1034">
         <v>3900005663</v>
@@ -25021,10 +25022,10 @@
     </row>
     <row r="1035" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1035" t="s">
+        <v>519</v>
+      </c>
+      <c r="B1035" t="s">
         <v>520</v>
-      </c>
-      <c r="B1035" t="s">
-        <v>521</v>
       </c>
       <c r="C1035">
         <v>3900005663</v>
@@ -25044,10 +25045,10 @@
     </row>
     <row r="1036" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1036" t="s">
+        <v>519</v>
+      </c>
+      <c r="B1036" t="s">
         <v>520</v>
-      </c>
-      <c r="B1036" t="s">
-        <v>521</v>
       </c>
       <c r="C1036">
         <v>3900005663</v>
@@ -25056,7 +25057,7 @@
         <v>14</v>
       </c>
       <c r="E1036" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F1036" t="s">
         <v>11</v>
@@ -25067,10 +25068,10 @@
     </row>
     <row r="1037" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1037" t="s">
+        <v>519</v>
+      </c>
+      <c r="B1037" t="s">
         <v>520</v>
-      </c>
-      <c r="B1037" t="s">
-        <v>521</v>
       </c>
       <c r="C1037">
         <v>3900005663</v>
@@ -25090,10 +25091,10 @@
     </row>
     <row r="1038" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1038" t="s">
+        <v>519</v>
+      </c>
+      <c r="B1038" t="s">
         <v>520</v>
-      </c>
-      <c r="B1038" t="s">
-        <v>521</v>
       </c>
       <c r="C1038">
         <v>3900005663</v>
@@ -25113,10 +25114,10 @@
     </row>
     <row r="1039" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1039" t="s">
+        <v>519</v>
+      </c>
+      <c r="B1039" t="s">
         <v>520</v>
-      </c>
-      <c r="B1039" t="s">
-        <v>521</v>
       </c>
       <c r="C1039">
         <v>3900005663</v>
@@ -25136,13 +25137,13 @@
     </row>
     <row r="1040" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1040" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E1040" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F1040" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G1040" s="1">
         <v>46355</v>
@@ -25150,13 +25151,13 @@
     </row>
     <row r="1041" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1041" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E1041" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F1041" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G1041" s="1">
         <v>45991</v>
@@ -25164,13 +25165,13 @@
     </row>
     <row r="1042" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1042" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E1042" t="s">
         <v>10</v>
       </c>
       <c r="F1042" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G1042" s="1">
         <v>46082</v>
@@ -25178,13 +25179,13 @@
     </row>
     <row r="1043" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1043" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E1043" t="s">
         <v>16</v>
       </c>
       <c r="F1043" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G1043" s="1">
         <v>46082</v>
@@ -25192,13 +25193,13 @@
     </row>
     <row r="1044" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1044" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E1044" t="s">
         <v>26</v>
       </c>
       <c r="F1044" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G1044" s="1">
         <v>46082</v>
@@ -25206,7 +25207,7 @@
     </row>
     <row r="1045" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1045" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B1045" t="s">
         <v>24</v>
@@ -25229,13 +25230,13 @@
     </row>
     <row r="1046" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1046" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E1046" t="s">
         <v>10</v>
       </c>
       <c r="F1046" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G1046" s="1">
         <v>46255</v>
@@ -25243,13 +25244,13 @@
     </row>
     <row r="1047" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1047" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E1047" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F1047" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G1047" s="1">
         <v>46339</v>
@@ -25257,7 +25258,7 @@
     </row>
     <row r="1048" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1048" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B1048" t="s">
         <v>8</v>
@@ -25280,7 +25281,7 @@
     </row>
     <row r="1049" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1049" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B1049" t="s">
         <v>8</v>
@@ -25303,7 +25304,7 @@
     </row>
     <row r="1050" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1050" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B1050" t="s">
         <v>8</v>
@@ -25326,7 +25327,7 @@
     </row>
     <row r="1051" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1051" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B1051" t="s">
         <v>8</v>
@@ -25352,7 +25353,7 @@
         <v>10</v>
       </c>
       <c r="F1052" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G1052" s="1">
         <v>46292</v>
@@ -25363,7 +25364,7 @@
         <v>16</v>
       </c>
       <c r="F1053" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G1053" s="1">
         <v>46292</v>
@@ -25374,7 +25375,7 @@
         <v>26</v>
       </c>
       <c r="F1054" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G1054" s="1">
         <v>46292</v>
@@ -25382,7 +25383,7 @@
     </row>
     <row r="1055" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1055" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B1055" t="s">
         <v>24</v>
@@ -25405,13 +25406,13 @@
     </row>
     <row r="1056" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1056" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E1056" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F1056" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G1056" s="1">
         <v>46376</v>
@@ -25419,13 +25420,13 @@
     </row>
     <row r="1057" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1057" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E1057" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F1057" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G1057" s="1">
         <v>46516</v>
@@ -25433,13 +25434,13 @@
     </row>
     <row r="1058" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1058" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E1058" t="s">
         <v>10</v>
       </c>
       <c r="F1058" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G1058" s="1">
         <v>46358</v>
@@ -25447,13 +25448,13 @@
     </row>
     <row r="1059" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1059" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E1059" t="s">
         <v>16</v>
       </c>
       <c r="F1059" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G1059" s="1">
         <v>46362</v>
@@ -25461,13 +25462,13 @@
     </row>
     <row r="1060" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1060" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E1060" t="s">
         <v>26</v>
       </c>
       <c r="F1060" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G1060" s="1">
         <v>46358</v>
@@ -25475,7 +25476,7 @@
     </row>
     <row r="1061" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1061" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B1061" t="s">
         <v>24</v>
@@ -25498,13 +25499,13 @@
     </row>
     <row r="1062" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1062" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E1062" t="s">
         <v>10</v>
       </c>
       <c r="F1062" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G1062" s="1">
         <v>46460</v>
@@ -25512,7 +25513,7 @@
     </row>
     <row r="1063" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1063" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B1063" t="s">
         <v>24</v>
@@ -25535,7 +25536,7 @@
     </row>
     <row r="1064" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1064" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B1064" t="s">
         <v>24</v>
@@ -25558,7 +25559,7 @@
     </row>
     <row r="1065" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1065" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B1065" t="s">
         <v>24</v>
@@ -25581,7 +25582,7 @@
     </row>
     <row r="1066" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1066" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B1066" t="s">
         <v>24</v>
@@ -25604,7 +25605,7 @@
     </row>
     <row r="1067" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1067" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B1067" t="s">
         <v>24</v>
@@ -25627,7 +25628,7 @@
     </row>
     <row r="1068" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1068" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B1068" t="s">
         <v>24</v>
@@ -25650,13 +25651,13 @@
     </row>
     <row r="1069" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1069" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E1069" t="s">
         <v>10</v>
       </c>
       <c r="F1069" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G1069" s="1">
         <v>46375</v>
@@ -25667,7 +25668,7 @@
         <v>10</v>
       </c>
       <c r="F1070" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G1070" s="1">
         <v>46350</v>
@@ -25678,7 +25679,7 @@
         <v>16</v>
       </c>
       <c r="F1071" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G1071" s="1">
         <v>46350</v>
@@ -25689,7 +25690,7 @@
         <v>26</v>
       </c>
       <c r="F1072" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G1072" s="1">
         <v>46350</v>
@@ -25697,7 +25698,7 @@
     </row>
     <row r="1073" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1073" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B1073" t="s">
         <v>24</v>
@@ -25720,7 +25721,7 @@
     </row>
     <row r="1074" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1074" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B1074" t="s">
         <v>24</v>
@@ -25743,7 +25744,7 @@
     </row>
     <row r="1075" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1075" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B1075" t="s">
         <v>24</v>
@@ -25766,7 +25767,7 @@
     </row>
     <row r="1076" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1076" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B1076" t="s">
         <v>24</v>
@@ -25789,7 +25790,7 @@
     </row>
     <row r="1077" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1077" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B1077" t="s">
         <v>24</v>
@@ -25801,7 +25802,7 @@
         <v>59</v>
       </c>
       <c r="E1077" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F1077" t="s">
         <v>11</v>
@@ -25812,7 +25813,7 @@
     </row>
     <row r="1078" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1078" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B1078" t="s">
         <v>24</v>
@@ -25824,7 +25825,7 @@
         <v>14</v>
       </c>
       <c r="E1078" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F1078" t="s">
         <v>11</v>
@@ -25835,7 +25836,7 @@
     </row>
     <row r="1079" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1079" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B1079" t="s">
         <v>24</v>
@@ -25858,7 +25859,7 @@
     </row>
     <row r="1080" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1080" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B1080" t="s">
         <v>24</v>
@@ -25881,7 +25882,7 @@
     </row>
     <row r="1081" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1081" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B1081" t="s">
         <v>24</v>
@@ -25904,7 +25905,7 @@
     </row>
     <row r="1082" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1082" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B1082" t="s">
         <v>24</v>
@@ -25927,7 +25928,7 @@
     </row>
     <row r="1083" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1083" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B1083" t="s">
         <v>24</v>
@@ -25950,7 +25951,7 @@
     </row>
     <row r="1084" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1084" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B1084" t="s">
         <v>24</v>
@@ -25962,7 +25963,7 @@
         <v>9</v>
       </c>
       <c r="E1084" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F1084" t="s">
         <v>11</v>
@@ -25973,13 +25974,13 @@
     </row>
     <row r="1085" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1085" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E1085" t="s">
         <v>10</v>
       </c>
       <c r="F1085" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G1085" s="1">
         <v>46417</v>
@@ -25987,7 +25988,7 @@
     </row>
     <row r="1086" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1086" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B1086" t="s">
         <v>24</v>
@@ -26010,7 +26011,7 @@
     </row>
     <row r="1087" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1087" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B1087" t="s">
         <v>24</v>
@@ -26036,7 +26037,7 @@
         <v>10</v>
       </c>
       <c r="F1088" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G1088" s="1">
         <v>46360</v>
@@ -26047,7 +26048,7 @@
         <v>16</v>
       </c>
       <c r="F1089" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G1089" s="1">
         <v>46367</v>
@@ -26058,7 +26059,7 @@
         <v>26</v>
       </c>
       <c r="F1090" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G1090" s="1">
         <v>46367</v>
@@ -26066,7 +26067,7 @@
     </row>
     <row r="1091" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1091" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D1091" t="s">
         <v>9</v>
@@ -26075,7 +26076,7 @@
         <v>10</v>
       </c>
       <c r="F1091" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G1091" s="1">
         <v>46404</v>
@@ -26083,7 +26084,7 @@
     </row>
     <row r="1092" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1092" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D1092" t="s">
         <v>9</v>
@@ -26092,7 +26093,7 @@
         <v>10</v>
       </c>
       <c r="F1092" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G1092" s="1">
         <v>46434</v>
@@ -26100,16 +26101,16 @@
     </row>
     <row r="1093" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1093" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D1093" t="s">
         <v>9</v>
       </c>
       <c r="E1093" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F1093" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G1093" s="1">
         <v>46516</v>
@@ -26117,7 +26118,7 @@
     </row>
     <row r="1094" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1094" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D1094" t="s">
         <v>9</v>
@@ -26126,7 +26127,7 @@
         <v>10</v>
       </c>
       <c r="F1094" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G1094" s="1">
         <v>46441</v>
@@ -26134,7 +26135,7 @@
     </row>
     <row r="1095" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1095" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D1095" t="s">
         <v>9</v>
@@ -26143,7 +26144,7 @@
         <v>10</v>
       </c>
       <c r="F1095" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G1095" s="1">
         <v>46403</v>
@@ -26151,7 +26152,7 @@
     </row>
     <row r="1096" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1096" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D1096" t="s">
         <v>9</v>
@@ -26160,7 +26161,7 @@
         <v>26</v>
       </c>
       <c r="F1096" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G1096" s="1">
         <v>45337</v>
@@ -26168,7 +26169,7 @@
     </row>
     <row r="1097" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1097" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B1097" t="s">
         <v>24</v>
@@ -26183,7 +26184,7 @@
         <v>68</v>
       </c>
       <c r="F1097" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G1097" s="1">
         <v>45960</v>
@@ -26191,10 +26192,10 @@
     </row>
     <row r="1098" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E1098" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F1098" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G1098" s="1">
         <v>46380</v>
@@ -26202,10 +26203,10 @@
     </row>
     <row r="1099" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1099" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B1099" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C1099">
         <v>2465015109</v>
@@ -26225,7 +26226,7 @@
     </row>
     <row r="1100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1100" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B1100" t="s">
         <v>8</v>
@@ -26248,7 +26249,7 @@
     </row>
     <row r="1101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1101" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B1101" t="s">
         <v>8</v>
@@ -26271,13 +26272,13 @@
     </row>
     <row r="1102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1102" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E1102" t="s">
         <v>10</v>
       </c>
       <c r="F1102" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G1102" s="1">
         <v>46404</v>
@@ -26285,13 +26286,13 @@
     </row>
     <row r="1103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1103" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E1103" t="s">
         <v>16</v>
       </c>
       <c r="F1103" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G1103" s="1">
         <v>46404</v>
@@ -26302,7 +26303,7 @@
         <v>10</v>
       </c>
       <c r="F1104" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G1104" s="1">
         <v>46374</v>
@@ -26313,7 +26314,7 @@
         <v>16</v>
       </c>
       <c r="F1105" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G1105" s="1">
         <v>46374</v>
@@ -26324,7 +26325,7 @@
         <v>26</v>
       </c>
       <c r="F1106" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G1106" s="1">
         <v>46374</v>
@@ -26332,7 +26333,7 @@
     </row>
     <row r="1107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1107" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B1107" t="s">
         <v>28</v>
@@ -26355,13 +26356,13 @@
     </row>
     <row r="1108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1108" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E1108" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F1108" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G1108" s="1">
         <v>46352</v>
@@ -26369,7 +26370,7 @@
     </row>
     <row r="1109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1109" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D1109" t="s">
         <v>9</v>
@@ -26378,7 +26379,7 @@
         <v>10</v>
       </c>
       <c r="F1109" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G1109" s="1">
         <v>46784</v>
@@ -26386,7 +26387,7 @@
     </row>
     <row r="1110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1110" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B1110" t="s">
         <v>24</v>
@@ -26398,7 +26399,7 @@
         <v>14</v>
       </c>
       <c r="E1110" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F1110" t="s">
         <v>11</v>
@@ -26406,7 +26407,7 @@
     </row>
     <row r="1111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1111" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B1111" t="s">
         <v>24</v>
@@ -26429,7 +26430,7 @@
     </row>
     <row r="1112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1112" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B1112" t="s">
         <v>24</v>
@@ -26452,7 +26453,7 @@
     </row>
     <row r="1113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1113" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B1113" t="s">
         <v>24</v>
@@ -26475,7 +26476,7 @@
     </row>
     <row r="1114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1114" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B1114" t="s">
         <v>24</v>
@@ -26498,7 +26499,7 @@
     </row>
     <row r="1115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1115" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B1115" t="s">
         <v>44</v>
@@ -26521,7 +26522,7 @@
     </row>
     <row r="1116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1116" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B1116" t="s">
         <v>44</v>
@@ -26544,7 +26545,7 @@
     </row>
     <row r="1117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1117" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B1117" t="s">
         <v>8</v>
@@ -26567,7 +26568,7 @@
     </row>
     <row r="1118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1118" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B1118" t="s">
         <v>8</v>
@@ -26590,7 +26591,7 @@
     </row>
     <row r="1119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1119" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B1119" t="s">
         <v>8</v>
@@ -26613,7 +26614,7 @@
     </row>
     <row r="1120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1120" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B1120" t="s">
         <v>8</v>
@@ -26636,7 +26637,7 @@
     </row>
     <row r="1121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1121" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B1121" t="s">
         <v>8</v>
@@ -26659,7 +26660,7 @@
     </row>
     <row r="1122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1122" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B1122" t="s">
         <v>8</v>
@@ -26682,7 +26683,7 @@
     </row>
     <row r="1123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1123" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B1123" t="s">
         <v>44</v>
@@ -26705,7 +26706,7 @@
     </row>
     <row r="1124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1124" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B1124" t="s">
         <v>44</v>
@@ -26728,13 +26729,13 @@
     </row>
     <row r="1125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1125" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E1125" t="s">
         <v>10</v>
       </c>
       <c r="F1125" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G1125" s="1">
         <v>46432</v>
@@ -26742,13 +26743,13 @@
     </row>
     <row r="1126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1126" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E1126" t="s">
         <v>16</v>
       </c>
       <c r="F1126" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G1126" s="1">
         <v>46431</v>
@@ -26756,13 +26757,13 @@
     </row>
     <row r="1127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1127" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E1127" t="s">
         <v>26</v>
       </c>
       <c r="F1127" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G1127" s="1">
         <v>46431</v>
@@ -26770,13 +26771,13 @@
     </row>
     <row r="1128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1128" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E1128" t="s">
         <v>10</v>
       </c>
       <c r="F1128" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G1128" s="1">
         <v>46436</v>
@@ -26784,13 +26785,13 @@
     </row>
     <row r="1129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1129" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E1129" t="s">
         <v>16</v>
       </c>
       <c r="F1129" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G1129" s="1">
         <v>46436</v>
@@ -26798,13 +26799,13 @@
     </row>
     <row r="1130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1130" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E1130" t="s">
         <v>26</v>
       </c>
       <c r="F1130" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G1130" s="1">
         <v>46436</v>
@@ -26812,13 +26813,13 @@
     </row>
     <row r="1131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1131" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E1131" t="s">
         <v>10</v>
       </c>
       <c r="F1131" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G1131" s="1">
         <v>46788</v>
@@ -26826,7 +26827,7 @@
     </row>
     <row r="1132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1132" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C1132">
         <v>7722384856</v>
@@ -26835,7 +26836,7 @@
         <v>10</v>
       </c>
       <c r="F1132" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G1132" s="1">
         <v>46459</v>
@@ -26843,13 +26844,13 @@
     </row>
     <row r="1133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1133" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E1133" t="s">
         <v>10</v>
       </c>
       <c r="F1133" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G1133" s="1">
         <v>46452</v>
@@ -26857,13 +26858,13 @@
     </row>
     <row r="1134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1134" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E1134" t="s">
         <v>26</v>
       </c>
       <c r="F1134" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G1134" s="1">
         <v>46452</v>
@@ -26871,13 +26872,13 @@
     </row>
     <row r="1135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1135" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E1135" t="s">
         <v>10</v>
       </c>
       <c r="F1135" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G1135" s="1">
         <v>46510</v>
@@ -26885,13 +26886,13 @@
     </row>
     <row r="1136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1136" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E1136" t="s">
         <v>52</v>
       </c>
       <c r="F1136" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G1136" s="1">
         <v>46510</v>
@@ -26899,13 +26900,13 @@
     </row>
     <row r="1137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1137" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E1137" t="s">
         <v>10</v>
       </c>
       <c r="F1137" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G1137" s="1">
         <v>46445</v>
@@ -26913,13 +26914,13 @@
     </row>
     <row r="1138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1138" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E1138" t="s">
         <v>10</v>
       </c>
       <c r="F1138" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G1138" s="1">
         <v>46437</v>
@@ -26927,13 +26928,13 @@
     </row>
     <row r="1139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1139" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E1139" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F1139" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G1139" s="1">
         <v>46440</v>
@@ -26941,13 +26942,13 @@
     </row>
     <row r="1140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1140" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E1140" t="s">
         <v>10</v>
       </c>
       <c r="F1140" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G1140" s="1">
         <v>45935</v>
@@ -26955,13 +26956,13 @@
     </row>
     <row r="1141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1141" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E1141" t="s">
         <v>16</v>
       </c>
       <c r="F1141" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G1141" s="1">
         <v>45928</v>
@@ -26969,13 +26970,13 @@
     </row>
     <row r="1142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1142" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E1142" t="s">
         <v>26</v>
       </c>
       <c r="F1142" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G1142" s="1">
         <v>45928</v>
@@ -26983,13 +26984,13 @@
     </row>
     <row r="1143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1143" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E1143" t="s">
         <v>10</v>
       </c>
       <c r="F1143" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G1143" s="1">
         <v>46241</v>
@@ -26997,13 +26998,13 @@
     </row>
     <row r="1144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1144" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E1144" t="s">
         <v>16</v>
       </c>
       <c r="F1144" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G1144" s="1">
         <v>46241</v>
@@ -27011,13 +27012,13 @@
     </row>
     <row r="1145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1145" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E1145" t="s">
         <v>26</v>
       </c>
       <c r="F1145" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G1145" s="1">
         <v>46241</v>
@@ -27028,7 +27029,7 @@
         <v>10</v>
       </c>
       <c r="F1146" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G1146" s="1">
         <v>46374</v>
@@ -27039,7 +27040,7 @@
         <v>16</v>
       </c>
       <c r="F1147" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G1147" s="1">
         <v>46374</v>
@@ -27050,7 +27051,7 @@
         <v>26</v>
       </c>
       <c r="F1148" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G1148" s="1">
         <v>46374</v>
@@ -27058,13 +27059,13 @@
     </row>
     <row r="1149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1149" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E1149" t="s">
         <v>68</v>
       </c>
       <c r="F1149" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G1149" s="1">
         <v>45960</v>
@@ -27072,13 +27073,13 @@
     </row>
     <row r="1150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1150" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E1150" t="s">
         <v>10</v>
       </c>
       <c r="F1150" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G1150" s="1">
         <v>46471</v>
@@ -27086,13 +27087,13 @@
     </row>
     <row r="1151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1151" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E1151" t="s">
         <v>10</v>
       </c>
       <c r="F1151" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G1151" s="1">
         <v>46536</v>
@@ -27100,13 +27101,13 @@
     </row>
     <row r="1152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1152" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E1152" t="s">
         <v>16</v>
       </c>
       <c r="F1152" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G1152" s="1">
         <v>46536</v>
@@ -27114,13 +27115,13 @@
     </row>
     <row r="1153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1153" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E1153" t="s">
         <v>26</v>
       </c>
       <c r="F1153" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G1153" s="1">
         <v>46538</v>
@@ -27128,7 +27129,7 @@
     </row>
     <row r="1154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1154" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B1154" t="s">
         <v>44</v>
@@ -27151,7 +27152,7 @@
     </row>
     <row r="1155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1155" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B1155" t="s">
         <v>44</v>
@@ -27174,7 +27175,7 @@
     </row>
     <row r="1156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1156" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B1156" t="s">
         <v>24</v>
@@ -27197,7 +27198,7 @@
     </row>
     <row r="1157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1157" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B1157" t="s">
         <v>24</v>
@@ -27223,7 +27224,7 @@
         <v>10</v>
       </c>
       <c r="F1158" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G1158" s="1">
         <v>46382</v>
@@ -27234,7 +27235,7 @@
         <v>16</v>
       </c>
       <c r="F1159" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G1159" s="1">
         <v>46382</v>
@@ -27245,7 +27246,7 @@
         <v>26</v>
       </c>
       <c r="F1160" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G1160" s="1">
         <v>46382</v>
@@ -27253,7 +27254,7 @@
     </row>
     <row r="1161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1161" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B1161" t="s">
         <v>24</v>
@@ -27276,13 +27277,13 @@
     </row>
     <row r="1162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1162" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E1162" t="s">
         <v>10</v>
       </c>
       <c r="F1162" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G1162" s="1">
         <v>46529</v>
@@ -27290,13 +27291,13 @@
     </row>
     <row r="1163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1163" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E1163" t="s">
         <v>16</v>
       </c>
       <c r="F1163" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G1163" s="1">
         <v>46529</v>
@@ -27304,13 +27305,13 @@
     </row>
     <row r="1164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1164" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E1164" t="s">
         <v>26</v>
       </c>
       <c r="F1164" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G1164" s="1">
         <v>46529</v>
@@ -27318,13 +27319,13 @@
     </row>
     <row r="1165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1165" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E1165" t="s">
         <v>10</v>
       </c>
       <c r="F1165" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G1165" s="1">
         <v>46523</v>
@@ -27332,7 +27333,7 @@
     </row>
     <row r="1166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1166" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B1166" t="s">
         <v>24</v>
@@ -27341,7 +27342,7 @@
         <v>52</v>
       </c>
       <c r="F1166" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G1166" s="1">
         <v>46501</v>
@@ -27349,7 +27350,7 @@
     </row>
     <row r="1167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1167" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B1167" t="s">
         <v>24</v>
@@ -27372,7 +27373,7 @@
     </row>
     <row r="1168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1168" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B1168" t="s">
         <v>24</v>
@@ -27395,21 +27396,21 @@
     </row>
     <row r="1169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E1169" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F1169" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="1170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1170" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E1170" t="s">
         <v>10</v>
       </c>
       <c r="F1170" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G1170" s="1">
         <v>46643</v>
@@ -27417,13 +27418,13 @@
     </row>
     <row r="1171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1171" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E1171" t="s">
         <v>10</v>
       </c>
       <c r="F1171" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G1171" s="1">
         <v>46473</v>
@@ -27431,16 +27432,16 @@
     </row>
     <row r="1172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1172" t="s">
+        <v>590</v>
+      </c>
+      <c r="B1172" t="s">
         <v>591</v>
       </c>
-      <c r="B1172" t="s">
-        <v>592</v>
-      </c>
       <c r="E1172" t="s">
         <v>10</v>
       </c>
       <c r="F1172" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G1172" s="1">
         <v>46548</v>
@@ -27448,7 +27449,7 @@
     </row>
     <row r="1173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1173" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B1173" t="s">
         <v>8</v>
@@ -27471,7 +27472,7 @@
     </row>
     <row r="1174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1174" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B1174" t="s">
         <v>8</v>
@@ -27494,10 +27495,10 @@
     </row>
     <row r="1175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E1175" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F1175" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G1175" s="1">
         <v>46510</v>
@@ -27505,7 +27506,7 @@
     </row>
     <row r="1176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1176" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B1176" t="s">
         <v>24</v>
@@ -27528,7 +27529,7 @@
     </row>
     <row r="1177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1177" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B1177" t="s">
         <v>83</v>
@@ -27551,13 +27552,13 @@
     </row>
     <row r="1178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1178" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E1178" t="s">
         <v>10</v>
       </c>
       <c r="F1178" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G1178" s="1">
         <v>46572</v>
@@ -27565,13 +27566,13 @@
     </row>
     <row r="1179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1179" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E1179" t="s">
         <v>10</v>
       </c>
       <c r="F1179" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G1179" s="1">
         <v>46562</v>
@@ -27579,13 +27580,13 @@
     </row>
     <row r="1180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1180" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E1180" t="s">
         <v>16</v>
       </c>
       <c r="F1180" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G1180" s="1">
         <v>46562</v>
@@ -27593,13 +27594,13 @@
     </row>
     <row r="1181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1181" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E1181" t="s">
         <v>26</v>
       </c>
       <c r="F1181" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G1181" s="1">
         <v>46570</v>
@@ -27607,7 +27608,7 @@
     </row>
     <row r="1182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1182" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B1182" t="s">
         <v>24</v>
@@ -27630,7 +27631,7 @@
     </row>
     <row r="1183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1183" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B1183" t="s">
         <v>24</v>
@@ -27653,13 +27654,13 @@
     </row>
     <row r="1184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1184" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E1184" t="s">
         <v>10</v>
       </c>
       <c r="F1184" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G1184" s="1">
         <v>46545</v>
@@ -27667,13 +27668,13 @@
     </row>
     <row r="1185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1185" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E1185" t="s">
         <v>10</v>
       </c>
       <c r="F1185" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G1185" s="1">
         <v>46546</v>
@@ -27681,13 +27682,13 @@
     </row>
     <row r="1186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1186" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E1186" t="s">
         <v>16</v>
       </c>
       <c r="F1186" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G1186" s="1">
         <v>46598</v>
@@ -27695,13 +27696,13 @@
     </row>
     <row r="1187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1187" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E1187" t="s">
         <v>26</v>
       </c>
       <c r="F1187" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G1187" s="1">
         <v>46598</v>
@@ -27709,13 +27710,13 @@
     </row>
     <row r="1188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1188" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E1188" t="s">
         <v>10</v>
       </c>
       <c r="F1188" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G1188" s="1">
         <v>46613</v>
@@ -27723,13 +27724,13 @@
     </row>
     <row r="1189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1189" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E1189" t="s">
         <v>16</v>
       </c>
       <c r="F1189" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G1189" s="1">
         <v>46613</v>
@@ -27737,13 +27738,13 @@
     </row>
     <row r="1190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1190" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E1190" t="s">
         <v>26</v>
       </c>
       <c r="F1190" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G1190" s="1">
         <v>46613</v>
@@ -27751,13 +27752,13 @@
     </row>
     <row r="1191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1191" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E1191" t="s">
         <v>10</v>
       </c>
       <c r="F1191" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G1191" s="1">
         <v>46558</v>
@@ -27765,13 +27766,13 @@
     </row>
     <row r="1192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1192" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E1192" t="s">
         <v>10</v>
       </c>
       <c r="F1192" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G1192" s="1">
         <v>46606</v>
@@ -27779,7 +27780,7 @@
     </row>
     <row r="1193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1193" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B1193" t="s">
         <v>24</v>
@@ -27802,7 +27803,7 @@
     </row>
     <row r="1194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1194" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B1194" t="s">
         <v>24</v>
@@ -27825,7 +27826,7 @@
     </row>
     <row r="1195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1195" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B1195" t="s">
         <v>24</v>
@@ -27848,7 +27849,7 @@
     </row>
     <row r="1196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1196" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B1196" t="s">
         <v>24</v>
@@ -27871,7 +27872,7 @@
     </row>
     <row r="1197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1197" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B1197" t="s">
         <v>24</v>
@@ -27894,7 +27895,7 @@
     </row>
     <row r="1198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1198" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B1198" t="s">
         <v>24</v>
@@ -27917,7 +27918,7 @@
     </row>
     <row r="1199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1199" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B1199" t="s">
         <v>24</v>
@@ -27940,7 +27941,7 @@
     </row>
     <row r="1200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1200" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B1200" t="s">
         <v>8</v>
@@ -27963,7 +27964,7 @@
     </row>
     <row r="1201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1201" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B1201" t="s">
         <v>24</v>
@@ -27986,7 +27987,7 @@
     </row>
     <row r="1202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1202" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B1202" t="s">
         <v>24</v>
@@ -28009,7 +28010,7 @@
     </row>
     <row r="1203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1203" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B1203" t="s">
         <v>24</v>
@@ -28032,7 +28033,7 @@
     </row>
     <row r="1204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1204" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B1204" t="s">
         <v>83</v>
@@ -28055,7 +28056,7 @@
     </row>
     <row r="1205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1205" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B1205" t="s">
         <v>24</v>
@@ -28078,7 +28079,7 @@
     </row>
     <row r="1206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1206" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B1206" t="s">
         <v>24</v>
@@ -28101,7 +28102,7 @@
     </row>
     <row r="1207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1207" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B1207" t="s">
         <v>24</v>
@@ -28124,7 +28125,7 @@
     </row>
     <row r="1208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1208" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B1208" t="s">
         <v>8</v>
@@ -28147,7 +28148,7 @@
     </row>
     <row r="1209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1209" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B1209" t="s">
         <v>24</v>
@@ -28170,7 +28171,7 @@
     </row>
     <row r="1210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1210" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B1210" t="s">
         <v>24</v>
@@ -28193,7 +28194,7 @@
     </row>
     <row r="1211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1211" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B1211" t="s">
         <v>24</v>
@@ -28216,7 +28217,7 @@
     </row>
     <row r="1212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1212" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B1212" t="s">
         <v>24</v>
@@ -28239,7 +28240,7 @@
     </row>
     <row r="1213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1213" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B1213" t="s">
         <v>24</v>
@@ -28262,7 +28263,7 @@
     </row>
     <row r="1214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1214" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B1214" t="s">
         <v>24</v>
@@ -28285,7 +28286,7 @@
     </row>
     <row r="1215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1215" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B1215" t="s">
         <v>24</v>
@@ -28308,7 +28309,7 @@
     </row>
     <row r="1216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1216" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B1216" t="s">
         <v>24</v>
@@ -28328,7 +28329,7 @@
     </row>
     <row r="1217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1217" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B1217" t="s">
         <v>8</v>
@@ -28340,7 +28341,7 @@
         <v>59</v>
       </c>
       <c r="E1217" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F1217" t="s">
         <v>11</v>
@@ -28351,7 +28352,7 @@
     </row>
     <row r="1218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1218" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B1218" t="s">
         <v>8</v>
@@ -28363,7 +28364,7 @@
         <v>14</v>
       </c>
       <c r="E1218" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F1218" t="s">
         <v>11</v>
@@ -28374,7 +28375,7 @@
     </row>
     <row r="1219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1219" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B1219" t="s">
         <v>24</v>
@@ -28397,7 +28398,7 @@
     </row>
     <row r="1220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1220" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B1220" t="s">
         <v>24</v>
@@ -28420,7 +28421,7 @@
     </row>
     <row r="1221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1221" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B1221" t="s">
         <v>8</v>
@@ -28443,7 +28444,7 @@
     </row>
     <row r="1222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1222" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B1222" t="s">
         <v>8</v>
@@ -28466,7 +28467,7 @@
     </row>
     <row r="1223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1223" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B1223" t="s">
         <v>24</v>
@@ -28489,7 +28490,7 @@
     </row>
     <row r="1224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1224" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B1224" t="s">
         <v>24</v>
@@ -28512,13 +28513,13 @@
     </row>
     <row r="1225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1225" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E1225" t="s">
         <v>10</v>
       </c>
       <c r="F1225" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G1225" s="1">
         <v>46643</v>
@@ -28526,7 +28527,7 @@
     </row>
     <row r="1226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1226" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B1226" t="s">
         <v>24</v>
@@ -28549,7 +28550,7 @@
     </row>
     <row r="1227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1227" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D1227" t="s">
         <v>9</v>
@@ -28558,7 +28559,7 @@
         <v>10</v>
       </c>
       <c r="F1227" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G1227" s="1">
         <v>46604</v>
@@ -28566,16 +28567,16 @@
     </row>
     <row r="1228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1228" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D1228" t="s">
         <v>9</v>
       </c>
       <c r="E1228" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F1228" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G1228" s="1">
         <v>46644</v>
@@ -28583,7 +28584,7 @@
     </row>
     <row r="1229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1229" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E1229" t="s">
         <v>10</v>
@@ -28603,7 +28604,7 @@
         <v>10</v>
       </c>
       <c r="F1230" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G1230" s="1">
         <v>46640</v>
@@ -28617,7 +28618,7 @@
         <v>16</v>
       </c>
       <c r="F1231" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G1231" s="1">
         <v>46640</v>
@@ -28625,7 +28626,7 @@
     </row>
     <row r="1232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1232" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D1232" t="s">
         <v>9</v>
@@ -28634,7 +28635,7 @@
         <v>52</v>
       </c>
       <c r="F1232" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G1232" s="1">
         <v>46716</v>
@@ -28642,7 +28643,7 @@
     </row>
     <row r="1233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1233" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B1233" t="s">
         <v>24</v>
@@ -28665,7 +28666,7 @@
     </row>
     <row r="1234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1234" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B1234" t="s">
         <v>24</v>
@@ -28688,7 +28689,7 @@
     </row>
     <row r="1235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1235" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B1235" t="s">
         <v>24</v>
@@ -28711,7 +28712,7 @@
     </row>
     <row r="1236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1236" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B1236" t="s">
         <v>24</v>
@@ -28734,7 +28735,7 @@
     </row>
     <row r="1237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1237" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B1237" t="s">
         <v>24</v>
@@ -28757,7 +28758,7 @@
     </row>
     <row r="1238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1238" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B1238" t="s">
         <v>24</v>
@@ -28780,7 +28781,7 @@
     </row>
     <row r="1239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1239" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B1239" t="s">
         <v>24</v>
@@ -28789,10 +28790,10 @@
         <v>3604011804</v>
       </c>
       <c r="D1239" t="s">
+        <v>641</v>
+      </c>
+      <c r="E1239" t="s">
         <v>642</v>
-      </c>
-      <c r="E1239" t="s">
-        <v>643</v>
       </c>
       <c r="F1239" t="s">
         <v>11</v>
@@ -28806,7 +28807,7 @@
         <v>10</v>
       </c>
       <c r="F1240" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G1240" s="1">
         <v>46622</v>
@@ -28817,7 +28818,7 @@
         <v>10</v>
       </c>
       <c r="F1241" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G1241" s="1">
         <v>46654</v>
@@ -28825,7 +28826,7 @@
     </row>
     <row r="1242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1242" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B1242" t="s">
         <v>24</v>
@@ -28848,7 +28849,7 @@
     </row>
     <row r="1243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1243" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B1243" t="s">
         <v>24</v>
@@ -28871,7 +28872,7 @@
     </row>
     <row r="1244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1244" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B1244" t="s">
         <v>24</v>
@@ -28894,7 +28895,7 @@
     </row>
     <row r="1245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1245" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B1245" t="s">
         <v>24</v>
@@ -28917,7 +28918,7 @@
     </row>
     <row r="1246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1246" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B1246" t="s">
         <v>24</v>
@@ -28937,7 +28938,7 @@
         <v>10</v>
       </c>
       <c r="F1247" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G1247" s="1">
         <v>45574</v>
@@ -28945,7 +28946,7 @@
     </row>
     <row r="1248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1248" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B1248" t="s">
         <v>24</v>
@@ -28968,7 +28969,7 @@
     </row>
     <row r="1249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1249" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B1249" t="s">
         <v>24</v>
@@ -28991,7 +28992,7 @@
     </row>
     <row r="1250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1250" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B1250" t="s">
         <v>8</v>
@@ -29014,7 +29015,7 @@
     </row>
     <row r="1251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1251" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B1251" t="s">
         <v>8</v>
@@ -29037,7 +29038,7 @@
     </row>
     <row r="1252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1252" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B1252" t="s">
         <v>8</v>
@@ -29060,7 +29061,7 @@
     </row>
     <row r="1253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1253" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B1253" t="s">
         <v>8</v>
@@ -29083,7 +29084,7 @@
     </row>
     <row r="1254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1254" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B1254" t="s">
         <v>24</v>
@@ -29103,7 +29104,7 @@
     </row>
     <row r="1255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1255" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B1255" t="s">
         <v>24</v>
@@ -29126,10 +29127,10 @@
     </row>
     <row r="1256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1256" t="s">
+        <v>652</v>
+      </c>
+      <c r="B1256" t="s">
         <v>653</v>
-      </c>
-      <c r="B1256" t="s">
-        <v>654</v>
       </c>
       <c r="C1256" s="2">
         <v>632000000000</v>
@@ -29149,7 +29150,7 @@
     </row>
     <row r="1257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1257" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B1257" t="s">
         <v>28</v>
@@ -29172,7 +29173,7 @@
     </row>
     <row r="1258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1258" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B1258" t="s">
         <v>28</v>
@@ -29195,7 +29196,7 @@
     </row>
     <row r="1259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1259" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B1259" t="s">
         <v>24</v>
@@ -29218,7 +29219,7 @@
     </row>
     <row r="1260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1260" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B1260" t="s">
         <v>8</v>
@@ -29238,19 +29239,19 @@
     </row>
     <row r="1261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1261" t="s">
+        <v>656</v>
+      </c>
+      <c r="B1261" t="s">
         <v>657</v>
       </c>
-      <c r="B1261" t="s">
+      <c r="D1261" t="s">
+        <v>641</v>
+      </c>
+      <c r="E1261" t="s">
+        <v>642</v>
+      </c>
+      <c r="F1261" t="s">
         <v>658</v>
-      </c>
-      <c r="D1261" t="s">
-        <v>642</v>
-      </c>
-      <c r="E1261" t="s">
-        <v>643</v>
-      </c>
-      <c r="F1261" t="s">
-        <v>659</v>
       </c>
       <c r="G1261" s="1">
         <v>46377</v>
@@ -29258,7 +29259,7 @@
     </row>
     <row r="1262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1262" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B1262" t="s">
         <v>24</v>
@@ -29267,10 +29268,10 @@
         <v>3257017280</v>
       </c>
       <c r="D1262" t="s">
+        <v>641</v>
+      </c>
+      <c r="E1262" t="s">
         <v>642</v>
-      </c>
-      <c r="E1262" t="s">
-        <v>643</v>
       </c>
       <c r="F1262" t="s">
         <v>11</v>
@@ -29284,7 +29285,7 @@
         <v>10</v>
       </c>
       <c r="F1263" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G1263" s="1">
         <v>46719</v>
@@ -29292,7 +29293,7 @@
     </row>
     <row r="1264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1264" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B1264" t="s">
         <v>24</v>
@@ -29301,10 +29302,10 @@
         <v>5030090040</v>
       </c>
       <c r="D1264" t="s">
+        <v>641</v>
+      </c>
+      <c r="E1264" t="s">
         <v>642</v>
-      </c>
-      <c r="E1264" t="s">
-        <v>643</v>
       </c>
       <c r="F1264" t="s">
         <v>11</v>
@@ -29315,7 +29316,7 @@
     </row>
     <row r="1265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1265" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B1265" t="s">
         <v>24</v>
@@ -29324,10 +29325,10 @@
         <v>5834052005</v>
       </c>
       <c r="D1265" t="s">
+        <v>641</v>
+      </c>
+      <c r="E1265" t="s">
         <v>642</v>
-      </c>
-      <c r="E1265" t="s">
-        <v>643</v>
       </c>
       <c r="F1265" t="s">
         <v>11</v>
@@ -29335,7 +29336,7 @@
     </row>
     <row r="1266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1266" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B1266" t="s">
         <v>24</v>
@@ -29344,10 +29345,10 @@
         <v>7733660353</v>
       </c>
       <c r="D1266" t="s">
+        <v>641</v>
+      </c>
+      <c r="E1266" t="s">
         <v>642</v>
-      </c>
-      <c r="E1266" t="s">
-        <v>643</v>
       </c>
       <c r="F1266" t="s">
         <v>11</v>
@@ -29358,7 +29359,7 @@
     </row>
     <row r="1267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1267" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B1267" t="s">
         <v>24</v>
@@ -29367,10 +29368,10 @@
         <v>1644034949</v>
       </c>
       <c r="D1267" t="s">
+        <v>641</v>
+      </c>
+      <c r="E1267" t="s">
         <v>642</v>
-      </c>
-      <c r="E1267" t="s">
-        <v>643</v>
       </c>
       <c r="F1267" t="s">
         <v>11</v>
@@ -29381,7 +29382,7 @@
     </row>
     <row r="1268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1268" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B1268" t="s">
         <v>24</v>
@@ -29390,10 +29391,10 @@
         <v>8610024374</v>
       </c>
       <c r="D1268" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E1268" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F1268" t="s">
         <v>11</v>
@@ -29401,7 +29402,7 @@
     </row>
     <row r="1269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1269" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B1269" t="s">
         <v>24</v>
@@ -29410,10 +29411,10 @@
         <v>5504168160</v>
       </c>
       <c r="D1269" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E1269" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F1269" t="s">
         <v>11</v>
@@ -29421,7 +29422,7 @@
     </row>
     <row r="1270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1270" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B1270" t="s">
         <v>8</v>
@@ -29430,10 +29431,10 @@
         <v>6317126596</v>
       </c>
       <c r="D1270" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E1270" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F1270" t="s">
         <v>11</v>
@@ -29444,7 +29445,7 @@
     </row>
     <row r="1271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1271" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B1271" t="s">
         <v>24</v>
@@ -29453,10 +29454,10 @@
         <v>7017462729</v>
       </c>
       <c r="D1271" t="s">
+        <v>641</v>
+      </c>
+      <c r="E1271" t="s">
         <v>642</v>
-      </c>
-      <c r="E1271" t="s">
-        <v>643</v>
       </c>
       <c r="F1271" t="s">
         <v>11</v>
@@ -29467,7 +29468,7 @@
     </row>
     <row r="1272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1272" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B1272" t="s">
         <v>24</v>
@@ -29476,10 +29477,10 @@
         <v>7811438750</v>
       </c>
       <c r="D1272" t="s">
+        <v>641</v>
+      </c>
+      <c r="E1272" t="s">
         <v>642</v>
-      </c>
-      <c r="E1272" t="s">
-        <v>643</v>
       </c>
       <c r="F1272" t="s">
         <v>11</v>
@@ -29490,7 +29491,7 @@
     </row>
     <row r="1273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1273" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B1273" t="s">
         <v>24</v>
@@ -29513,7 +29514,7 @@
     </row>
     <row r="1274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1274" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B1274" t="s">
         <v>24</v>
@@ -29536,7 +29537,7 @@
     </row>
     <row r="1275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1275" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B1275" t="s">
         <v>24</v>
@@ -29545,10 +29546,10 @@
         <v>5505217893</v>
       </c>
       <c r="D1275" t="s">
+        <v>641</v>
+      </c>
+      <c r="E1275" t="s">
         <v>642</v>
-      </c>
-      <c r="E1275" t="s">
-        <v>643</v>
       </c>
       <c r="F1275" t="s">
         <v>11</v>
@@ -29559,7 +29560,7 @@
     </row>
     <row r="1276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1276" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B1276" t="s">
         <v>24</v>
@@ -29567,13 +29568,13 @@
     </row>
     <row r="1277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1277" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B1277" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C1277" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D1277" t="s">
         <v>11</v>
@@ -29584,16 +29585,16 @@
     </row>
     <row r="1278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1278" t="s">
+        <v>675</v>
+      </c>
+      <c r="B1278" t="s">
         <v>676</v>
       </c>
-      <c r="B1278" t="s">
-        <v>677</v>
-      </c>
       <c r="D1278" t="s">
+        <v>641</v>
+      </c>
+      <c r="E1278" t="s">
         <v>642</v>
-      </c>
-      <c r="E1278" t="s">
-        <v>643</v>
       </c>
       <c r="F1278" t="s">
         <v>131</v>
@@ -29601,13 +29602,13 @@
     </row>
     <row r="1279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D1279" t="s">
+        <v>677</v>
+      </c>
+      <c r="E1279" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1279" t="s">
         <v>678</v>
-      </c>
-      <c r="E1279" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1279" t="s">
-        <v>679</v>
       </c>
       <c r="G1279" s="1">
         <v>46769</v>
@@ -29621,7 +29622,7 @@
         <v>10</v>
       </c>
       <c r="F1280" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G1280" s="1">
         <v>46766</v>
@@ -29629,7 +29630,7 @@
     </row>
     <row r="1281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1281" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B1281" t="s">
         <v>24</v>
@@ -29652,7 +29653,7 @@
     </row>
     <row r="1282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1282" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B1282" t="s">
         <v>24</v>
@@ -29675,7 +29676,7 @@
     </row>
     <row r="1283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1283" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B1283" t="s">
         <v>24</v>
@@ -29698,7 +29699,7 @@
     </row>
     <row r="1284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1284" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B1284" t="s">
         <v>24</v>
@@ -29721,7 +29722,7 @@
     </row>
     <row r="1285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1285" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B1285" t="s">
         <v>8</v>
@@ -29744,7 +29745,7 @@
     </row>
     <row r="1286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1286" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B1286" t="s">
         <v>24</v>
@@ -29756,7 +29757,7 @@
         <v>14</v>
       </c>
       <c r="E1286" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F1286" t="s">
         <v>11</v>
@@ -29767,7 +29768,7 @@
     </row>
     <row r="1287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1287" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B1287" t="s">
         <v>24</v>
@@ -29790,7 +29791,7 @@
     </row>
     <row r="1288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1288" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B1288" t="s">
         <v>24</v>
@@ -29813,7 +29814,7 @@
     </row>
     <row r="1289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1289" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B1289" t="s">
         <v>28</v>
@@ -29836,7 +29837,7 @@
     </row>
     <row r="1290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1290" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B1290" t="s">
         <v>24</v>
@@ -29859,7 +29860,7 @@
     </row>
     <row r="1291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1291" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B1291" t="s">
         <v>24</v>
@@ -29882,7 +29883,7 @@
     </row>
     <row r="1292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1292" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B1292" t="s">
         <v>24</v>
@@ -29894,7 +29895,7 @@
         <v>59</v>
       </c>
       <c r="E1292" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F1292" t="s">
         <v>11</v>
@@ -29902,7 +29903,7 @@
     </row>
     <row r="1293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1293" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B1293" t="s">
         <v>24</v>
@@ -29925,7 +29926,7 @@
     </row>
     <row r="1294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1294" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B1294" t="s">
         <v>24</v>
@@ -29948,7 +29949,7 @@
     </row>
     <row r="1295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1295" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B1295" t="s">
         <v>24</v>
@@ -29971,7 +29972,7 @@
     </row>
     <row r="1296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1296" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B1296" t="s">
         <v>24</v>
@@ -29994,7 +29995,7 @@
     </row>
     <row r="1297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1297" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B1297" t="s">
         <v>24</v>
@@ -30017,7 +30018,7 @@
     </row>
     <row r="1298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1298" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B1298" t="s">
         <v>24</v>
@@ -30040,7 +30041,7 @@
     </row>
     <row r="1299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1299" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B1299" t="s">
         <v>24</v>
@@ -30063,7 +30064,7 @@
     </row>
     <row r="1300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1300" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B1300" t="s">
         <v>24</v>
@@ -30083,7 +30084,7 @@
     </row>
     <row r="1301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1301" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B1301" t="s">
         <v>24</v>
@@ -30106,7 +30107,7 @@
     </row>
     <row r="1302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1302" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B1302" t="s">
         <v>24</v>
@@ -30129,7 +30130,7 @@
     </row>
     <row r="1303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1303" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B1303" t="s">
         <v>24</v>
@@ -30152,7 +30153,7 @@
     </row>
     <row r="1304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1304" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B1304" t="s">
         <v>24</v>
@@ -30175,7 +30176,7 @@
     </row>
     <row r="1305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1305" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B1305" t="s">
         <v>24</v>
@@ -30198,7 +30199,7 @@
     </row>
     <row r="1306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1306" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B1306" t="s">
         <v>24</v>
@@ -30221,7 +30222,7 @@
     </row>
     <row r="1307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1307" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B1307" t="s">
         <v>24</v>
@@ -30238,7 +30239,7 @@
     </row>
     <row r="1308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1308" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B1308" t="s">
         <v>24</v>
@@ -30255,7 +30256,7 @@
     </row>
     <row r="1309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1309" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B1309" t="s">
         <v>8</v>
@@ -30278,7 +30279,7 @@
     </row>
     <row r="1310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1310" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B1310" t="s">
         <v>8</v>
@@ -30301,7 +30302,7 @@
     </row>
     <row r="1311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1311" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B1311" t="s">
         <v>8</v>
@@ -30324,7 +30325,7 @@
     </row>
     <row r="1312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1312" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D1312" t="s">
         <v>81</v>
@@ -30333,7 +30334,7 @@
         <v>10</v>
       </c>
       <c r="F1312" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G1312" s="1">
         <v>46788</v>
@@ -30341,7 +30342,7 @@
     </row>
     <row r="1313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1313" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D1313" t="s">
         <v>81</v>
@@ -30350,7 +30351,7 @@
         <v>16</v>
       </c>
       <c r="F1313" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G1313" s="1">
         <v>46787</v>
@@ -30358,7 +30359,7 @@
     </row>
     <row r="1314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1314" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D1314" t="s">
         <v>81</v>
@@ -30367,7 +30368,7 @@
         <v>26</v>
       </c>
       <c r="F1314" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G1314" s="1">
         <v>46787</v>
@@ -30375,7 +30376,7 @@
     </row>
     <row r="1315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1315" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B1315" t="s">
         <v>24</v>
@@ -30392,7 +30393,7 @@
     </row>
     <row r="1316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1316" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B1316" t="s">
         <v>8</v>
@@ -30409,7 +30410,7 @@
     </row>
     <row r="1317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1317" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B1317" t="s">
         <v>8</v>
@@ -30426,7 +30427,7 @@
     </row>
     <row r="1318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1318" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B1318" t="s">
         <v>8</v>
@@ -30446,7 +30447,7 @@
     </row>
     <row r="1319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1319" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B1319" t="s">
         <v>8</v>
@@ -30466,10 +30467,10 @@
     </row>
     <row r="1320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1320" t="s">
+        <v>698</v>
+      </c>
+      <c r="B1320" t="s">
         <v>699</v>
-      </c>
-      <c r="B1320" t="s">
-        <v>700</v>
       </c>
       <c r="D1320" t="s">
         <v>59</v>
@@ -30478,7 +30479,7 @@
         <v>10</v>
       </c>
       <c r="F1320" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G1320" s="1">
         <v>46823</v>
@@ -30486,10 +30487,10 @@
     </row>
     <row r="1321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1321" t="s">
+        <v>698</v>
+      </c>
+      <c r="B1321" t="s">
         <v>699</v>
-      </c>
-      <c r="B1321" t="s">
-        <v>700</v>
       </c>
       <c r="D1321" t="s">
         <v>59</v>
@@ -30498,7 +30499,7 @@
         <v>16</v>
       </c>
       <c r="F1321" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G1321" s="1">
         <v>46824</v>
@@ -30506,10 +30507,10 @@
     </row>
     <row r="1322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1322" t="s">
+        <v>698</v>
+      </c>
+      <c r="B1322" t="s">
         <v>699</v>
-      </c>
-      <c r="B1322" t="s">
-        <v>700</v>
       </c>
       <c r="D1322" t="s">
         <v>59</v>
@@ -30518,7 +30519,7 @@
         <v>26</v>
       </c>
       <c r="F1322" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G1322" s="1">
         <v>46824</v>
@@ -30526,7 +30527,7 @@
     </row>
     <row r="1323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1323" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B1323" t="s">
         <v>24</v>
@@ -30543,7 +30544,7 @@
     </row>
     <row r="1324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1324" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B1324" t="s">
         <v>24</v>
@@ -30560,7 +30561,7 @@
     </row>
     <row r="1325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1325" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B1325" t="s">
         <v>24</v>
@@ -30580,7 +30581,7 @@
     </row>
     <row r="1326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1326" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B1326" t="s">
         <v>24</v>
@@ -30600,7 +30601,7 @@
     </row>
     <row r="1327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1327" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B1327" t="s">
         <v>24</v>
@@ -30620,7 +30621,7 @@
     </row>
     <row r="1328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1328" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B1328" t="s">
         <v>24</v>
@@ -30643,7 +30644,7 @@
     </row>
     <row r="1329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1329" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B1329" t="s">
         <v>86</v>
@@ -30666,7 +30667,7 @@
     </row>
     <row r="1330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1330" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B1330" t="s">
         <v>86</v>
@@ -30689,7 +30690,7 @@
     </row>
     <row r="1331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1331" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B1331" t="s">
         <v>86</v>
@@ -30718,7 +30719,7 @@
         <v>10</v>
       </c>
       <c r="F1332" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G1332" s="1">
         <v>46857</v>
@@ -30732,7 +30733,7 @@
         <v>16</v>
       </c>
       <c r="F1333" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="1334" spans="1:7" x14ac:dyDescent="0.3">
@@ -30743,7 +30744,7 @@
         <v>26</v>
       </c>
       <c r="F1334" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="1335" spans="1:7" x14ac:dyDescent="0.3">
@@ -30754,7 +30755,7 @@
         <v>10</v>
       </c>
       <c r="F1335" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G1335" s="1">
         <v>46857</v>
@@ -30768,7 +30769,7 @@
         <v>16</v>
       </c>
       <c r="F1336" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G1336" s="1">
         <v>46899</v>
@@ -30782,7 +30783,7 @@
         <v>10</v>
       </c>
       <c r="F1337" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G1337" s="1">
         <v>46824</v>
@@ -30790,10 +30791,10 @@
     </row>
     <row r="1338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1338" t="s">
+        <v>705</v>
+      </c>
+      <c r="B1338" t="s">
         <v>706</v>
-      </c>
-      <c r="B1338" t="s">
-        <v>707</v>
       </c>
       <c r="C1338">
         <v>6660003190</v>
@@ -30813,10 +30814,10 @@
     </row>
     <row r="1339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1339" t="s">
+        <v>705</v>
+      </c>
+      <c r="B1339" t="s">
         <v>706</v>
-      </c>
-      <c r="B1339" t="s">
-        <v>707</v>
       </c>
       <c r="C1339">
         <v>6660003190</v>
@@ -30836,7 +30837,7 @@
     </row>
     <row r="1340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1340" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B1340" t="s">
         <v>8</v>
@@ -30859,7 +30860,7 @@
     </row>
     <row r="1341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1341" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B1341" t="s">
         <v>8</v>
@@ -30882,7 +30883,7 @@
     </row>
     <row r="1342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1342" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B1342" t="s">
         <v>8</v>
@@ -30905,7 +30906,7 @@
     </row>
     <row r="1343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1343" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B1343" t="s">
         <v>24</v>
@@ -30922,7 +30923,7 @@
     </row>
     <row r="1344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1344" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B1344" t="s">
         <v>24</v>
@@ -30939,7 +30940,7 @@
     </row>
     <row r="1345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1345" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B1345" t="s">
         <v>24</v>
@@ -30951,7 +30952,7 @@
         <v>81</v>
       </c>
       <c r="E1345" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F1345" t="s">
         <v>11</v>
@@ -30962,7 +30963,7 @@
     </row>
     <row r="1346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1346" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B1346" t="s">
         <v>24</v>
@@ -30974,7 +30975,7 @@
         <v>14</v>
       </c>
       <c r="E1346" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F1346" t="s">
         <v>11</v>
@@ -30985,7 +30986,7 @@
     </row>
     <row r="1347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1347" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B1347" t="s">
         <v>8</v>
@@ -31002,7 +31003,7 @@
     </row>
     <row r="1348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1348" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B1348" t="s">
         <v>24</v>
@@ -31025,7 +31026,7 @@
     </row>
     <row r="1349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1349" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B1349" t="s">
         <v>24</v>
@@ -31042,7 +31043,7 @@
     </row>
     <row r="1350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1350" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B1350" t="s">
         <v>24</v>
@@ -31059,7 +31060,7 @@
     </row>
     <row r="1351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1351" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B1351" t="s">
         <v>24</v>
@@ -31076,7 +31077,7 @@
     </row>
     <row r="1352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1352" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B1352" t="s">
         <v>24</v>
@@ -31096,10 +31097,10 @@
     </row>
     <row r="1353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1353" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B1353" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D1353" t="s">
         <v>9</v>
@@ -31108,7 +31109,7 @@
         <v>88</v>
       </c>
       <c r="F1353" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G1353" s="1">
         <v>46949</v>
@@ -31116,7 +31117,7 @@
     </row>
     <row r="1354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1354" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B1354" t="s">
         <v>24</v>
@@ -31136,10 +31137,10 @@
     </row>
     <row r="1355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1355" t="s">
+        <v>715</v>
+      </c>
+      <c r="B1355" t="s">
         <v>716</v>
-      </c>
-      <c r="B1355" t="s">
-        <v>717</v>
       </c>
       <c r="C1355">
         <v>7723320277</v>
@@ -31159,10 +31160,10 @@
     </row>
     <row r="1356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1356" t="s">
+        <v>717</v>
+      </c>
+      <c r="B1356" t="s">
         <v>718</v>
-      </c>
-      <c r="B1356" t="s">
-        <v>719</v>
       </c>
       <c r="C1356" s="2">
         <v>584000000000</v>
@@ -31182,10 +31183,10 @@
     </row>
     <row r="1357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1357" t="s">
+        <v>717</v>
+      </c>
+      <c r="B1357" t="s">
         <v>718</v>
-      </c>
-      <c r="B1357" t="s">
-        <v>719</v>
       </c>
       <c r="C1357" s="2">
         <v>584000000000</v>
@@ -31205,7 +31206,7 @@
     </row>
     <row r="1358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1358" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B1358" t="s">
         <v>24</v>
@@ -31228,7 +31229,7 @@
     </row>
     <row r="1359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1359" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B1359" t="s">
         <v>24</v>
@@ -31251,7 +31252,7 @@
     </row>
     <row r="1360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1360" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B1360" t="s">
         <v>24</v>

--- a/sites/URS_Certifications 29.07.25.xlsx
+++ b/sites/URS_Certifications 29.07.25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\sites\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6478DA5A-FCC3-4A08-9596-5E05311BE0FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC8F1768-7F58-43B4-B1BE-C51737EC4F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2188,7 +2188,7 @@
     <t>LTD</t>
   </si>
   <si>
-    <t>Armtel-Engineering (India)</t>
+    <t>Armtel Engineering Private Limited</t>
   </si>
 </sst>
 </file>
@@ -3052,12 +3052,12 @@
   <dimension ref="A1:G1360"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A606" workbookViewId="0">
-      <selection activeCell="C620" sqref="C620"/>
+      <selection activeCell="B620" sqref="B620"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" customWidth="1"/>
     <col min="2" max="7" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
